--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Ecommerce" sheetId="2" r:id="rId2"/>
     <sheet name="Normal" sheetId="3" r:id="rId3"/>
     <sheet name="tag-catagory" sheetId="4" r:id="rId4"/>
+    <sheet name="tables" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="297">
   <si>
     <t>Post_Title</t>
   </si>
@@ -165,12 +166,6 @@
 </t>
   </si>
   <si>
-    <t>A principios de este mes de diciembre, la Comisión Europea aprobó una reforma para que los Estados miembro puedan aplicar un tipo de IVA reducido o superreducido a los libros digitales. Hasta ese momento no era posible y, de hecho, países como Francia o Luxemburgo, que decidieron bajar unilateralmente los impuestos a los libros digitales, tuvieron que rectificar tras una orden directa del Tribunal de Justicia de la Unión Europea. Ahora, desde Bruselas, creen que ya no es necesaria esa discriminación positiva y permitirán que cada país imponga el tipo de impuesto que desee a los libros digitales.</t>
-  </si>
-  <si>
-    <t>lounge.jpg</t>
-  </si>
-  <si>
     <t>Automate: Apple rompe la racha negativa del 2016 empujada por un tanque de oxigeno llamado iPhone 7</t>
   </si>
   <si>
@@ -222,13 +217,7 @@
     <t>https://www.youtube.com/watch?v=aVtl8ga8rLo</t>
   </si>
   <si>
-    <t>Inforgram_datawrapper</t>
-  </si>
-  <si>
     <t>Table</t>
-  </si>
-  <si>
-    <t>Giphy</t>
   </si>
   <si>
     <t>Utilice este ensayo básico de ejemplo como modelo</t>
@@ -254,9 +243,6 @@
   </si>
   <si>
     <t>https://vimeo.com/157287763</t>
-  </si>
-  <si>
-    <t>GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@Goods~##~Car~##~nul@##@también no suelen tener "accidentes". Los gatos de la madre entrenan a sus</t>
   </si>
   <si>
     <t>http://giphy.com/gifs/reactionseditor-winona-ryder-l3q2xQ9OQ6XPtziHS</t>
@@ -441,9 +427,6 @@
     <t>7@##@No parece importar mucho que ferias como el CES 2017 hayan sido\n una verdadera fiesta para este tipo de equipos: los entusiastas y\n gamers que siguen apoyando esta plataforma al\n máximo no pueden contrarrestar la tendencia mayoritaria: la de\n los usuarios que no renuevan el PC por la sencilla razón de que no necesitan hacerlo.@##@testing worst input ficha\ntesting ficha\ntesting ficha\n@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el &lt;strong&gt;supuesto&lt;/strong&gt; nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
   </si>
   <si>
-    <t>5@##@No parece importar mucho que ferias como el CES 2017 hayan sido\n una verdadera fiesta para este tipo de equipos: los entusiastas y\n gamers que siguen apoyando esta plataforma al\n máximo no pueden contrarrestar la tendencia mayoritaria: la de\n los usuarios que no renuevan el PC por la sencilla razón de que no necesitan hacerlo.@##@testing worst input ficha\ntesting ficha\ntesting ficha\n@##@Item1@###@10@~#~@Item2@###@3~#~@Item3@###@5@##@Preguntas y respuestas sobre el &lt;strong&gt;supuesto&lt;/strong&gt; nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
-  </si>
-  <si>
     <t>Tecnología Zen</t>
   </si>
   <si>
@@ -473,9 +456,6 @@
 7@##@No parece importar mucho que ferias como el CES 2017 hayan sido&lt;br&gt; una verdadera fiesta para este tipo de equipos: los entusiastas y&lt;br&gt;gamers que siguen apoyando esta plataforma al&lt;br&gt; máximo no pueden contrarrestar la tendencia mayoritaria: la de&lt;br&gt; los usuarios que no renuevan el PC por la sencilla razón de que no necesitan hacerlo.@##@testing worst input ficha&lt;br&gt;testing ficha&lt;br&gt;testing ficha\n@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el &lt;strong&gt;supuesto&lt;/strong&gt; nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
   </si>
   <si>
-    <t>null@##@No parece importar mucho que ferias como el CES 2017 hayan sido&lt;br&gt; una verdadera fiesta para este tipo de equipos: los entusiastas y&lt;br&gt;gamers que siguen apoyando esta plataforma al&lt;br&gt; máximo no pueden contrarrestar la tendencia mayoritaria: la de&lt;br&gt; los usuarios que no renuevan el PC por la sencilla razón de que no necesitan hacerlo.@##@testing worst input ficha&lt;br&gt;testing ficha&lt;br&gt;testing ficha\n@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el &lt;strong&gt;supuesto&lt;/strong&gt; nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
-  </si>
-  <si>
     <t>car.jpg@#@lounge.jpg</t>
   </si>
   <si>
@@ -878,13 +858,91 @@
     <t>El siguiente gran mercado de la tecnología es el de los juguetes sexuales, aunque casi nadie esté hablando de ello</t>
   </si>
   <si>
-    <t>La primera carrera con coches autónomos terminó en accidente: Roborace en Argentina</t>
-  </si>
-  <si>
-    <t>Nubia.jpg</t>
-  </si>
-  <si>
-    <t>primary.jpg@#@lounge.jpg</t>
+    <t xml:space="preserve"> [[DISCLAIMER: Nokia]]</t>
+  </si>
+  <si>
+    <t>Branded Article</t>
+  </si>
+  <si>
+    <t>Automate Excel Branded Article: readores de este programa no se conformaron con es</t>
+  </si>
+  <si>
+    <t>Automate #Excel Branded Article #1 #2</t>
+  </si>
+  <si>
+    <t>Brand Article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table_Data </t>
+  </si>
+  <si>
+    <t>Checkbox_same_width</t>
+  </si>
+  <si>
+    <t>Checkbox_table_first_row_heading</t>
+  </si>
+  <si>
+    <t>Checkbox_table_first_column_heading</t>
+  </si>
+  <si>
+    <t>Checkbox_table_occupy_all_avaiable_width</t>
+  </si>
+  <si>
+    <t>A principios de este mes de diciembre, la Comisión Europea aprobó una reforma para que los Estados miembro puedan aplicar un tipo de IVA reducido o superreducido a los libros digitales. Hasta ese momento no era posible y, de hecho, países como Francia o Luxemburgo, que decidieron bajar unilateralmente los impuestos a los libros digitales, tuvieron que rectificar tras una orden directa del Tribunal de Justicia de la Unión Europea. Ahora, desde Bruselas, creen que ya no es necesaria esa discriminación positiva y permitirán que cada país imponga el tipo de impuesto que desee a los libros digitales.                     [[DISCLAIMER: SAMSUNG]]</t>
+  </si>
+  <si>
+    <t>slide1.jpg</t>
+  </si>
+  <si>
+    <t>Item1~##~column1~##~column2@##@Item2~##~column1~##~column2</t>
+  </si>
+  <si>
+    <t>Row *coulumns</t>
+  </si>
+  <si>
+    <t>2 * 3</t>
+  </si>
+  <si>
+    <t>Item1~##~column1~##~column2@##@Item2~##~column1~##~column2@##@Item3~##~column1~##~column2</t>
+  </si>
+  <si>
+    <t>La International Society of Professional Wedding Photographers~##~ha hecho públicas las fotos ganadoras de su concurso~##~asociación de fotógrafos sociales @##@El concurso fotográfico que desarrolla esta asociación de fotógrafos sociales ~##~Cada una de ellas consta de 20 categorías diferentes~##~miembros que previamente han ganado el galardón.</t>
+  </si>
+  <si>
+    <t>Google Reader@##@Model1.1@##@https://i.blogs.es/2d9908/gears2/1366_2000.jpg@##@https://i.blogs.es/8fc515/programacion/650_1200.jpg@##@Precio:199€~##~Comprar Ahora~##~http://www.gearbest.com/cell-phones/pp_308825.html@##@Item1~##~1.99~##~null@~@Item2~##~1.99~##~http://yahoo.com@##@El aspecto final de Beast v2 era sobrecogedor: un enorme cilindro de 2 metros de altura y casi 150 kg de peso en el que se agrupaban esas 144 Raspberry Pi2</t>
+  </si>
+  <si>
+    <t>giphy_url</t>
+  </si>
+  <si>
+    <t>giphy_layout</t>
+  </si>
+  <si>
+    <t>giphy_caption</t>
+  </si>
+  <si>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>Inforgram_datawrapper_URL</t>
+  </si>
+  <si>
+    <t>infographLayout</t>
+  </si>
+  <si>
+    <t>infographCaption</t>
+  </si>
+  <si>
+    <t>https://infogr.am/895d228e-e2d1-47c2-9639-49cbed723b29</t>
+  </si>
+  <si>
+    <t>Testing infograph caption</t>
+  </si>
+  <si>
+    <t>Shobha Automate giphy/inforgram</t>
+  </si>
+  <si>
+    <t>slide6.jpg</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1191,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1450,12 +1508,13 @@
     <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
     <col min="11" max="11" width="14.140625" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="13" max="19" width="9.140625" style="7"/>
+    <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45.75" thickBot="1">
+    <row r="1" spans="1:44" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1473,28 +1532,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>6</v>
@@ -1503,72 +1562,99 @@
         <v>7</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="43.5" customHeight="1" thickBot="1">
+      <c r="AP1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>28</v>
@@ -1577,1164 +1663,1595 @@
         <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="N2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="AP4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE8" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB9" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE9" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="39" customHeight="1" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE11" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AO12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="M13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI5" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI6" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="39" customHeight="1" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI12" s="7" t="s">
-        <v>52</v>
+      <c r="AI13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2750,12 +3267,19 @@
     <hyperlink ref="F9" r:id="rId9"/>
     <hyperlink ref="F10" r:id="rId10"/>
     <hyperlink ref="F5" r:id="rId11"/>
-    <hyperlink ref="Q12" r:id="rId12"/>
-    <hyperlink ref="I12" r:id="rId13"/>
-    <hyperlink ref="F12" r:id="rId14"/>
+    <hyperlink ref="S13" r:id="rId12" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
+    <hyperlink ref="I13" r:id="rId13"/>
+    <hyperlink ref="F13" r:id="rId14"/>
+    <hyperlink ref="X2" r:id="rId15"/>
+    <hyperlink ref="X3" r:id="rId16" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
+    <hyperlink ref="O2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="O3" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="O4" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="O5" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="T2" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2764,7 +3288,7 @@
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2850,24 +3374,24 @@
         <v>14</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="118.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>41</v>
@@ -2927,24 +3451,24 @@
         <v>33</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="114.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>41</v>
@@ -3004,13 +3528,13 @@
         <v>33</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3029,17 +3553,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" s="7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="1" spans="1:43" s="7" customFormat="1" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3057,209 +3581,259 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="T1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" s="7" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="AO1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="7" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>275</v>
+        <v>55</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>43</v>
+      <c r="N2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="S2" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>52</v>
+      <c r="AH2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.xataka.com/vehiculos/la-primera-carrera-con-coches-autonomos-termino-en-accidente-roborace-en-argentina"/>
+    <hyperlink ref="I2" r:id="rId1" display="car.jpg@#@lounge.jpg"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="N2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="W2" r:id="rId3" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
+    <hyperlink ref="S2" r:id="rId4"/>
+    <hyperlink ref="P2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3267,15 +3841,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="69.75" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>25</v>
@@ -3284,105 +3861,105 @@
         <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" thickBot="1">
       <c r="A2" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1">
       <c r="A3" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39.75" thickBot="1">
       <c r="A4" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" thickBot="1">
       <c r="A5" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" thickBot="1">
       <c r="A6" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:5" ht="27" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -3391,550 +3968,596 @@
     </row>
     <row r="9" spans="1:5" ht="39.75" thickBot="1">
       <c r="A9" s="16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" thickBot="1">
       <c r="A10" s="16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" thickBot="1">
       <c r="A11" s="16" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" thickBot="1">
       <c r="A12" s="16" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" thickBot="1">
       <c r="A13" s="16" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" thickBot="1">
       <c r="A14" s="16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" thickBot="1">
       <c r="A15" s="16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" thickBot="1">
       <c r="A16" s="16" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="52.5" thickBot="1">
       <c r="A17" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" thickBot="1">
+      <c r="A18" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="39.75" thickBot="1">
-      <c r="A18" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>201</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.75" thickBot="1">
       <c r="A19" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="39.75" thickBot="1">
       <c r="A20" s="16" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="39.75" thickBot="1">
       <c r="A21" s="16" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="39.75" thickBot="1">
       <c r="A22" s="16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" thickBot="1">
       <c r="A23" s="16" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" thickBot="1">
       <c r="A24" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" thickBot="1">
       <c r="A25" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" thickBot="1">
       <c r="A26" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="39.75" thickBot="1">
       <c r="A27" s="16" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" thickBot="1">
       <c r="A28" s="16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="39.75" thickBot="1">
       <c r="A29" s="16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" thickBot="1">
       <c r="A30" s="16" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="16" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" thickBot="1">
       <c r="A32" s="16" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" thickBot="1">
       <c r="A33" s="16" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="39.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="27" thickBot="1">
       <c r="A34" s="16" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" thickBot="1">
       <c r="A35" s="16" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" thickBot="1">
       <c r="A36" s="16" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="39.75" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27" thickBot="1">
       <c r="A37" s="16" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" thickBot="1">
       <c r="A38" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="27" thickBot="1">
+      <c r="A39" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="27" thickBot="1">
+      <c r="A40" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="39.75" thickBot="1">
-      <c r="A39" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="39.75" thickBot="1">
-      <c r="A40" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>271</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="108.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="86.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="419">
   <si>
     <t>Post_Title</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>Homepage content for ecommerce post</t>
-  </si>
-  <si>
     <t>Hi testing for FB content</t>
   </si>
   <si>
@@ -888,24 +885,12 @@
     <t>Checkbox_table_occupy_all_avaiable_width</t>
   </si>
   <si>
-    <t>A principios de este mes de diciembre, la Comisión Europea aprobó una reforma para que los Estados miembro puedan aplicar un tipo de IVA reducido o superreducido a los libros digitales. Hasta ese momento no era posible y, de hecho, países como Francia o Luxemburgo, que decidieron bajar unilateralmente los impuestos a los libros digitales, tuvieron que rectificar tras una orden directa del Tribunal de Justicia de la Unión Europea. Ahora, desde Bruselas, creen que ya no es necesaria esa discriminación positiva y permitirán que cada país imponga el tipo de impuesto que desee a los libros digitales.                     [[DISCLAIMER: SAMSUNG]]</t>
-  </si>
-  <si>
     <t>slide1.jpg</t>
   </si>
   <si>
     <t>Item1~##~column1~##~column2@##@Item2~##~column1~##~column2</t>
   </si>
   <si>
-    <t>Row *coulumns</t>
-  </si>
-  <si>
-    <t>2 * 3</t>
-  </si>
-  <si>
-    <t>Item1~##~column1~##~column2@##@Item2~##~column1~##~column2@##@Item3~##~column1~##~column2</t>
-  </si>
-  <si>
     <t>La International Society of Professional Wedding Photographers~##~ha hecho públicas las fotos ganadoras de su concurso~##~asociación de fotógrafos sociales @##@El concurso fotográfico que desarrolla esta asociación de fotógrafos sociales ~##~Cada una de ellas consta de 20 categorías diferentes~##~miembros que previamente han ganado el galardón.</t>
   </si>
   <si>
@@ -939,17 +924,413 @@
     <t>Testing infograph caption</t>
   </si>
   <si>
-    <t>Shobha Automate giphy/inforgram</t>
-  </si>
-  <si>
-    <t>slide6.jpg</t>
+    <t>Recipe_name</t>
+  </si>
+  <si>
+    <t>Recipe_Person</t>
+  </si>
+  <si>
+    <t>Recipe_level (low/Medium/High)</t>
+  </si>
+  <si>
+    <t>Recipe_ingredients</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Shobha Automate Recipe Post</t>
+  </si>
+  <si>
+    <t>slide8.jpg</t>
+  </si>
+  <si>
+    <t>Preparation_time_hours</t>
+  </si>
+  <si>
+    <t>Preparation_time_Mintues</t>
+  </si>
+  <si>
+    <t>Cooking_time_hours</t>
+  </si>
+  <si>
+    <t>Cooking_time_minutes</t>
+  </si>
+  <si>
+    <t>Rest_time_hours</t>
+  </si>
+  <si>
+    <t>Rest_time_mintues</t>
+  </si>
+  <si>
+    <t>Recipe_Image</t>
+  </si>
+  <si>
+    <t>Recipe_postcontent</t>
+  </si>
+  <si>
+    <t>Recipe_More_postcontent</t>
+  </si>
+  <si>
+    <t>Recipe_summary</t>
+  </si>
+  <si>
+    <t>Recipe_Youtube_Video</t>
+  </si>
+  <si>
+    <t>Recipe_Vine_Video</t>
+  </si>
+  <si>
+    <t>Recipe_Vimeo_Video</t>
+  </si>
+  <si>
+    <t>Recipe_FB_Video</t>
+  </si>
+  <si>
+    <t>fajitas de pollo en salsa BBQ</t>
+  </si>
+  <si>
+    <t>Vamos a cortar todos los pimientos en julianas así como la cebolla. Enseguida cortamos las pechugas en fajitas de unos ocho centímetros de largas. Cuando todo esté listo, calentamos el aceite en un sartén grande y ponemos primero a sofreír la cebolla por unos tres minutos. Le agregamos las julianas de **pimiento y dejamos a fuego** medio por unos cinco minutos. Añadimos entonces las fajitas de pollo y sazonamos con el comino, sal y pimienta. Dejamos en al lumbre, a intensidad media, por unos 10 minutos más.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mientras tanto prepararemos la salsa BBQ y para ello **derretimos la mantequilla en** una olla a la que agregamos la cebolla picada que dejamos un par de minutos. Integramos entonces la kétchup, el azúcar, la salsa Worcesteshire, y in poco de sal. ***Revolvemos bien y dejamos*** unos cinco minutos en la lumbre medio alta. Finalmente vertemos esta salsa al sartén del pollo. Mezclamos bien y dejamos unos ocho a diez minutos más.
+</t>
+  </si>
+  <si>
+    <t>recipe1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SGPOJ_IqRDk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoy te propongo esta receta de lasaña mar y tierra que reúne ingredientes como una carne blanca, bacon y mariscos. El sabor resultante de la integración de estos elementos nos va a dar una muy buena experiencia gustativa. para darle un poco de energía te recomiendo agregar un poco de salsa picante como Tabasco o Valentina.
+</t>
+  </si>
+  <si>
+    <t>Recipe_summary_layout</t>
+  </si>
+  <si>
+    <t>Recipe_Youtube_Video-layout</t>
+  </si>
+  <si>
+    <t>Recipe_Vine_Video_layout</t>
+  </si>
+  <si>
+    <t>Recipe_Vimeo_Video_layout</t>
+  </si>
+  <si>
+    <t>Recipe_FB_Video_layout</t>
+  </si>
+  <si>
+    <t>Recipe Post</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3xStYM4sPiY</t>
+  </si>
+  <si>
+    <t>La compañía japonesa ha presentado la hoja de ruta más reciente de sus objetivos Fujinon para cámaras digitales sin espejo con montura X.~##~La hoja de ruta más reciente de sus objetivos Fujinon para cámaras digitales sin espejo con montura X.@##@Pero nunca varios meses antes, por lo que el asombro es importante.~##~Lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción.</t>
+  </si>
+  <si>
+    <t>https://infogr.am/top_earners-73544</t>
+  </si>
+  <si>
+    <t>**Regalar tecnología por San Valentín** no es sencillo. Para hacértelo más fácil tenemos una guía de compras con una selección de **49 ideas para él y/o ella** con las que acertar este año. Hemos seleccionado regalos diferentes para San Valentín que incluyen tecnología, cultura, productos para el cuidado o la cocina, juegos y alguna que otra sorpresa para que escoger **qué regalar por San Valentín** no sea complicado.      [[DISCLAIMER: SAMSUNG]]</t>
+  </si>
+  <si>
+    <t>Table Type</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>2*2</t>
+  </si>
+  <si>
+    <t>Vimeo Youtube</t>
+  </si>
+  <si>
+    <t>Vine Youtube</t>
+  </si>
+  <si>
+    <t>Facebook Video</t>
+  </si>
+  <si>
+    <t>Twitter video</t>
+  </si>
+  <si>
+    <t>FB Embed</t>
+  </si>
+  <si>
+    <t>Twitter embed</t>
+  </si>
+  <si>
+    <t>Giphy</t>
+  </si>
+  <si>
+    <t>Infogram</t>
+  </si>
+  <si>
+    <t>Datawrapper</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/205338395</t>
+  </si>
+  <si>
+    <t>https://vine.co/v/ehLUIMreaDj</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/netflix/videos/875774479221068/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-video" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;&lt;a href="https://twitter.com/hashtag/VIDEO?src=hash"&gt;#VIDEO&lt;/a&gt; | Fifth Harmony sending a special message to their &lt;a href="https://twitter.com/hashtag/Harmonizers?src=hash"&gt;#Harmonizers&lt;/a&gt;! (via &lt;a href="https://twitter.com/iHeartRadio"&gt;@iHeartRadio&lt;/a&gt;) &lt;a href="https://twitter.com/hashtag/iHeartAwards?src=hash"&gt;#iHeartAwards&lt;/a&gt;&lt;a href="https://t.co/k1Xhcd1kpw"&gt;pic.twitter.com/k1Xhcd1kpw&lt;/a&gt;&lt;/p&gt;&amp;mdash; Lauren Updates (@LMJupdates) &lt;a href="https://twitter.com/LMJupdates/status/838598574854270976"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2FFunny.Animals.pic.video%2Fposts%2F1249185928493029&amp;width=500" width="500" height="512" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Virat retires tomorrow. Old ships never die, their spirits live on.&lt;a href="https://twitter.com/hashtag/INSViraat?src=hash"&gt;#INSViraat&lt;/a&gt; -serving Indian Navy for 30 yrs to be decommissioned tomorrow &lt;a href="https://t.co/8i9cNnsEC8"&gt;pic.twitter.com/8i9cNnsEC8&lt;/a&gt;&lt;/p&gt;&amp;mdash; Virender Sehwag (@virendersehwag) &lt;a href="https://twitter.com/virendersehwag/status/838402421957267459"&gt;March 5, 2017&lt;/a&gt;&lt;/blockquote&gt;
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/iheartradio-l1KVaFWZ5g2YzonC0</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xQMjX/1/</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tghx5-cdVa0</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/206313230</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Funny.Animals.pic.video/videos/1248681365210152/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-video" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;&lt;a href="https://twitter.com/hashtag/VIDEO?src=hash"&gt;#VIDEO&lt;/a&gt; | Another one of Katy dancing on the red carpet &lt;a href="https://twitter.com/hashtag/iHeartAwards?src=hash"&gt;#iHeartAwards&lt;/a&gt; &lt;a href="https://t.co/Lygy00ukTt"&gt;pic.twitter.com/Lygy00ukTt&lt;/a&gt;&lt;/p&gt;&amp;mdash; Katy Perry Pics (@katyspics) &lt;a href="https://twitter.com/katyspics/status/838537413035175936"&gt;March 5, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2FAtlassian%2Fposts%2F1412374825459473&amp;width=500" width="500" height="285" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Hindu Americans slam CNN for negative portrayal of Hinduism in a show hosted by Reza Azlan&lt;a href="https://t.co/S4qC8T2gGx"&gt;https://t.co/S4qC8T2gGx&lt;/a&gt; &lt;a href="https://t.co/sT4uWHnbje"&gt;pic.twitter.com/sT4uWHnbje&lt;/a&gt;&lt;/p&gt;&amp;mdash; India Today (@IndiaToday) &lt;a href="https://twitter.com/IndiaToday/status/838680257557381120"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt;
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;
+</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/iheartradio-maggie-iheartradioliveseries-sUD9i8zeQsePe</t>
+  </si>
+  <si>
+    <t>https://infogr.am/bollywoods-top-worldwide-earners</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/xnpKY/1/</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>Apple ha anunciado hace escasos minutos11~##~El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos21~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste31@##@Apple ha anunciado hace escasos minutos12~##~Sigma sigue apostando por ofrecer un catálogo de objetivos amplio y constantemente actualizado. 22~##~Normalmente Apple hace este anuncio unas semanas antes, pero nunca varios meses antes, por lo que el asombro es importante.32@##@Apple ha anunciado hace escasos minutos13~##~'Women on Street': Garry Winogrand y Peter Lindbergh fotografiando a la mujer a pie de calle23~##~Apple ha anunciado hace escasos minutos33</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a77cC3EdZRo</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/206446083</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Funny.Animals.pic.video/videos/1248843705193918/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-video" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;&lt;a href="https://twitter.com/hashtag/VIDEO?src=hash"&gt;#VIDEO&lt;/a&gt; | &lt;a href="https://twitter.com/katyperry"&gt;@katyperry&lt;/a&gt; + halsey 😍 &lt;a href="https://twitter.com/hashtag/iHeartAwards?src=hash"&gt;#iHeartAwards&lt;/a&gt; &lt;a href="https://t.co/olw1YagnVz"&gt;pic.twitter.com/olw1YagnVz&lt;/a&gt;&lt;/p&gt;&amp;mdash; Katy Perry Pics (@katyspics) &lt;a href="https://twitter.com/katyspics/status/838568822403649536"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2FAgoraPulse%2Fposts%2F1337461269614566&amp;width=500" width="500" height="589" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Thx &lt;a href="https://twitter.com/MWSYouth"&gt;@MWSYouth&lt;/a&gt; &lt;a href="https://twitter.com/AzmiShabana"&gt;@AzmiShabana&lt;/a&gt; &lt;a href="https://twitter.com/ManishMalhotra"&gt;@ManishMalhotra&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/Namrata?src=hash"&gt;#Namrata&lt;/a&gt; for making me walk for women equality. It was such a happy show &lt;a href="https://t.co/ln1wsm5QtM"&gt;pic.twitter.com/ln1wsm5QtM&lt;/a&gt;&lt;/p&gt;&amp;mdash; Shah Rukh Khan (@iamsrk) &lt;a href="https://twitter.com/iamsrk/status/838457501926506502"&gt;March 5, 2017&lt;/a&gt;&lt;/blockquote&gt;
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/loop-problem-hFmIU5GQF18Aw</t>
+  </si>
+  <si>
+    <t>https://infogr.am/999c4f59-cb33-4c64-b2da-a58a02a2ac0e</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/dkti2/1/</t>
+  </si>
+  <si>
+    <t>4*4</t>
+  </si>
+  <si>
+    <t>Apple ha anunciado hace escasos minutos11~##~El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos21~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste31~##~Un universo que frecuentemente sitúa en lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción.41@##@Apple ha anunciado hace escasos minutos12~##~Sigma sigue apostando por ofrecer un catálogo de objetivos amplio y constantemente actualizado. 22~##~Normalmente Apple hace este anuncio unas semanas antes, pero nunca varios meses antes, por lo que el asombro es importante.32~##~Una nueva gama de productos específicos para grabar imagen en movimiento42@##@Apple ha anunciado hace escasos minutos13~##~'Women on Street': Garry Winogrand y Peter Lindbergh fotografiando a la mujer a pie de calle23~##~Apple ha anunciado hace escasos minutos33~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.43@##@El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos14~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste24~##~Un universo que frecuentemente sitúa en lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción.34~##~Apple ha anunciado hace escasos minutos44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zHnwEf6Cdns</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/206450881</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/findmeafunnyvideo/videos/1799815930339237/</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2FsarcasmLOL%2Fposts%2F1959265377735570%3A0&amp;width=500" width="500" height="503" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;Lovely photo of the &lt;a href="https://twitter.com/airindiain"&gt;@airindiain&lt;/a&gt; All Women Flight Around the Globe making a record and making women proud. &lt;a href="https://t.co/PRuBMVY07J"&gt;pic.twitter.com/PRuBMVY07J&lt;/a&gt;&lt;/p&gt;&amp;mdash; barkha dutt (@BDUTT) &lt;a href="https://twitter.com/BDUTT/status/838262007677607938"&gt;March 5, 2017&lt;/a&gt;&lt;/blockquote&gt;
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/mrw-girl-bed-xWzwMSh089Jwk</t>
+  </si>
+  <si>
+    <t>https://infogr.am/citys_top_earners</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/g5HnW/1/</t>
+  </si>
+  <si>
+    <t>5*5</t>
+  </si>
+  <si>
+    <t>Apple ha anunciado hace escasos minutos11~##~El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos21~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste31~##~Un universo que frecuentemente sitúa en lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción.41~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.51@##@Apple ha anunciado hace escasos minutos12~##~Sigma sigue apostando por ofrecer un catálogo de objetivos amplio y constantemente actualizado. 22~##~Normalmente Apple hace este anuncio unas semanas antes, pero nunca varios meses antes, por lo que el asombro es importante.32~##~Una nueva gama de productos específicos para grabar imagen en movimiento42~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.52@##@Apple ha anunciado hace escasos minutos13~##~'Women on Street': Garry Winogrand y Peter Lindbergh fotografiando a la mujer a pie de calle23~##~Apple ha anunciado hace escasos minutos33~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.43~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.53@##@El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos14~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste24~##~Un universo que frecuentemente sitúa en lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción.34~##~Apple ha anunciado hace escasos minutos44~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.54@##@Apple ha anunciado hace escasos minutos51~##~El caso es que si te adentras en el apasionante mundo de la fotografía te aseguramos52~##~Hablamos con su director, Andrés Parro, para que nos explique en qué consiste53~##~Un universo que frecuentemente sitúa en lugares en ruinas en donde las mujeres navegan entre la realidad y la ficción54.~##~¡Menuda sorpresa! Apple ha anunciado hace escasos minutos.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Q0sFaZJpYs</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/203914095</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/Funny.Animals.pic.video/videos/1248513428560279/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-video" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;&lt;a href="https://twitter.com/hashtag/VIDEO?src=hash"&gt;#VIDEO&lt;/a&gt; | Fifth Harmony at the &lt;a href="https://twitter.com/hashtag/iHeartAwards?src=hash"&gt;#iHeartAwards&lt;/a&gt; (via &lt;a href="https://twitter.com/beyou562"&gt;@beyou562&lt;/a&gt;) &lt;a href="https://t.co/2w83ikL4yP"&gt;pic.twitter.com/2w83ikL4yP&lt;/a&gt;&lt;/p&gt;&amp;mdash; Lauren Updates (@LMJupdates) &lt;a href="https://twitter.com/LMJupdates/status/838645107557548032"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2FsarcasmLOL%2Fposts%2F1959186534410121%3A0&amp;width=500" width="500" height="503" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;OUT or NOT OUT ? Richard Kettleborough thought it was out. What do you think ? &lt;a href="https://twitter.com/hashtag/Virat?src=hash"&gt;#Virat&lt;/a&gt; &lt;a href="https://twitter.com/Paytm"&gt;@Paytm&lt;/a&gt; &lt;a href="https://twitter.com/hashtag/INDvAUS?src=hash"&gt;#INDvAUS&lt;/a&gt; &lt;a href="https://t.co/ytG40lfuwt"&gt;pic.twitter.com/ytG40lfuwt&lt;/a&gt;&lt;/p&gt;&amp;mdash; BCCI (@BCCI) &lt;a href="https://twitter.com/BCCI/status/838667341730889728"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt;
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/peace-half-baked-jerry-garcia-xT5LMHXahmEZqxhCRa</t>
+  </si>
+  <si>
+    <t>https://infogr.am/top-1807715914748</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/4KH6p/1/</t>
+  </si>
+  <si>
+    <t>6*6</t>
+  </si>
+  <si>
+    <t>La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographers~##~KCAL~##~HIDRATOS (GRAMOS)~##~PROTEÍNAS (GRAMOS)~##~GRASAS (GRAMOS)@##@Lunes~##~La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographersl~##~La International Society of Professional Wedding Photographers@##@DESAYUNO~##~Un vaso de leche (200 ml), un plátano, una tostada integral con tomate triturado y una loncha de jamón, un yogur desnatado con una ración de avena.~##~ 609~##~ 90.23~##~ 35.34 ~##~9.3@##@COMIDA ~##~Un plato de pasta con tomate frito en conserva; una pechuga de pollo a la plancha acompañada por brócoli; un yogur desnatrado y una manzana. 30 gramos de pan integral. ~##~768~##~ 97.32~##~ 55.42~##~ 14.49@##@CENA~##~ Dos filetes de salmón con ensalada de lechuga, tomate, pepino, espárragos, zanahoria y 100 gramos de patata cocida. 30 gramos de pan integral. 150 gramos de piña.~##~ 654 ~##~50.12~##~ 49.73~##~ 26.2@##@Some text~##~TOTAL DIARIO~##~2031~##~237.67~##~140.49~##~49.99@##@MARTES~##~La International Society of Professional Wedding Photographers~##~Some text~##~La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographers~##~La International Society of Professional Wedding Photographers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_kYcyvwUYkE</t>
+  </si>
+  <si>
+    <t>https://vimeo.com/204540633</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/apple/videos/1314018582024077/</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-video" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;&lt;a href="https://twitter.com/hashtag/VIDEO?src=hash"&gt;#VIDEO&lt;/a&gt; 🎥 Eleanor and Louis walking away from the fight at LAX! They both look so lost💔 (Via: &lt;a href="https://twitter.com/CaldersElephant"&gt;@CaldersElephant&lt;/a&gt;) &lt;a href="https://t.co/ueUmJCVO5B"&gt;pic.twitter.com/ueUmJCVO5B&lt;/a&gt;&lt;/p&gt;&amp;mdash; 1D Updates (@1DUpdateGR) &lt;a href="https://twitter.com/1DUpdateGR/status/838380024411611136"&gt;March 5, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;iframe src="https://www.facebook.com/plugins/post.php?href=https%3A%2F%2Fwww.facebook.com%2Fpromocodeindia%2Fposts%2F1340969252627682&amp;width=500" width="500" height="235" style="border:none;overflow:hidden" scrolling="no" frameborder="0" allowTransparency="true"&gt;&lt;/iframe&gt;</t>
+  </si>
+  <si>
+    <t>&lt;blockquote class="twitter-tweet" data-lang="en"&gt;&lt;p lang="en" dir="ltr"&gt;All you need to pursue happiness is right here. Just visit &lt;a href="https://t.co/Yi60yng3pl"&gt;https://t.co/Yi60yng3pl&lt;/a&gt; for your dose of &lt;a href="https://twitter.com/hashtag/MondayMotivation?src=hash"&gt;#MondayMotivation&lt;/a&gt;! &lt;a href="https://t.co/BGDHgQaqKT"&gt;pic.twitter.com/BGDHgQaqKT&lt;/a&gt;&lt;/p&gt;&amp;mdash; Flipkart (@Flipkart) &lt;a href="https://twitter.com/Flipkart/status/838691447566176256"&gt;March 6, 2017&lt;/a&gt;&lt;/blockquote&gt; 
+&lt;script async src="//platform.twitter.com/widgets.js" charset="utf-8"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>http://giphy.com/gifs/fallontonight-lol-nfl-3o6ZtilPtUGDn4OGAg</t>
+  </si>
+  <si>
+    <t>https://infogr.am/634Pac8nq1naWUHV</t>
+  </si>
+  <si>
+    <t>https://datawrapper.dwcdn.net/cSpbp/1/</t>
+  </si>
+  <si>
+    <t>Vine_layout</t>
+  </si>
+  <si>
+    <t>Vimeo_layout</t>
+  </si>
+  <si>
+    <t>Vimeo_url</t>
+  </si>
+  <si>
+    <t>Vine_url</t>
+  </si>
+  <si>
+    <t>Yotube_url</t>
+  </si>
+  <si>
+    <t>Youtube_layout</t>
+  </si>
+  <si>
+    <t>2@##@personas</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> básico. Las diferentes partes de la prueba han sido etiquetadas. La declaración de la tesis está en negrita, la cursiva está en cursiva, y cada punto principal está subrayado. Cuando escribas tu propio ensayo, por supuesto, no necesitarás marcar estas partes del ensayo a menos que tu profesor lo haya pedido. Están marcados aquí.</t>
+  </si>
+  <si>
+    <t>Recipe_ingredients_Cantidad</t>
+  </si>
+  <si>
+    <t>Recipe_ingredients_Detalles</t>
+  </si>
+  <si>
+    <t>Slide1.jpg</t>
+  </si>
+  <si>
+    <t>Recipe_ingredients_units</t>
+  </si>
+  <si>
+    <t>Automation Recipe post- shobha</t>
+  </si>
+  <si>
+    <t>Testing fb test</t>
+  </si>
+  <si>
+    <t>Water@##@2 tsp garlic paste@##@4 tsp ginger paste@##@black salt</t>
+  </si>
+  <si>
+    <t>1@##@2@##@3@##@3</t>
+  </si>
+  <si>
+    <t>ml@##@g@##@ml@##@unidades</t>
+  </si>
+  <si>
+    <t>Add mixture 1@##@Add mixture 2@##@Add mixture 3@##@Add mixture  4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +1382,19 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1123,7 +1517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1193,6 +1587,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1489,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1512,9 +1941,9 @@
     <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="75.75" thickBot="1">
+    <row r="1" spans="1:66" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1532,28 +1961,28 @@
         <v>3</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>6</v>
@@ -1562,40 +1991,40 @@
         <v>7</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="W1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="X1" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>24</v>
@@ -1604,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>25</v>
@@ -1625,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM1" s="2" t="s">
         <v>12</v>
@@ -1637,24 +2066,24 @@
         <v>14</v>
       </c>
       <c r="AP1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AR1" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>28</v>
@@ -1663,1472 +2092,1472 @@
         <v>29</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Y2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB2" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB3" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AL2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO3" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ3" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR3" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="38.25" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" ht="38.25" customHeight="1" thickBot="1">
       <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="J4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="R4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="24.75" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" ht="24.75" customHeight="1" thickBot="1">
       <c r="A5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO5" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR5" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" ht="34.5" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="34.5" customHeight="1" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO6" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ6" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR6" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Z7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="AG7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ7" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR7" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" ht="63.75" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" ht="63.75" customHeight="1" thickBot="1">
       <c r="A8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>125</v>
-      </c>
       <c r="AF8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="51.75" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" ht="51.75" customHeight="1" thickBot="1">
       <c r="A9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AO9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ9" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR9" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="39" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" ht="39" customHeight="1" thickBot="1">
       <c r="A10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB10" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN10" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AO10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="45.75" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" ht="45.75" customHeight="1" thickBot="1">
       <c r="A11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F11" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB11" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN11" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AO11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="45.75" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" ht="45.75" customHeight="1" thickBot="1">
       <c r="A12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB12" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AM12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN12" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AO12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AQ12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AR12" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="43.5" customHeight="1" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>28</v>
@@ -3137,121 +3566,321 @@
         <v>29</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="M13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="P13" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB13" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC13" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF13" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="AI13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AJ13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AK13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC14" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="24">
+        <v>30</v>
+      </c>
+      <c r="AH14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="23">
+        <v>20</v>
+      </c>
+      <c r="AJ14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="23">
+        <v>40</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM14" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN14" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO14" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="AP14" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW14" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX14" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AL13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR13" s="7" t="s">
-        <v>50</v>
+      <c r="BC14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BI14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="BJ14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN14" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -3277,9 +3906,17 @@
     <hyperlink ref="O4" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
     <hyperlink ref="O5" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
     <hyperlink ref="T2" r:id="rId17"/>
+    <hyperlink ref="I14" r:id="rId18" display="car.jpg@#@lounge.jpg"/>
+    <hyperlink ref="F14" r:id="rId19" display="https://www.youtube.com/watch?v=aVtl8ga8rLo"/>
+    <hyperlink ref="N14" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="W14" r:id="rId20" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
+    <hyperlink ref="S14" r:id="rId21" display="https://infogr.am/895d228e-e2d1-47c2-9639-49cbed723b29"/>
+    <hyperlink ref="P14" r:id="rId22" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
+    <hyperlink ref="AO14" r:id="rId23"/>
+    <hyperlink ref="AC14" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -3287,8 +3924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3306,7 +3943,7 @@
     <col min="11" max="22" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="45">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="45.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3374,167 +4011,167 @@
         <v>14</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="118.5" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" ht="118.5" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>254</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="Y2" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="114.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3553,17 +4190,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="45" max="45" width="8.42578125" customWidth="1"/>
+    <col min="48" max="49" width="8.5703125" customWidth="1"/>
+    <col min="50" max="51" width="11.140625" customWidth="1"/>
+    <col min="52" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="55" width="8.28515625" customWidth="1"/>
+    <col min="56" max="57" width="7.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="7" customFormat="1" ht="75.75" thickBot="1">
+    <row r="1" spans="1:73" s="7" customFormat="1" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3578,262 +4223,444 @@
         <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU1" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73" s="7" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="B2" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE2" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="AG2" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="AI2" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ2" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK2" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL2" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM2" s="23">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="7" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AN2" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="23">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="23">
+        <v>40</v>
+      </c>
+      <c r="AS2" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT2" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU2" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="AV2" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW2" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="BE2" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AB2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="BJ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>50</v>
+      <c r="BL2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU2" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="car.jpg@#@lounge.jpg"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="N2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
-    <hyperlink ref="W2" r:id="rId3" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
-    <hyperlink ref="S2" r:id="rId4"/>
-    <hyperlink ref="P2" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId1" display="https://www.youtube.com/watch?v=3xStYM4sPiY"/>
+    <hyperlink ref="T2" r:id="rId2" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
+    <hyperlink ref="W2" r:id="rId3" display="https://infogr.am/top_earners-73544"/>
+    <hyperlink ref="AV2" r:id="rId4"/>
+    <hyperlink ref="AG2" r:id="rId5"/>
+    <hyperlink ref="AI2" r:id="rId6" display="Water@##@2 tsp garlic paste"/>
+    <hyperlink ref="AJ2" r:id="rId7"/>
+    <hyperlink ref="AK2" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -3841,8 +4668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3852,7 +4679,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="69.75" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>25</v>
@@ -3861,96 +4688,96 @@
         <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" thickBot="1">
       <c r="A2" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>140</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1">
       <c r="A3" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>144</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="39.75" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" thickBot="1">
       <c r="A5" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>152</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" thickBot="1">
       <c r="A6" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>156</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -3959,7 +4786,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -3968,546 +4795,546 @@
     </row>
     <row r="9" spans="1:5" ht="39.75" thickBot="1">
       <c r="A9" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" thickBot="1">
       <c r="A10" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" thickBot="1">
       <c r="A11" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>168</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" thickBot="1">
       <c r="A12" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>172</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" thickBot="1">
       <c r="A13" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" thickBot="1">
       <c r="A14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>179</v>
-      </c>
       <c r="E14" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" thickBot="1">
       <c r="A15" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>182</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" thickBot="1">
       <c r="A16" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>186</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="52.5" thickBot="1">
       <c r="A17" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="C17" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>190</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" thickBot="1">
       <c r="A18" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.75" thickBot="1">
       <c r="A19" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>198</v>
-      </c>
       <c r="E19" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="39.75" thickBot="1">
       <c r="A20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>202</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="39.75" thickBot="1">
       <c r="A21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>206</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="39.75" thickBot="1">
       <c r="A22" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>210</v>
-      </c>
       <c r="E22" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" thickBot="1">
       <c r="A23" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="C23" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>213</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" thickBot="1">
       <c r="A24" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>217</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" thickBot="1">
       <c r="A25" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>220</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" thickBot="1">
       <c r="A26" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B26" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="D26" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="39.75" thickBot="1">
       <c r="A27" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>224</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" thickBot="1">
       <c r="A28" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="C28" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>228</v>
-      </c>
       <c r="E28" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="39.75" thickBot="1">
       <c r="A29" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>231</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" thickBot="1">
       <c r="A30" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="C30" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>234</v>
-      </c>
       <c r="D30" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" thickBot="1">
       <c r="A32" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="C32" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>240</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" thickBot="1">
       <c r="A33" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="D33" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>244</v>
-      </c>
       <c r="E33" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" thickBot="1">
       <c r="A34" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>247</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" thickBot="1">
       <c r="A35" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>249</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" thickBot="1">
       <c r="A36" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>252</v>
-      </c>
       <c r="D36" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" thickBot="1">
       <c r="A37" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>255</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" thickBot="1">
       <c r="A38" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C38" s="17" t="s">
-        <v>258</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" thickBot="1">
       <c r="A39" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="C39" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>261</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27" thickBot="1">
       <c r="A40" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>264</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4518,46 +5345,320 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="108.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="86.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+    <row r="1" spans="1:12" ht="69.75" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="86.25" customHeight="1" thickBot="1">
+      <c r="A2" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A3" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
+      <c r="A4" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A5" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="96" customHeight="1" thickBot="1">
+      <c r="A6" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
+      <c r="A7" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8" location="#~column1~##~column2@##@Item2~##~column1~##~column2" display="mailto:Item1~ - #~column1~##~column2@##@Item2~##~column1~##~column2"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
+    <hyperlink ref="K3" r:id="rId13"/>
+    <hyperlink ref="L3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="J4" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="L4" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
+    <hyperlink ref="J5" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId28"/>
+    <hyperlink ref="F6" r:id="rId29"/>
+    <hyperlink ref="J6" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31"/>
+    <hyperlink ref="L6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="D7" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="J7" r:id="rId36"/>
+    <hyperlink ref="K7" r:id="rId37"/>
+    <hyperlink ref="L7" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="22155" windowHeight="5460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="22155" windowHeight="5460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Normal1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Normal" sheetId="3" r:id="rId3"/>
     <sheet name="tag-catagory" sheetId="4" r:id="rId4"/>
     <sheet name="tables" sheetId="5" r:id="rId5"/>
+    <sheet name="Login" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="425">
   <si>
     <t>Post_Title</t>
   </si>
@@ -1324,6 +1325,24 @@
   </si>
   <si>
     <t>Add mixture 1@##@Add mixture 2@##@Add mixture 3@##@Add mixture  4</t>
+  </si>
+  <si>
+    <t>slide5.jpg</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>shobha@agilemedialab.in</t>
+  </si>
+  <si>
+    <t>shobha</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1536,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1623,6 +1642,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3924,8 +3944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4028,7 +4048,7 @@
         <v>326</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>419</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -4192,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="BP2" sqref="BP2"/>
     </sheetView>
   </sheetViews>
@@ -5661,4 +5681,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2" display="shobha@agilemedialab.in"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="22155" windowHeight="5460" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="22155" windowHeight="5460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Normal1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="417">
   <si>
     <t>Post_Title</t>
   </si>
@@ -215,9 +215,6 @@
     <t>https://www.youtube.com/watch?v=aVtl8ga8rLo</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Utilice este ensayo básico de ejemplo como modelo</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>Automate Excel Normal Post: Utilice este ensayo básico de ejemplo como modelo:-AUT Normal post</t>
-  </si>
-  <si>
-    <t>Video_layout</t>
   </si>
   <si>
     <t>big</t>
@@ -889,9 +883,6 @@
     <t>slide1.jpg</t>
   </si>
   <si>
-    <t>Item1~##~column1~##~column2@##@Item2~##~column1~##~column2</t>
-  </si>
-  <si>
     <t>La International Society of Professional Wedding Photographers~##~ha hecho públicas las fotos ganadoras de su concurso~##~asociación de fotógrafos sociales @##@El concurso fotográfico que desarrolla esta asociación de fotógrafos sociales ~##~Cada una de ellas consta de 20 categorías diferentes~##~miembros que previamente han ganado el galardón.</t>
   </si>
   <si>
@@ -907,9 +898,6 @@
     <t>giphy_caption</t>
   </si>
   <si>
-    <t>Shobha</t>
-  </si>
-  <si>
     <t>Inforgram_datawrapper_URL</t>
   </si>
   <si>
@@ -919,12 +907,6 @@
     <t>infographCaption</t>
   </si>
   <si>
-    <t>https://infogr.am/895d228e-e2d1-47c2-9639-49cbed723b29</t>
-  </si>
-  <si>
-    <t>Testing infograph caption</t>
-  </si>
-  <si>
     <t>Recipe_name</t>
   </si>
   <si>
@@ -940,12 +922,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Shobha Automate Recipe Post</t>
-  </si>
-  <si>
-    <t>slide8.jpg</t>
-  </si>
-  <si>
     <t>Preparation_time_hours</t>
   </si>
   <si>
@@ -986,9 +962,6 @@
   </si>
   <si>
     <t>Recipe_FB_Video</t>
-  </si>
-  <si>
-    <t>fajitas de pollo en salsa BBQ</t>
   </si>
   <si>
     <t>Vamos a cortar todos los pimientos en julianas así como la cebolla. Enseguida cortamos las pechugas en fajitas de unos ocho centímetros de largas. Cuando todo esté listo, calentamos el aceite en un sartén grande y ponemos primero a sofreír la cebolla por unos tres minutos. Le agregamos las julianas de **pimiento y dejamos a fuego** medio por unos cinco minutos. Añadimos entonces las fajitas de pollo y sazonamos con el comino, sal y pimienta. Dejamos en al lumbre, a intensidad media, por unos 10 minutos más.</t>
@@ -1021,9 +994,6 @@
   </si>
   <si>
     <t>Recipe_FB_Video_layout</t>
-  </si>
-  <si>
-    <t>Recipe Post</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3xStYM4sPiY</t>
@@ -1309,9 +1279,6 @@
     <t>Recipe_ingredients_units</t>
   </si>
   <si>
-    <t>Automation Recipe post- shobha</t>
-  </si>
-  <si>
     <t>Testing fb test</t>
   </si>
   <si>
@@ -1343,6 +1310,15 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recipe post -Shobha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué smartphone hace mejores fotos? Comparativa fotográfica entre los grandes terminales de 2016 </t>
+  </si>
+  <si>
+    <t>Testing  caption</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1528,6 +1504,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1536,7 +1523,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1643,6 +1630,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1938,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BN14"/>
+  <dimension ref="A1:BU14"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1961,9 +1951,9 @@
     <col min="23" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="75.75" thickBot="1">
+    <row r="1" spans="1:73" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1978,129 +1968,216 @@
         <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="BI1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="BU1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>89</v>
-      </c>
     </row>
-    <row r="2" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:73" ht="43.5" customHeight="1" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>55</v>
@@ -2115,129 +2192,216 @@
         <v>59</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y2" s="23" t="s">
+      <c r="BG2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Z2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA2" s="23" t="s">
+      <c r="BJ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="7" t="s">
+      <c r="BU2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73" ht="36.75" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" ht="36.75" customHeight="1" thickBot="1">
-      <c r="A3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>42</v>
@@ -2249,811 +2413,1330 @@
         <v>59</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="V3" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB6" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="BS7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH3" s="7" t="s">
+      <c r="M8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH8" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="BL8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="BR8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="BU8" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:66" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB4" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB5" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR5" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO6" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A7" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB7" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" ht="63.75" customHeight="1" thickBot="1">
-      <c r="A8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
+    <row r="9" spans="1:73" ht="51.75" customHeight="1" thickBot="1">
+      <c r="A9" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR8" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:66" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>42</v>
@@ -3107,16 +3790,16 @@
         <v>42</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB9" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>42</v>
@@ -3124,457 +3807,805 @@
       <c r="AD9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AE9" s="13" t="s">
-        <v>124</v>
+      <c r="AE9" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="AF9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AG9" s="6" t="s">
+      <c r="AG9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="AH9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN9" s="7" t="s">
+      <c r="BL9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73" ht="39" customHeight="1" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB10" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="AO9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ9" s="7" t="s">
+      <c r="BR11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AR9" s="7" t="s">
+      <c r="BU11" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:66" ht="39" customHeight="1" thickBot="1">
-      <c r="A10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH10" s="7" t="s">
+    <row r="12" spans="1:73" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH12" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ10" s="7" t="s">
+      <c r="BL12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BP12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="BR12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AR10" s="7" t="s">
+      <c r="BU12" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:66" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB11" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A12" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="X12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB12" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN12" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="AO12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR12" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:73" ht="43.5" customHeight="1" thickBot="1">
       <c r="A13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>55</v>
@@ -3589,13 +4620,13 @@
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>56</v>
@@ -3607,16 +4638,16 @@
         <v>58</v>
       </c>
       <c r="M13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="P13" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>42</v>
@@ -3643,300 +4674,406 @@
         <v>42</v>
       </c>
       <c r="Y13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="BJ13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU13" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73" ht="43.5" customHeight="1" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="X14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH14" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI14" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ14" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL14" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM14" s="23">
+        <v>2</v>
+      </c>
+      <c r="AN14" s="24">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="23">
+        <v>20</v>
+      </c>
+      <c r="AQ14" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="23">
+        <v>40</v>
+      </c>
+      <c r="AS14" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT14" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AU14" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV14" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AW14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD14" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="BE14" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="BF14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="Z13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB13" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH13" s="7" t="s">
+      <c r="BJ14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AI13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ13" s="7" t="s">
+      <c r="BL14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BN14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BO14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BP14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BR14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="BS14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AR13" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A14" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="AC14" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD14" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="AE14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF14" s="23">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="24">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="23">
-        <v>20</v>
-      </c>
-      <c r="AJ14" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="23">
-        <v>40</v>
-      </c>
-      <c r="AL14" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM14" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN14" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO14" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="AP14" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW14" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="AX14" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="BE14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BI14" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="BJ14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BL14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN14" s="7" t="s">
+      <c r="BU14" s="7" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="Q2" r:id="rId2"/>
-    <hyperlink ref="Q3" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="Q4" r:id="rId5"/>
-    <hyperlink ref="Q5" r:id="rId6"/>
-    <hyperlink ref="I2" r:id="rId7"/>
-    <hyperlink ref="F2" r:id="rId8"/>
-    <hyperlink ref="F9" r:id="rId9"/>
-    <hyperlink ref="F10" r:id="rId10"/>
-    <hyperlink ref="F5" r:id="rId11"/>
-    <hyperlink ref="S13" r:id="rId12" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
-    <hyperlink ref="I13" r:id="rId13"/>
-    <hyperlink ref="F13" r:id="rId14"/>
-    <hyperlink ref="X2" r:id="rId15"/>
-    <hyperlink ref="X3" r:id="rId16" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
-    <hyperlink ref="O2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
-    <hyperlink ref="O3" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
+    <hyperlink ref="T3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="Q4" r:id="rId4"/>
+    <hyperlink ref="Q5" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F5" r:id="rId8"/>
+    <hyperlink ref="S13" r:id="rId9" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
+    <hyperlink ref="I13" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="R3" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
     <hyperlink ref="O4" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
     <hyperlink ref="O5" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
-    <hyperlink ref="T2" r:id="rId17"/>
-    <hyperlink ref="I14" r:id="rId18" display="car.jpg@#@lounge.jpg"/>
-    <hyperlink ref="F14" r:id="rId19" display="https://www.youtube.com/watch?v=aVtl8ga8rLo"/>
-    <hyperlink ref="N14" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
-    <hyperlink ref="W14" r:id="rId20" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
-    <hyperlink ref="S14" r:id="rId21" display="https://infogr.am/895d228e-e2d1-47c2-9639-49cbed723b29"/>
-    <hyperlink ref="P14" r:id="rId22" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
-    <hyperlink ref="AO14" r:id="rId23"/>
-    <hyperlink ref="AC14" r:id="rId24"/>
+    <hyperlink ref="F14" r:id="rId12" display="https://www.youtube.com/watch?v=3xStYM4sPiY"/>
+    <hyperlink ref="T14" r:id="rId13" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
+    <hyperlink ref="W14" r:id="rId14" display="https://infogr.am/top_earners-73544"/>
+    <hyperlink ref="AV14" r:id="rId15"/>
+    <hyperlink ref="AG14" r:id="rId16"/>
+    <hyperlink ref="AI14" r:id="rId17" display="Water@##@2 tsp garlic paste"/>
+    <hyperlink ref="AJ14" r:id="rId18"/>
+    <hyperlink ref="AK14" r:id="rId19"/>
+    <hyperlink ref="T2" r:id="rId20"/>
+    <hyperlink ref="I2" r:id="rId21" display="car.jpg@#@lounge.jpg"/>
+    <hyperlink ref="F2" r:id="rId22"/>
+    <hyperlink ref="X2" r:id="rId23" display="Item1~##~column1~##~column2@##@Item2~##~column1~##~column2"/>
+    <hyperlink ref="R2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -4037,7 +5174,7 @@
         <v>47</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" ht="118.5" customHeight="1" thickBot="1">
@@ -4045,10 +5182,10 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -4087,7 +5224,7 @@
         <v>42</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>42</v>
@@ -4114,7 +5251,7 @@
         <v>49</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="114.75" customHeight="1">
@@ -4125,7 +5262,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>40</v>
@@ -4188,10 +5325,10 @@
         <v>50</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4212,8 +5349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BU2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BP2" sqref="BP2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4228,7 +5365,7 @@
   <sheetData>
     <row r="1" spans="1:73" s="7" customFormat="1" ht="75.75" thickBot="1">
       <c r="A1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -4243,22 +5380,22 @@
         <v>15</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>51</v>
@@ -4267,7 +5404,7 @@
         <v>52</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>2</v>
@@ -4285,118 +5422,118 @@
         <v>7</v>
       </c>
       <c r="T1" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AH1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AI1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="BF1" s="2" t="s">
         <v>24</v>
@@ -4405,7 +5542,7 @@
         <v>8</v>
       </c>
       <c r="BH1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BI1" s="2" t="s">
         <v>25</v>
@@ -4426,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="BO1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BP1" s="2" t="s">
         <v>12</v>
@@ -4444,29 +5581,29 @@
         <v>47</v>
       </c>
       <c r="BU1" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:73" s="7" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
+    <row r="2" spans="1:73" s="7" customFormat="1" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -4505,133 +5642,133 @@
       <c r="S2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="8" t="s">
+      <c r="T2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="W2" s="26" t="s">
-        <v>42</v>
+      <c r="W2" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>42</v>
+      <c r="Y2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="23" t="s">
+        <v>78</v>
       </c>
       <c r="AB2" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AC2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF2" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG2" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="AI2" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="AJ2" s="25" t="s">
-        <v>416</v>
-      </c>
-      <c r="AK2" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="AL2" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="AM2" s="23">
-        <v>2</v>
-      </c>
-      <c r="AN2" s="24">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="23">
-        <v>20</v>
-      </c>
-      <c r="AQ2" s="23">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="23">
-        <v>40</v>
-      </c>
-      <c r="AS2" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="AT2" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="AU2" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV2" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="AW2" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC2" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD2" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="BE2" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="BK2" s="7" t="s">
@@ -4643,11 +5780,11 @@
       <c r="BM2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="BN2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>79</v>
+      <c r="BN2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="BP2" s="6" t="s">
         <v>42</v>
@@ -4656,9 +5793,9 @@
         <v>42</v>
       </c>
       <c r="BR2" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="BS2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="BS2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="BT2" s="7" t="s">
@@ -4669,18 +5806,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://www.youtube.com/watch?v=3xStYM4sPiY"/>
-    <hyperlink ref="T2" r:id="rId2" display="http://giphy.com/gifs/abcnetwork-happy-excited-d3mnqWASKET2xnXy"/>
-    <hyperlink ref="W2" r:id="rId3" display="https://infogr.am/top_earners-73544"/>
-    <hyperlink ref="AV2" r:id="rId4"/>
-    <hyperlink ref="AG2" r:id="rId5"/>
-    <hyperlink ref="AI2" r:id="rId6" display="Water@##@2 tsp garlic paste"/>
-    <hyperlink ref="AJ2" r:id="rId7"/>
-    <hyperlink ref="AK2" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4688,7 +5815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -4699,7 +5826,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="69.75" thickBot="1">
       <c r="A1" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>25</v>
@@ -4708,37 +5835,37 @@
         <v>27</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27" thickBot="1">
       <c r="A2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="27" thickBot="1">
       <c r="A3" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>141</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>49</v>
@@ -4746,58 +5873,58 @@
     </row>
     <row r="4" spans="1:5" ht="39.75" thickBot="1">
       <c r="A4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>147</v>
-      </c>
       <c r="E4" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="27" thickBot="1">
       <c r="A5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>151</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="27" thickBot="1">
       <c r="A6" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>155</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -4806,7 +5933,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -4815,546 +5942,546 @@
     </row>
     <row r="9" spans="1:5" ht="39.75" thickBot="1">
       <c r="A9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27" thickBot="1">
       <c r="A10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="D10" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>164</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="27" thickBot="1">
       <c r="A11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>167</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="27" thickBot="1">
       <c r="A12" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="D12" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>171</v>
-      </c>
       <c r="E12" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" thickBot="1">
       <c r="A13" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>174</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27" thickBot="1">
       <c r="A14" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="E14" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="27" thickBot="1">
       <c r="A15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>181</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="27" thickBot="1">
       <c r="A16" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="D16" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>185</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="52.5" thickBot="1">
       <c r="A17" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>189</v>
-      </c>
       <c r="E17" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="27" thickBot="1">
       <c r="A18" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="D18" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="E18" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="39.75" thickBot="1">
       <c r="A19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>197</v>
-      </c>
       <c r="E19" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="39.75" thickBot="1">
       <c r="A20" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="D20" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>201</v>
-      </c>
       <c r="E20" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="39.75" thickBot="1">
       <c r="A21" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="E21" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="39.75" thickBot="1">
       <c r="A22" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>209</v>
-      </c>
       <c r="E22" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="27" thickBot="1">
       <c r="A23" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>212</v>
-      </c>
       <c r="D23" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="27" thickBot="1">
       <c r="A24" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="D24" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>216</v>
-      </c>
       <c r="E24" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="27" thickBot="1">
       <c r="A25" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>219</v>
-      </c>
       <c r="D25" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="27" thickBot="1">
       <c r="A26" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="39.75" thickBot="1">
       <c r="A27" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>223</v>
-      </c>
       <c r="D27" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="27" thickBot="1">
       <c r="A28" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>227</v>
-      </c>
       <c r="E28" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="39.75" thickBot="1">
       <c r="A29" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>230</v>
-      </c>
       <c r="D29" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27" thickBot="1">
       <c r="A30" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>233</v>
-      </c>
       <c r="D30" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>236</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27" thickBot="1">
       <c r="A32" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>239</v>
-      </c>
       <c r="D32" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="27" thickBot="1">
       <c r="A33" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>243</v>
-      </c>
       <c r="E33" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="27" thickBot="1">
       <c r="A34" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>246</v>
-      </c>
       <c r="D34" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="27" thickBot="1">
       <c r="A35" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="27" thickBot="1">
       <c r="A36" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>251</v>
-      </c>
       <c r="D36" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="27" thickBot="1">
       <c r="A37" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>254</v>
-      </c>
       <c r="D37" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="27" thickBot="1">
       <c r="A38" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="D38" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" thickBot="1">
       <c r="A39" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>260</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="27" thickBot="1">
       <c r="A40" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>263</v>
-      </c>
       <c r="D40" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5383,258 +6510,258 @@
   <sheetData>
     <row r="1" spans="1:12" ht="69.75" thickBot="1">
       <c r="A1" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="L1" s="29" t="s">
         <v>328</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="86.25" customHeight="1" thickBot="1">
       <c r="A2" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>339</v>
-      </c>
       <c r="E2" s="30" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="79.5" customHeight="1" thickBot="1">
       <c r="A3" s="28" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="30" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
       <c r="A4" s="28" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="30" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
       <c r="A5" s="28" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="30" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="96" customHeight="1" thickBot="1">
       <c r="A6" s="28" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="30" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="K6" s="31" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60.75" customHeight="1" thickBot="1">
       <c r="A7" s="33" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="30" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5687,7 +6814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5699,26 +6826,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="37" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="26" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="26" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="24240" windowHeight="11025" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="24240" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="8" r:id="rId1"/>
@@ -1701,7 +1701,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1921,53 +1921,15 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="37">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2391,28 +2353,41 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2426,12 +2401,12 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="13.2"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2618,6 +2593,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2625,15 +2609,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2651,11 +2626,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="13.2"/>
-        <color theme="1"/>
-        <name val="Arial"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2854,6 +2829,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2861,18 +2845,37 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13.2"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2881,51 +2884,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E40" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="35" tableBorderDxfId="36" totalsRowBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E40" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
   <autoFilter ref="A1:E40"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Blog Name" dataDxfId="33"/>
-    <tableColumn id="2" name="Category" dataDxfId="32"/>
-    <tableColumn id="3" name="Tag" dataDxfId="31"/>
-    <tableColumn id="4" name="Club" dataDxfId="30"/>
-    <tableColumn id="5" name="HomepageContent" dataDxfId="29"/>
+    <tableColumn id="1" name="Blog Name" dataDxfId="32"/>
+    <tableColumn id="2" name="Category" dataDxfId="31"/>
+    <tableColumn id="3" name="Tag" dataDxfId="30"/>
+    <tableColumn id="4" name="Club" dataDxfId="29"/>
+    <tableColumn id="5" name="HomepageContent" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="H1:L6" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="H1:L6" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="H1:L6"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Image" dataDxfId="24"/>
-    <tableColumn id="2" name="Summary" dataDxfId="23"/>
-    <tableColumn id="3" name="Video" dataDxfId="22"/>
-    <tableColumn id="4" name="Giphy" dataDxfId="21"/>
-    <tableColumn id="5" name="Infogram/Datawrapper" dataDxfId="20"/>
+    <tableColumn id="1" name="Image" dataDxfId="23"/>
+    <tableColumn id="2" name="Summary" dataDxfId="22"/>
+    <tableColumn id="3" name="Video" dataDxfId="21"/>
+    <tableColumn id="4" name="Giphy" dataDxfId="20"/>
+    <tableColumn id="5" name="Infogram/Datawrapper" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="A1:N7"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="Table Type" dataDxfId="15"/>
-    <tableColumn id="2" name="Tables" dataDxfId="14"/>
-    <tableColumn id="3" name="Youtube Video" dataDxfId="13" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" name="Vimeo Youtube" dataDxfId="12" dataCellStyle="Hyperlink"/>
-    <tableColumn id="5" name="Vine Youtube" dataDxfId="11"/>
-    <tableColumn id="6" name="Facebook Video" dataDxfId="10" dataCellStyle="Hyperlink"/>
-    <tableColumn id="7" name="Twitter video" dataDxfId="9"/>
-    <tableColumn id="8" name="FB Embed" dataDxfId="8"/>
-    <tableColumn id="9" name="Twitter embed" dataDxfId="7"/>
-    <tableColumn id="10" name="Giphy" dataDxfId="6" dataCellStyle="Hyperlink"/>
-    <tableColumn id="11" name="Infogram" dataDxfId="5" dataCellStyle="Hyperlink"/>
-    <tableColumn id="12" name="Datawrapper" dataDxfId="4" dataCellStyle="Hyperlink"/>
-    <tableColumn id="13" name="Ficha Tecnica" dataDxfId="3"/>
-    <tableColumn id="14" name="Ficha review" dataDxfId="2"/>
+    <tableColumn id="1" name="Table Type" dataDxfId="13"/>
+    <tableColumn id="2" name="Tables" dataDxfId="12"/>
+    <tableColumn id="3" name="Youtube Video" dataDxfId="11" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Vimeo Youtube" dataDxfId="10" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" name="Vine Youtube" dataDxfId="9"/>
+    <tableColumn id="6" name="Facebook Video" dataDxfId="8" dataCellStyle="Hyperlink"/>
+    <tableColumn id="7" name="Twitter video" dataDxfId="7"/>
+    <tableColumn id="8" name="FB Embed" dataDxfId="6"/>
+    <tableColumn id="9" name="Twitter embed" dataDxfId="5"/>
+    <tableColumn id="10" name="Giphy" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" name="Infogram" dataDxfId="3" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" name="Datawrapper" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" name="Ficha Tecnica" dataDxfId="1"/>
+    <tableColumn id="14" name="Ficha review" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4051,7 +4054,7 @@
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
     </row>
-    <row r="34" spans="1:12" ht="39">
+    <row r="34" spans="1:12" ht="26.25">
       <c r="A34" s="36" t="s">
         <v>240</v>
       </c>
@@ -4260,8 +4263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4439,7 +4442,7 @@
       <c r="I4" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="J4" s="61" t="s">
+      <c r="J4" s="77" t="s">
         <v>353</v>
       </c>
       <c r="K4" s="61" t="s">
@@ -4588,27 +4591,27 @@
     <hyperlink ref="C4" r:id="rId15"/>
     <hyperlink ref="D4" r:id="rId16"/>
     <hyperlink ref="F4" r:id="rId17"/>
-    <hyperlink ref="J4" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="L4" r:id="rId20"/>
-    <hyperlink ref="C5" r:id="rId21"/>
-    <hyperlink ref="D5" r:id="rId22"/>
-    <hyperlink ref="F5" r:id="rId23"/>
-    <hyperlink ref="J5" r:id="rId24"/>
-    <hyperlink ref="K5" r:id="rId25"/>
-    <hyperlink ref="L5" r:id="rId26"/>
-    <hyperlink ref="C6" r:id="rId27"/>
-    <hyperlink ref="D6" r:id="rId28"/>
-    <hyperlink ref="F6" r:id="rId29"/>
-    <hyperlink ref="J6" r:id="rId30"/>
-    <hyperlink ref="K6" r:id="rId31"/>
-    <hyperlink ref="L6" r:id="rId32"/>
-    <hyperlink ref="C7" r:id="rId33"/>
-    <hyperlink ref="D7" r:id="rId34"/>
-    <hyperlink ref="F7" r:id="rId35"/>
-    <hyperlink ref="J7" r:id="rId36"/>
-    <hyperlink ref="K7" r:id="rId37"/>
-    <hyperlink ref="L7" r:id="rId38"/>
+    <hyperlink ref="K4" r:id="rId18"/>
+    <hyperlink ref="L4" r:id="rId19"/>
+    <hyperlink ref="C5" r:id="rId20"/>
+    <hyperlink ref="D5" r:id="rId21"/>
+    <hyperlink ref="F5" r:id="rId22"/>
+    <hyperlink ref="J5" r:id="rId23"/>
+    <hyperlink ref="K5" r:id="rId24"/>
+    <hyperlink ref="L5" r:id="rId25"/>
+    <hyperlink ref="C6" r:id="rId26"/>
+    <hyperlink ref="D6" r:id="rId27"/>
+    <hyperlink ref="F6" r:id="rId28"/>
+    <hyperlink ref="J6" r:id="rId29"/>
+    <hyperlink ref="K6" r:id="rId30"/>
+    <hyperlink ref="L6" r:id="rId31"/>
+    <hyperlink ref="C7" r:id="rId32"/>
+    <hyperlink ref="D7" r:id="rId33"/>
+    <hyperlink ref="F7" r:id="rId34"/>
+    <hyperlink ref="J7" r:id="rId35"/>
+    <hyperlink ref="K7" r:id="rId36"/>
+    <hyperlink ref="L7" r:id="rId37"/>
+    <hyperlink ref="J4" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -8445,7 +8448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Automation\Aml_automation\src\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Agile\Aml_automation\src\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="24240" windowHeight="11025" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="24240" windowHeight="11025" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="8" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="Normal" sheetId="3" r:id="rId5"/>
     <sheet name="Login" sheetId="6" r:id="rId6"/>
     <sheet name="Editorial Roles-OLD" sheetId="10" r:id="rId7"/>
-    <sheet name="Editorial Roles-org" sheetId="12" r:id="rId8"/>
-    <sheet name="Editorial Roles" sheetId="13" r:id="rId9"/>
+    <sheet name="Dashboard TODO Editorial Roles" sheetId="13" r:id="rId8"/>
+    <sheet name="Dashboard Programmed Editorial" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="578">
   <si>
     <t>Post_Title</t>
   </si>
@@ -1401,12 +1401,6 @@
     <t>Instagram_embed</t>
   </si>
   <si>
-    <t>https://www.instagram.com/p/BZOju5fAd23/?taken-by=xataka</t>
-  </si>
-  <si>
-    <t>Shobha testing 2 Automate Excel Normal Post</t>
-  </si>
-  <si>
     <t>wp_posts` table,  we have a column `post_subtype` of type `int` (edited</t>
   </si>
   <si>
@@ -1626,18 +1620,6 @@
     <t>UBC_Others_branded</t>
   </si>
   <si>
-    <t>BC_Self_unbranded</t>
-  </si>
-  <si>
-    <t>BC_Others_unbranded</t>
-  </si>
-  <si>
-    <t>BC_Self_branded</t>
-  </si>
-  <si>
-    <t>BC_Others_branded</t>
-  </si>
-  <si>
     <t>UbCol_Self_unbranded</t>
   </si>
   <si>
@@ -1767,9 +1749,6 @@
     <t>Republish posts</t>
   </si>
   <si>
-    <t>Quitar de portad</t>
-  </si>
-  <si>
     <t>repost</t>
   </si>
   <si>
@@ -1813,13 +1792,28 @@
   </si>
   <si>
     <t>Destacado</t>
+  </si>
+  <si>
+    <t>Automate excel gallery post creation fix- isha testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La declaración de la tesis está en negrita, la cursiva está en cursiva, y cada punto principal está subrayado. Cuando escribas tu propio ensayo, por supuesto, no necesitarás marcar estas partes del ensayo a menos que tu profesor lo haya pedido. Están marcados aquí.</t>
+  </si>
+  <si>
+    <t>Test homepage content</t>
+  </si>
+  <si>
+    <t>test title</t>
+  </si>
+  <si>
+    <t>test desc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1926,26 +1920,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1996,19 +1977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2031,7 +2000,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -2375,21 +2344,6 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -2433,7 +2387,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2689,94 +2643,61 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2786,83 +2707,62 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4423,7 +4323,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="84" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I9" s="85"/>
       <c r="J9" s="85"/>
@@ -4449,7 +4349,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="87" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
@@ -4475,7 +4375,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="87" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="83"/>
@@ -4501,7 +4401,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
@@ -4527,7 +4427,7 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="87" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
@@ -4553,7 +4453,7 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
@@ -4579,7 +4479,7 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="87" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="I15" s="83"/>
       <c r="J15" s="83"/>
@@ -4605,7 +4505,7 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="87" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="I16" s="83"/>
       <c r="J16" s="83"/>
@@ -4631,7 +4531,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="87" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="I17" s="83"/>
       <c r="J17" s="83"/>
@@ -4657,7 +4557,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="87" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="83"/>
@@ -4683,7 +4583,7 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="87" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
@@ -4709,7 +4609,7 @@
       <c r="F20" s="23"/>
       <c r="G20" s="23"/>
       <c r="H20" s="87" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I20" s="83"/>
       <c r="J20" s="83"/>
@@ -4735,7 +4635,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="87" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I21" s="83"/>
       <c r="J21" s="83"/>
@@ -4761,7 +4661,7 @@
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
       <c r="H22" s="87" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="I22" s="83"/>
       <c r="J22" s="83"/>
@@ -4787,7 +4687,7 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="87" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I23" s="83"/>
       <c r="J23" s="83"/>
@@ -4813,7 +4713,7 @@
       <c r="F24" s="23"/>
       <c r="G24" s="23"/>
       <c r="H24" s="87" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="I24" s="83"/>
       <c r="J24" s="83"/>
@@ -4839,7 +4739,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
       <c r="H25" s="87" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I25" s="83"/>
       <c r="J25" s="83"/>
@@ -4865,7 +4765,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
       <c r="H26" s="87" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I26" s="83"/>
       <c r="J26" s="83"/>
@@ -4891,7 +4791,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
       <c r="H27" s="87" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="I27" s="83"/>
       <c r="J27" s="83"/>
@@ -4917,7 +4817,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
       <c r="H28" s="87" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I28" s="83"/>
       <c r="J28" s="83"/>
@@ -4943,7 +4843,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
       <c r="H29" s="89" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I29" s="90"/>
       <c r="J29" s="90"/>
@@ -9470,8 +9370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BY13" sqref="BY13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9574,398 +9474,387 @@
         <v>278</v>
       </c>
       <c r="AD1" s="72" t="s">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="AE1" s="72" t="s">
-        <v>99</v>
+        <v>265</v>
       </c>
       <c r="AF1" s="73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG1" s="74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AH1" s="74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI1" s="74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AJ1" s="74" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AK1" s="74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL1" s="74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM1" s="74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN1" s="74" t="s">
-        <v>282</v>
+        <v>394</v>
       </c>
       <c r="AO1" s="74" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="AP1" s="74" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AQ1" s="74" t="s">
-        <v>395</v>
+        <v>284</v>
       </c>
       <c r="AR1" s="74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AS1" s="74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AT1" s="74" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AU1" s="74" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AV1" s="74" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AW1" s="74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AX1" s="74" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AY1" s="74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AZ1" s="74" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="BA1" s="74" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="BB1" s="74" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="BC1" s="74" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="BD1" s="74" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="BE1" s="74" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="BF1" s="74" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="BG1" s="74" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="BH1" s="74" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="BI1" s="74" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="BJ1" s="74" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="BK1" s="71" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="BL1" s="71" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="BM1" s="71" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="BN1" s="71" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BO1" s="71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BP1" s="71" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="BQ1" s="71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BR1" s="71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS1" s="71" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="BT1" s="71" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="BU1" s="71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BV1" s="71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BW1" s="71" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="BX1" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="BY1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="BZ1" s="76" t="s">
+      <c r="BY1" s="135" t="s">
         <v>84</v>
       </c>
+      <c r="BZ1" s="134"/>
     </row>
-    <row r="2" spans="1:78" s="7" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:78" s="131" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BN2" s="7" t="s">
+      <c r="B2" s="131" t="s">
+        <v>573</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>574</v>
+      </c>
+      <c r="D2" s="131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="131" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="134" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ2" s="131" t="s">
+        <v>575</v>
+      </c>
+      <c r="BK2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" s="131" t="s">
         <v>76</v>
       </c>
-      <c r="BO2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BN2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="BQ2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BW2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BX2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="BY2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="BZ2" s="7" t="s">
-        <v>49</v>
+      <c r="BP2" s="131" t="s">
+        <v>576</v>
+      </c>
+      <c r="BQ2" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="BR2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV2" s="131" t="s">
+        <v>77</v>
+      </c>
+      <c r="BW2" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX2" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY2" s="131" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AD2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="X2" r:id="rId3"/>
-    <hyperlink ref="V2" display="GoogleReader@##@producto,1992,singer@##@https://i.blogs.es/88d500/cifrado1/1366_2000.jpg@##@null@##@1000~##~Non_redundable~##~http://lklivingston.tripod.com/essay/sample.html@##@Product~##~Usefull~##~http://lklivingston.tripod.com/essay/sample.html@####@q"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10034,49 +9923,49 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B1" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="94" t="s">
-        <v>466</v>
-      </c>
-      <c r="D1" s="125" t="s">
-        <v>465</v>
-      </c>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
+        <v>464</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:14" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B2" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="94" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D2" s="93" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="93" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2" s="93" t="s">
         <v>499</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="G2" s="93" t="s">
         <v>500</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="H2" s="93" t="s">
         <v>501</v>
       </c>
-      <c r="G2" s="93" t="s">
-        <v>502</v>
-      </c>
-      <c r="H2" s="93" t="s">
-        <v>503</v>
-      </c>
       <c r="N2" s="78" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10105,15 +9994,15 @@
         <v>49</v>
       </c>
       <c r="N3" s="78" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C4" s="82">
         <v>0</v>
@@ -10134,15 +10023,15 @@
         <v>75</v>
       </c>
       <c r="N4" s="78" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="78" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C5" s="92">
         <v>3</v>
@@ -10163,15 +10052,15 @@
         <v>49</v>
       </c>
       <c r="N5" s="78" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="78" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C6" s="82">
         <v>15</v>
@@ -10192,12 +10081,12 @@
         <v>49</v>
       </c>
       <c r="N6" s="78" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>92</v>
@@ -10221,15 +10110,15 @@
         <v>49</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="79" t="s">
@@ -10248,12 +10137,12 @@
         <v>49</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>92</v>
@@ -10267,15 +10156,15 @@
       <c r="G9" s="80"/>
       <c r="H9" s="80"/>
       <c r="N9" s="78" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="80"/>
@@ -10284,12 +10173,12 @@
       <c r="G10" s="80"/>
       <c r="H10" s="80"/>
       <c r="N10" s="78" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="78" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>92</v>
@@ -10313,15 +10202,15 @@
         <v>49</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="78" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B12" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C12" s="82">
         <v>18</v>
@@ -10342,12 +10231,12 @@
         <v>49</v>
       </c>
       <c r="N12" s="78" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>92</v>
@@ -10369,15 +10258,15 @@
         <v>49</v>
       </c>
       <c r="N13" s="78" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="79" t="s">
@@ -10396,7 +10285,7 @@
         <v>49</v>
       </c>
       <c r="N14" s="78" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10425,12 +10314,12 @@
         <v>49</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B16" s="78"/>
       <c r="C16" s="78"/>
@@ -10440,12 +10329,12 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="N16" s="78" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>92</v>
@@ -10467,12 +10356,12 @@
         <v>49</v>
       </c>
       <c r="N17" s="78" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="78" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
@@ -10482,12 +10371,12 @@
       <c r="G18" s="80"/>
       <c r="H18" s="80"/>
       <c r="N18" s="78" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="82">
@@ -10509,12 +10398,12 @@
         <v>49</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B20" s="78"/>
       <c r="C20" s="82">
@@ -10536,12 +10425,12 @@
         <v>49</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="78" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B21" s="78"/>
       <c r="C21" s="82"/>
@@ -10551,15 +10440,15 @@
       <c r="G21" s="79"/>
       <c r="H21" s="79"/>
       <c r="N21" s="78" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="78" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C22" s="82">
         <v>9</v>
@@ -10580,12 +10469,12 @@
         <v>49</v>
       </c>
       <c r="N22" s="78" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="78" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B23" s="78"/>
       <c r="C23" s="82">
@@ -10610,7 +10499,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
@@ -10632,7 +10521,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B25" s="78"/>
       <c r="C25" s="78"/>
@@ -10654,7 +10543,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="78" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="78"/>
@@ -10676,10 +10565,10 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C27" s="82">
         <v>13</v>
@@ -10702,7 +10591,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="78" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B28" s="78"/>
       <c r="C28" s="78"/>
@@ -10724,7 +10613,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B29" s="78"/>
       <c r="C29" s="78"/>
@@ -10746,7 +10635,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="78" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B30" s="78"/>
       <c r="C30" s="78"/>
@@ -10768,7 +10657,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="78" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
@@ -10790,7 +10679,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="78" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B32" s="78"/>
       <c r="C32" s="78"/>
@@ -10821,941 +10710,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="103" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>571</v>
-      </c>
-      <c r="B1" s="100" t="s">
-        <v>570</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="134" t="s">
-        <v>529</v>
-      </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="137" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="128" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="128" t="s">
-        <v>507</v>
-      </c>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="131" t="s">
-        <v>506</v>
-      </c>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="131" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="133"/>
-    </row>
-    <row r="2" spans="1:28" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101" t="s">
-        <v>571</v>
-      </c>
-      <c r="B2" s="100" t="s">
-        <v>570</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>568</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="95" t="s">
-        <v>530</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>531</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>532</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>533</v>
-      </c>
-      <c r="I2" s="104" t="s">
-        <v>509</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>510</v>
-      </c>
-      <c r="K2" s="105" t="s">
-        <v>511</v>
-      </c>
-      <c r="L2" s="105" t="s">
-        <v>512</v>
-      </c>
-      <c r="M2" s="95" t="s">
-        <v>513</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>514</v>
-      </c>
-      <c r="O2" s="95" t="s">
-        <v>515</v>
-      </c>
-      <c r="P2" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q2" s="95" t="s">
-        <v>521</v>
-      </c>
-      <c r="R2" s="95" t="s">
-        <v>522</v>
-      </c>
-      <c r="S2" s="95" t="s">
-        <v>523</v>
-      </c>
-      <c r="T2" s="95" t="s">
-        <v>524</v>
-      </c>
-      <c r="U2" s="97" t="s">
-        <v>517</v>
-      </c>
-      <c r="V2" s="97" t="s">
-        <v>518</v>
-      </c>
-      <c r="W2" s="97" t="s">
-        <v>519</v>
-      </c>
-      <c r="X2" s="97" t="s">
-        <v>520</v>
-      </c>
-      <c r="Y2" s="97" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z2" s="97" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" s="97" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB2" s="97" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D4" t="s">
-        <v>558</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" t="s">
-        <v>559</v>
-      </c>
-      <c r="E5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" t="s">
-        <v>560</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="102" t="s">
-        <v>561</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" t="s">
-        <v>558</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="105" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" t="s">
-        <v>564</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D12" t="s">
-        <v>560</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D14" t="s">
-        <v>573</v>
-      </c>
-      <c r="E14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D15" t="s">
-        <v>559</v>
-      </c>
-      <c r="E15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q15" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D16" t="s">
-        <v>560</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q16" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:L1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11767,1427 +10725,1427 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="116" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:28" s="105" customFormat="1" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="122" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="125" t="s">
+        <v>503</v>
+      </c>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="117" t="s">
+        <v>505</v>
+      </c>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="128" t="s">
+        <v>504</v>
+      </c>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="117" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="119"/>
+    </row>
+    <row r="2" spans="1:28" s="95" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>525</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>526</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>527</v>
+      </c>
+      <c r="I2" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="K2" s="107" t="s">
+        <v>509</v>
+      </c>
+      <c r="L2" s="107" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" s="106" t="s">
+        <v>511</v>
+      </c>
+      <c r="N2" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="O2" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="P2" s="106" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="R2" s="107" t="s">
+        <v>516</v>
+      </c>
+      <c r="S2" s="107" t="s">
+        <v>517</v>
+      </c>
+      <c r="T2" s="107" t="s">
+        <v>518</v>
+      </c>
+      <c r="U2" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="V2" s="108" t="s">
+        <v>569</v>
+      </c>
+      <c r="W2" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="X2" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="C1" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>555</v>
-      </c>
-      <c r="E1" s="143" t="s">
-        <v>529</v>
-      </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="145" t="s">
-        <v>504</v>
-      </c>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="148" t="s">
-        <v>505</v>
-      </c>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="140" t="s">
-        <v>507</v>
-      </c>
-      <c r="R1" s="141"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="151" t="s">
-        <v>506</v>
-      </c>
-      <c r="V1" s="152"/>
-      <c r="W1" s="152"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="140" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z1" s="141"/>
-      <c r="AA1" s="141"/>
-      <c r="AB1" s="142"/>
-    </row>
-    <row r="2" spans="1:28" s="102" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
-        <v>571</v>
-      </c>
-      <c r="B2" s="113" t="s">
-        <v>570</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>555</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>530</v>
-      </c>
-      <c r="F2" s="117" t="s">
-        <v>531</v>
-      </c>
-      <c r="G2" s="117" t="s">
-        <v>532</v>
-      </c>
-      <c r="H2" s="117" t="s">
-        <v>533</v>
-      </c>
-      <c r="I2" s="118" t="s">
-        <v>509</v>
-      </c>
-      <c r="J2" s="118" t="s">
-        <v>510</v>
-      </c>
-      <c r="K2" s="118" t="s">
-        <v>511</v>
-      </c>
-      <c r="L2" s="118" t="s">
-        <v>512</v>
-      </c>
-      <c r="M2" s="117" t="s">
-        <v>513</v>
-      </c>
-      <c r="N2" s="117" t="s">
-        <v>514</v>
-      </c>
-      <c r="O2" s="117" t="s">
-        <v>515</v>
-      </c>
-      <c r="P2" s="117" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q2" s="118" t="s">
+      <c r="Y2" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="Z2" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA2" s="107" t="s">
         <v>521</v>
       </c>
-      <c r="R2" s="118" t="s">
+      <c r="AB2" s="107" t="s">
         <v>522</v>
-      </c>
-      <c r="S2" s="118" t="s">
-        <v>523</v>
-      </c>
-      <c r="T2" s="118" t="s">
-        <v>524</v>
-      </c>
-      <c r="U2" s="119" t="s">
-        <v>575</v>
-      </c>
-      <c r="V2" s="119" t="s">
-        <v>576</v>
-      </c>
-      <c r="W2" s="119" t="s">
-        <v>577</v>
-      </c>
-      <c r="X2" s="119" t="s">
-        <v>578</v>
-      </c>
-      <c r="Y2" s="118" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z2" s="118" t="s">
-        <v>526</v>
-      </c>
-      <c r="AA2" s="118" t="s">
-        <v>527</v>
-      </c>
-      <c r="AB2" s="118" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="107" t="s">
-        <v>556</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>565</v>
-      </c>
-      <c r="D3" s="108" t="s">
+      <c r="A3" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P3" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB3" s="110" t="s">
+      <c r="E3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U3" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>556</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>566</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>558</v>
-      </c>
-      <c r="E4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB4" s="110" t="s">
+      <c r="A4" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>552</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U4" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V4" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W4" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB4" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="107" t="s">
-        <v>556</v>
-      </c>
-      <c r="C5" s="107" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" s="108" t="s">
-        <v>559</v>
-      </c>
-      <c r="E5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P5" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W5" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X5" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA5" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="110" t="s">
+      <c r="A5" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U5" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
-        <v>557</v>
-      </c>
-      <c r="B6" s="107" t="s">
+      <c r="A6" s="96" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="D6" s="108" t="s">
-        <v>560</v>
-      </c>
-      <c r="E6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="R6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U6" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V6" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X6" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB6" s="110" t="s">
+      <c r="D6" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X6" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA6" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="107" t="s">
-        <v>561</v>
-      </c>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="96" t="s">
+        <v>555</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>550</v>
+      </c>
+      <c r="C7" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="C7" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" s="108" t="s">
-        <v>572</v>
-      </c>
-      <c r="E7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P7" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U7" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V7" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X7" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB7" s="110" t="s">
+      <c r="D7" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P7" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U7" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V7" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="107" t="s">
-        <v>565</v>
-      </c>
-      <c r="D8" s="108" t="s">
+      <c r="C8" s="96" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P8" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U8" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X8" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z8" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="110" t="s">
+      <c r="E8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U8" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V8" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="99" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="124" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="120" t="s">
-        <v>563</v>
-      </c>
-      <c r="B9" s="120" t="s">
+    <row r="9" spans="1:28" s="113" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
+        <v>557</v>
+      </c>
+      <c r="B9" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="120" t="s">
-        <v>566</v>
-      </c>
-      <c r="D9" s="121" t="s">
-        <v>558</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="L9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="N9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="T9" s="122" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="V9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="X9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z9" s="122" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB9" s="122" t="s">
+      <c r="C9" s="109" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>552</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="S9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="111" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="W9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="X9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z9" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB9" s="111" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
-        <v>563</v>
-      </c>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="B10" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="D10" s="108" t="s">
-        <v>574</v>
-      </c>
-      <c r="E10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P10" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U10" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W10" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X10" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z10" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB10" s="110" t="s">
+      <c r="C10" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U10" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W10" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="107" t="s">
-        <v>563</v>
-      </c>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="96" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>567</v>
-      </c>
-      <c r="D11" s="108" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P11" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="S11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U11" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V11" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W11" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="X11" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z11" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA11" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="110" t="s">
+      <c r="C11" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="S11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U11" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="X11" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA11" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB11" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="107" t="s">
+      <c r="A12" s="96" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="107" t="s">
-        <v>567</v>
-      </c>
-      <c r="D12" s="108" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="J12" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P12" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="R12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U12" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W12" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X12" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA12" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB12" s="110" t="s">
+      <c r="C12" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="N12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U12" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W12" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA12" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB12" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="107" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="107" t="s">
+      <c r="A13" s="96" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="107" t="s">
-        <v>562</v>
-      </c>
-      <c r="D13" s="108" t="s">
-        <v>572</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="N13" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P13" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="R13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U13" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W13" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X13" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA13" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB13" s="110" t="s">
+      <c r="C13" s="96" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>565</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W13" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X13" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB13" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="107" t="s">
-        <v>565</v>
-      </c>
-      <c r="D14" s="108" t="s">
+      <c r="C14" s="96" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V14" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="W14" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X14" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA14" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB14" s="110" t="s">
+      <c r="E14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="W14" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X14" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB14" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="96" t="s">
+        <v>559</v>
+      </c>
+      <c r="D15" s="97" t="s">
         <v>566</v>
       </c>
-      <c r="D15" s="108" t="s">
-        <v>573</v>
-      </c>
-      <c r="E15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P15" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R15" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="W15" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X15" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA15" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB15" s="110" t="s">
+      <c r="E15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="W15" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X15" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107" t="s">
+      <c r="A16" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="107" t="s">
-        <v>567</v>
-      </c>
-      <c r="D16" s="108" t="s">
-        <v>559</v>
-      </c>
-      <c r="E16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V16" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="W16" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X16" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z16" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA16" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB16" s="110" t="s">
+      <c r="C16" s="96" t="s">
+        <v>560</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>553</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="W16" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X16" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z16" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" s="99" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="107" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="108" t="s">
-        <v>560</v>
-      </c>
-      <c r="E17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="110" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="M17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="P17" s="109" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="R17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="S17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="T17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="U17" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="V17" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="W17" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="X17" s="111" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA17" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB17" s="110" t="s">
+      <c r="C17" s="96" t="s">
+        <v>572</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="N17" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="R17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="S17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="U17" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="X17" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB17" s="99" t="s">
         <v>75</v>
       </c>
     </row>
@@ -13203,4 +12161,157 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="122" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="125" t="s">
+        <v>503</v>
+      </c>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="117" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="128" t="s">
+        <v>504</v>
+      </c>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="117" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="119"/>
+    </row>
+    <row r="2" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="102" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>549</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>525</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>526</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>527</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="107" t="s">
+        <v>508</v>
+      </c>
+      <c r="J2" s="107" t="s">
+        <v>509</v>
+      </c>
+      <c r="K2" s="107" t="s">
+        <v>510</v>
+      </c>
+      <c r="L2" s="106" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="106" t="s">
+        <v>512</v>
+      </c>
+      <c r="N2" s="106" t="s">
+        <v>513</v>
+      </c>
+      <c r="O2" s="106" t="s">
+        <v>514</v>
+      </c>
+      <c r="P2" s="107" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" s="107" t="s">
+        <v>517</v>
+      </c>
+      <c r="S2" s="107" t="s">
+        <v>518</v>
+      </c>
+      <c r="T2" s="108" t="s">
+        <v>568</v>
+      </c>
+      <c r="U2" s="108" t="s">
+        <v>569</v>
+      </c>
+      <c r="V2" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="W2" s="108" t="s">
+        <v>571</v>
+      </c>
+      <c r="X2" s="107" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y2" s="107" t="s">
+        <v>520</v>
+      </c>
+      <c r="Z2" s="107" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA2" s="107" t="s">
+        <v>522</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Agile\Aml_automation\src\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Agile_Automation\Aml_automation\src\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2698,6 +2698,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2748,21 +2763,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9371,7 +9371,7 @@
   <dimension ref="A1:BZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <selection activeCell="BY13" sqref="BY13"/>
+      <selection activeCell="BV11" sqref="BV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9614,242 +9614,242 @@
       <c r="BX1" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="BY1" s="135" t="s">
+      <c r="BY1" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="BZ1" s="134"/>
+      <c r="BZ1" s="117"/>
     </row>
-    <row r="2" spans="1:78" s="131" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+    <row r="2" spans="1:78" s="114" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="114" t="s">
         <v>573</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C2" s="114" t="s">
         <v>574</v>
       </c>
-      <c r="D2" s="131" t="s">
+      <c r="D2" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="N2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF2" s="131" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" s="134" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ2" s="134" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AV2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AX2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="AZ2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ2" s="131" t="s">
+      <c r="E2" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="R2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG2" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ2" s="114" t="s">
         <v>575</v>
       </c>
-      <c r="BK2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BL2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BM2" s="131" t="s">
+      <c r="BK2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM2" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="BN2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO2" s="132" t="s">
+      <c r="BN2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="BP2" s="131" t="s">
+      <c r="BP2" s="114" t="s">
         <v>576</v>
       </c>
-      <c r="BQ2" s="131" t="s">
+      <c r="BQ2" s="114" t="s">
         <v>577</v>
       </c>
-      <c r="BR2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BT2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BV2" s="131" t="s">
+      <c r="BR2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BT2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BV2" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="BW2" s="131" t="s">
-        <v>42</v>
-      </c>
-      <c r="BX2" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="BY2" s="131" t="s">
-        <v>75</v>
+      <c r="BW2" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="BX2" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY2" s="114" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9931,13 +9931,13 @@
       <c r="C1" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="119" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:14" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="s">
@@ -10738,42 +10738,42 @@
       <c r="D1" s="103" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
       <c r="H1" s="104"/>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="127" t="s">
         <v>502</v>
       </c>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="125" t="s">
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="117" t="s">
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="128" t="s">
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="V1" s="129"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="117" t="s">
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="135"/>
+      <c r="Y1" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="119"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="123"/>
+      <c r="AB1" s="124"/>
     </row>
     <row r="2" spans="1:28" s="95" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">
@@ -12183,42 +12183,42 @@
       <c r="C1" s="103" t="s">
         <v>549</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="125" t="s">
         <v>523</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
       <c r="G1" s="104"/>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="127" t="s">
         <v>502</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="125" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130" t="s">
         <v>503</v>
       </c>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="117" t="s">
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="122" t="s">
         <v>505</v>
       </c>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="128" t="s">
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="133" t="s">
         <v>504</v>
       </c>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="117" t="s">
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="135"/>
+      <c r="X1" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="119"/>
+      <c r="Y1" s="123"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="124"/>
     </row>
     <row r="2" spans="1:27" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="102" t="s">

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Agile\Automation\Aml_automation\src\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="5400" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17535" windowHeight="5400" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="8" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <sheet name="Dashboard TODO Editorial Roles" sheetId="13" r:id="rId8"/>
     <sheet name="Dashboard Programmed Editorial" sheetId="14" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1844,7 +1839,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="20">
     <font>
       <sz val="11"/>
@@ -2845,7 +2840,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2875,7 +2870,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2901,7 +2896,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2928,7 +2923,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2955,7 +2950,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2988,7 +2983,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3020,7 +3015,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3052,7 +3047,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3078,7 +3073,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3111,7 +3106,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3137,7 +3132,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3164,7 +3159,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3197,7 +3192,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3277,7 +3272,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment textRotation="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment textRotation="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0"/>
     </dxf>
     <dxf>
@@ -3305,7 +3300,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3333,7 +3328,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3365,7 +3360,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3399,7 +3394,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3433,7 +3428,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3467,7 +3462,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -3529,7 +3524,7 @@
         <name val="Calibri"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3557,7 +3552,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3589,7 +3584,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3629,7 +3624,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3669,7 +3664,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3703,7 +3698,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -3765,7 +3760,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3884,7 +3879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3916,10 +3911,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3951,7 +3945,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4127,7 +4120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5196,7 +5189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5557,7 +5550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BZ15"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -9158,7 +9151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -9426,7 +9419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BZ2"/>
   <sheetViews>
     <sheetView topLeftCell="AX1" workbookViewId="0">
@@ -9922,10 +9915,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9995,7 +9988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10798,11 +10791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11089,7 +11082,7 @@
         <v>47</v>
       </c>
       <c r="R4" s="98" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="S4" s="98" t="s">
         <v>73</v>
@@ -11344,7 +11337,7 @@
         <v>73</v>
       </c>
       <c r="Q7" s="98" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="R7" s="98" t="s">
         <v>73</v>
@@ -11523,7 +11516,7 @@
         <v>73</v>
       </c>
       <c r="T9" s="110" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="U9" s="110" t="s">
         <v>73</v>
@@ -12033,7 +12026,7 @@
         <v>47</v>
       </c>
       <c r="R15" s="98" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="S15" s="98" t="s">
         <v>73</v>
@@ -12253,7 +12246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AML-1\git\Automation\Aml_automation\src\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="4"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TagCatagory" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="TestData" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Normal1" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Ecommerce" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Normal" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Login" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Editorial Roles-OLD" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Dashboard TODO Editorial Roles" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Dashboard Programmed Editorial" sheetId="9" r:id="rId11"/>
+    <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="Normal1" sheetId="3" r:id="rId3"/>
+    <sheet name="Ecommerce" sheetId="4" r:id="rId4"/>
+    <sheet name="Normal" sheetId="5" r:id="rId5"/>
+    <sheet name="Login" sheetId="6" r:id="rId6"/>
+    <sheet name="Editorial Roles-OLD" sheetId="7" r:id="rId7"/>
+    <sheet name="Dashboard TODO Editorial Roles" sheetId="8" r:id="rId8"/>
+    <sheet name="Dashboard Programmed Editorial" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="569">
   <si>
     <t>Table Type</t>
   </si>
@@ -1059,9 +1067,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Shobha testing Future post</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -1089,36 +1094,12 @@
     <t>amita123</t>
   </si>
   <si>
-    <t>Valve ha comunicado oficialmente que dentro de unos días habilitará dos aplicaciones oficiales de Steam para los dispositivos móviles. Una de ellas será realmente especial y se tratará de Steam Link, con la que seremos capaces de disfrutar de cualquier videojuego de nuestra biblioteca de Steam en nuestros aparatos iOS o Android. Esta aplicación estará disponible para descargar a partir del 21 de mayo, pudiendo utilizarla en cualquier teléfono, tablet o televisión compatible que haga uso de Android o en los iPhone, iPad o Apple TV que tengan soporte para ella. Asimismo será necesario permanecer conectado a una red WiFi de 5 GHz o en su lugar a una red ethernet. Este requisito es indispensable para conseguir que la imagen de los juegos que se transmita del PC a los móviles sea lo suficientemente buena, para que así no haya ralentizaciones o no se vea lo suficientemente bien. Aun así, estamos deseando de que esté disponible para probarla a fondo. Además, será compatible con los mandos Steam Controller o cualquier mando de control MFI.</t>
-  </si>
-  <si>
     <t>newtesters111@gmail.com</t>
   </si>
   <si>
     <t>testingdemo123456</t>
   </si>
   <si>
-    <t>slide9.jpg</t>
-  </si>
-  <si>
-    <t>Da igual lo lejos que el destino lleve a Ryu, Sakura nunca anda muy lejos de él. Si el luchador errante protagonizó la primera colaboración entre 'Monster Hunter World' y 'Street Fighter V', su fan número uno le sigue los pasos en la épica cacería de Capcom a través del triple evento temporal Emperatriz en Flor. De hecho, la fecha no está escogida al azar: coincidiendo con la tradición japonesa del hanami que da la bienvenida a la primavera, estaba previsto que el florecimiento de las últimas flores de cerezo, (sakura) comenzase en Hokkaido el 4 de mayo. 1 Al igual que en el evento de Ryu, Capcom nos dará la oportunidad de desbloquear una armadura muy especial que transformará a nuestro cazador en la alegre luchadora independientemente del género. Es más, Sakura se presenta con el aspecto con el que debutó en 'Street Fighter V' cambiando su icónico traje de colegiala por el de su empleo a tiempo parcial en unos recreativos. Ahora bien, ¿cómo puedo hacerme con esta armadura que es puro fanservice entre ambas sagas? Como en eventos anteriores, tendrás que ganartela a base de cazar poderosas criaturas. Eso sí, nosotros te explicamos el proceso y todo lo que necesitas saber. ¡Sakura se une a la caza! 1 Una vez actualizado el juego, al entrar en 'Monster Hunter World' verás que desde el panel de información se ha añadido el segundo contenido de colaboración de 'Street Fighter V', lo cual supone tres nuevas misiones de desafío para la Arena del juego. Cada una de las misiones (emperatriz en flor I, II y III) es de nivel 7★, con lo que el requisito para poder participar será que nuestro cazador disponga de Rango de Cazador (RC) 12 o superior. En caso de estar por debajo bastará con seguir la historia principal del juego. Con el rango mínimo obtenido, dirígete a la Sala de Reuniones que hay en Astera. La encontrarás en el pasillo que hay al lado de la cantina aunque puedes subir directamente desde cualquier elevador. Una vez allí, acércate al mostrador del Puesto de la Arena y habla con la chica de la Arena para que te dé las opciones disponibles. En ese punto verás los desafíos disponibles, estando las tres misiones de 'Emperatriz en flor' en la segunda página. Acepta cualquiera de ellas.</t>
-  </si>
-  <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom title </t>
-  </si>
-  <si>
-    <t>1024_2000.jpg</t>
-  </si>
-  <si>
-    <t>https://www.ebay.es/itm/Huawei-Mate-20X-EVR-L29-Dual-6-RAM-128GB-Midnight-Blue-Stock-from-EU-Mejor/202501917501@#@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;</t>
-  </si>
-  <si>
     <t>Genbeta</t>
   </si>
   <si>
@@ -1131,9 +1112,6 @@
     <t>1 =&gt; 'normal',</t>
   </si>
   <si>
-    <t>15/01/2019 08:00</t>
-  </si>
-  <si>
     <t>Genbetadev</t>
   </si>
   <si>
@@ -1741,164 +1719,208 @@
   </si>
   <si>
     <t>Acura MDX</t>
+  </si>
+  <si>
+    <t>Pivot_product_Article</t>
+  </si>
+  <si>
+    <t>Pivot_product_Article_posttype</t>
+  </si>
+  <si>
+    <t>Longform</t>
+  </si>
+  <si>
+    <t>testing longform post</t>
+  </si>
+  <si>
+    <t>testing longform content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF111111"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
       <color rgb="FF333339"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1906,7 +1928,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1988,14 +2010,23 @@
     </fill>
   </fills>
   <borders count="34">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2004,9 +2035,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2021,16 +2054,21 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2040,6 +2078,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2054,17 +2093,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2073,14 +2115,20 @@
       <right style="thick">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2092,22 +2140,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
         <color rgb="FFE9E9E9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2122,66 +2178,94 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFE9E9E9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -2191,6 +2275,7 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2205,27 +2290,34 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -2235,27 +2327,34 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -2265,6 +2364,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2276,454 +2376,682 @@
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="121">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="19" fillId="5" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="23" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="26" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="24" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="27" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="30" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="30" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="30" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="13" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="14" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="10" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3769,7 +4097,7 @@
       <c r="AMI1" s="8"/>
       <c r="AMJ1" s="8"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1024">
       <c r="A2" s="11" t="s">
         <v>227</v>
       </c>
@@ -3799,7 +4127,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1024">
       <c r="A3" s="11" t="s">
         <v>259</v>
       </c>
@@ -3833,7 +4161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1024">
       <c r="A4" s="11" t="s">
         <v>282</v>
       </c>
@@ -3865,7 +4193,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1024">
       <c r="A5" s="11" t="s">
         <v>293</v>
       </c>
@@ -3893,7 +4221,7 @@
       </c>
       <c r="L5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1024">
       <c r="A6" s="11" t="s">
         <v>297</v>
       </c>
@@ -3921,7 +4249,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>324</v>
       </c>
@@ -3937,7 +4265,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>331</v>
       </c>
@@ -3953,7 +4281,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>332</v>
       </c>
@@ -3971,15 +4299,15 @@
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="62"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>343</v>
       </c>
@@ -3989,7 +4317,7 @@
       <c r="C10" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -3997,25 +4325,25 @@
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="69" t="s">
-        <v>352</v>
+      <c r="H10" s="65" t="s">
+        <v>351</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
-      <c r="L10" s="71"/>
+      <c r="L10" s="67"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="D11" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -4023,49 +4351,49 @@
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="69" t="s">
-        <v>369</v>
+      <c r="H11" s="65" t="s">
+        <v>360</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="71"/>
+      <c r="L11" s="67"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="69" t="s">
-        <v>375</v>
+      <c r="H12" s="65" t="s">
+        <v>365</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="71"/>
+      <c r="L12" s="67"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>345</v>
@@ -4075,259 +4403,259 @@
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="69" t="s">
-        <v>382</v>
+      <c r="H13" s="65" t="s">
+        <v>372</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="71"/>
+      <c r="L13" s="67"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="69" t="s">
-        <v>397</v>
+      <c r="H14" s="65" t="s">
+        <v>387</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="71"/>
+      <c r="L14" s="67"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B15" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="69" t="s">
-        <v>399</v>
+      <c r="H15" s="65" t="s">
+        <v>389</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
-      <c r="L15" s="71"/>
+      <c r="L15" s="67"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="D16" s="47" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="69" t="s">
-        <v>401</v>
+      <c r="H16" s="65" t="s">
+        <v>391</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="71"/>
+      <c r="L16" s="67"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="69" t="s">
-        <v>403</v>
+      <c r="H17" s="65" t="s">
+        <v>393</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="71"/>
+      <c r="L17" s="67"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="69" t="s">
-        <v>405</v>
+      <c r="H18" s="65" t="s">
+        <v>395</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
-      <c r="L18" s="71"/>
+      <c r="L18" s="67"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="69" t="s">
-        <v>407</v>
+      <c r="H19" s="65" t="s">
+        <v>397</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="71"/>
+      <c r="L19" s="67"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="69" t="s">
-        <v>409</v>
+      <c r="H20" s="65" t="s">
+        <v>399</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="71"/>
+      <c r="L20" s="67"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D21" s="47" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="69" t="s">
-        <v>411</v>
+      <c r="H21" s="65" t="s">
+        <v>401</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
-      <c r="L21" s="71"/>
+      <c r="L21" s="67"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D22" s="47" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="69" t="s">
-        <v>412</v>
+      <c r="H22" s="65" t="s">
+        <v>402</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="71"/>
+      <c r="L22" s="67"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>479</v>
-      </c>
-      <c r="D23" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="D23" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E23" s="52" t="s">
@@ -4335,51 +4663,51 @@
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="69" t="s">
-        <v>414</v>
+      <c r="H23" s="65" t="s">
+        <v>404</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
-      <c r="L23" s="71"/>
+      <c r="L23" s="67"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="69" t="s">
-        <v>416</v>
+      <c r="H24" s="65" t="s">
+        <v>406</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="71"/>
+      <c r="L24" s="67"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>516</v>
-      </c>
-      <c r="D25" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="D25" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E25" s="52" t="s">
@@ -4387,17 +4715,17 @@
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="69" t="s">
-        <v>418</v>
+      <c r="H25" s="65" t="s">
+        <v>408</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
-      <c r="L25" s="71"/>
+      <c r="L25" s="67"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B26" s="47" t="s">
         <v>228</v>
@@ -4405,7 +4733,7 @@
       <c r="C26" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E26" s="52" t="s">
@@ -4413,25 +4741,25 @@
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="69" t="s">
-        <v>423</v>
+      <c r="H26" s="65" t="s">
+        <v>413</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="71"/>
+      <c r="L26" s="67"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>529</v>
-      </c>
-      <c r="D27" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -4439,51 +4767,51 @@
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="69" t="s">
-        <v>425</v>
+      <c r="H27" s="65" t="s">
+        <v>415</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
-      <c r="L27" s="71"/>
+      <c r="L27" s="67"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>125</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="69" t="s">
-        <v>427</v>
+      <c r="H28" s="65" t="s">
+        <v>417</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="71"/>
+      <c r="L28" s="67"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>539</v>
-      </c>
-      <c r="D29" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="D29" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E29" s="52" t="s">
@@ -4491,25 +4819,25 @@
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="120" t="s">
-        <v>430</v>
-      </c>
-      <c r="I29" s="121"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="121"/>
-      <c r="L29" s="122"/>
+      <c r="H29" s="100" t="s">
+        <v>420</v>
+      </c>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="D30" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E30" s="52" t="s">
@@ -4523,17 +4851,17 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="D31" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="D31" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E31" s="52" t="s">
@@ -4547,17 +4875,17 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>549</v>
-      </c>
-      <c r="D32" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="D32" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E32" s="52" t="s">
@@ -4571,18 +4899,18 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>125</v>
@@ -4595,17 +4923,17 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>556</v>
-      </c>
-      <c r="D34" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E34" s="52" t="s">
@@ -4619,17 +4947,17 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>558</v>
-      </c>
-      <c r="D35" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E35" s="52" t="s">
@@ -4643,18 +4971,18 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D36" s="47" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>125</v>
@@ -4667,17 +4995,17 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>564</v>
-      </c>
-      <c r="D37" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="D37" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E37" s="52" t="s">
@@ -4691,17 +5019,17 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>567</v>
-      </c>
-      <c r="D38" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="D38" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E38" s="52" t="s">
@@ -4715,17 +5043,17 @@
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="11" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>570</v>
-      </c>
-      <c r="D39" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="D39" s="63" t="s">
         <v>345</v>
       </c>
       <c r="E39" s="52" t="s">
@@ -4739,20 +5067,20 @@
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="40" t="s">
-        <v>571</v>
-      </c>
-      <c r="B40" s="123" t="s">
-        <v>572</v>
-      </c>
-      <c r="C40" s="123" t="s">
-        <v>573</v>
-      </c>
-      <c r="D40" s="124" t="s">
+        <v>561</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="D40" s="104" t="s">
         <v>345</v>
       </c>
-      <c r="E40" s="125" t="s">
+      <c r="E40" s="105" t="s">
         <v>125</v>
       </c>
       <c r="F40" s="8"/>
@@ -4764,21 +5092,22 @@
       <c r="L40" s="8"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4822,7 +5151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>25</v>
       </c>
@@ -4866,7 +5195,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
@@ -4908,7 +5237,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>142</v>
       </c>
@@ -4948,7 +5277,7 @@
       </c>
       <c r="N4" s="36"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>167</v>
       </c>
@@ -4988,7 +5317,7 @@
       </c>
       <c r="N5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>189</v>
       </c>
@@ -5026,7 +5355,7 @@
       <c r="M6" s="27"/>
       <c r="N6" s="36"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="40" t="s">
         <v>200</v>
       </c>
@@ -5066,60 +5395,63 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="E2"/>
-    <hyperlink r:id="rId4" ref="F2"/>
-    <hyperlink r:id="rId5" ref="J2"/>
-    <hyperlink r:id="rId6" ref="K2"/>
-    <hyperlink r:id="rId7" ref="L2"/>
-    <hyperlink r:id="rId8" ref="B3"/>
-    <hyperlink r:id="rId9" ref="C3"/>
-    <hyperlink r:id="rId10" ref="D3"/>
-    <hyperlink r:id="rId11" ref="F3"/>
-    <hyperlink r:id="rId12" ref="J3"/>
-    <hyperlink r:id="rId13" ref="K3"/>
-    <hyperlink r:id="rId14" ref="L3"/>
-    <hyperlink r:id="rId15" ref="C4"/>
-    <hyperlink r:id="rId16" ref="D4"/>
-    <hyperlink r:id="rId17" ref="F4"/>
-    <hyperlink r:id="rId18" ref="J4"/>
-    <hyperlink r:id="rId19" ref="K4"/>
-    <hyperlink r:id="rId20" ref="L4"/>
-    <hyperlink r:id="rId21" ref="C5"/>
-    <hyperlink r:id="rId22" ref="D5"/>
-    <hyperlink r:id="rId23" ref="F5"/>
-    <hyperlink r:id="rId24" ref="J5"/>
-    <hyperlink r:id="rId25" ref="K5"/>
-    <hyperlink r:id="rId26" ref="L5"/>
-    <hyperlink r:id="rId27" ref="C6"/>
-    <hyperlink r:id="rId28" ref="D6"/>
-    <hyperlink r:id="rId29" ref="F6"/>
-    <hyperlink r:id="rId30" ref="J6"/>
-    <hyperlink r:id="rId31" ref="K6"/>
-    <hyperlink r:id="rId32" ref="L6"/>
-    <hyperlink r:id="rId33" ref="C7"/>
-    <hyperlink r:id="rId34" ref="D7"/>
-    <hyperlink r:id="rId35" ref="F7"/>
-    <hyperlink r:id="rId36" ref="J7"/>
-    <hyperlink r:id="rId37" ref="K7"/>
-    <hyperlink r:id="rId38" ref="L7"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
+    <hyperlink ref="K3" r:id="rId13"/>
+    <hyperlink ref="L3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="J4" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="L4" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
+    <hyperlink ref="J5" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId28"/>
+    <hyperlink ref="F6" r:id="rId29"/>
+    <hyperlink ref="J6" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31"/>
+    <hyperlink ref="L6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="D7" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="J7" r:id="rId36"/>
+    <hyperlink ref="K7" r:id="rId37"/>
+    <hyperlink ref="L7" r:id="rId38"/>
   </hyperlinks>
-  <drawing r:id="rId39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:86" ht="12.75">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5355,7 +5687,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:86" ht="12.75">
       <c r="A2" s="21" t="s">
         <v>103</v>
       </c>
@@ -5591,7 +5923,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:86" ht="12.75">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +6157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" spans="1:86" ht="21.75" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>171</v>
       </c>
@@ -6061,7 +6393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:86" ht="12.75">
       <c r="A5" s="21" t="s">
         <v>185</v>
       </c>
@@ -6297,7 +6629,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:86" ht="12.75">
       <c r="A6" s="32" t="s">
         <v>202</v>
       </c>
@@ -6533,7 +6865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:86" ht="12.75">
       <c r="A7" s="32" t="s">
         <v>209</v>
       </c>
@@ -6769,7 +7101,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:86" ht="12.75">
       <c r="A8" s="26" t="s">
         <v>217</v>
       </c>
@@ -7005,7 +7337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:86" ht="12.75">
       <c r="A9" s="26" t="s">
         <v>233</v>
       </c>
@@ -7241,7 +7573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:86" ht="12.75">
       <c r="A10" s="26" t="s">
         <v>240</v>
       </c>
@@ -7477,7 +7809,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:86" ht="12.75">
       <c r="A11" s="26" t="s">
         <v>246</v>
       </c>
@@ -7713,7 +8045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:86" ht="12.75">
       <c r="A12" s="26" t="s">
         <v>249</v>
       </c>
@@ -7949,7 +8281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:86" ht="12.75">
       <c r="A13" s="21" t="s">
         <v>254</v>
       </c>
@@ -8185,7 +8517,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:86" ht="12.75">
       <c r="A14" s="26" t="s">
         <v>264</v>
       </c>
@@ -8316,22 +8648,22 @@
         <v>277</v>
       </c>
       <c r="AR14" s="33">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AS14" s="33">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AT14" s="33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="33">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AV14" s="33">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="33">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AX14" s="33" t="s">
         <v>278</v>
@@ -8421,7 +8753,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:86" ht="12.75">
       <c r="A15" s="21" t="s">
         <v>290</v>
       </c>
@@ -8655,55 +8987,317 @@
       </c>
       <c r="BZ15" s="26" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" ht="15.75" customHeight="1">
+      <c r="A16" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="B16" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T16" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="V16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="W16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS16" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="BT16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU16" s="71" t="s">
+        <v>323</v>
+      </c>
+      <c r="BV16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB16" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="CC16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD16" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE16" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG16" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH16" s="66" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" location="@lounge.jpg" ref="I2"/>
-    <hyperlink r:id="rId3" ref="O2"/>
-    <hyperlink r:id="rId4" ref="Q2"/>
-    <hyperlink r:id="rId5" ref="X2"/>
-    <hyperlink r:id="rId6" ref="AB2"/>
-    <hyperlink r:id="rId7" ref="F3"/>
-    <hyperlink r:id="rId8" ref="X3"/>
-    <hyperlink r:id="rId9" ref="F4"/>
-    <hyperlink r:id="rId10" ref="U4"/>
-    <hyperlink r:id="rId11" ref="F5"/>
-    <hyperlink r:id="rId12" ref="U5"/>
-    <hyperlink r:id="rId13" ref="F9"/>
-    <hyperlink r:id="rId14" ref="F10"/>
-    <hyperlink r:id="rId15" ref="F11"/>
-    <hyperlink r:id="rId16" ref="F12"/>
-    <hyperlink r:id="rId17" ref="F13"/>
-    <hyperlink r:id="rId18" location="@lounge.jpg" ref="I13"/>
-    <hyperlink r:id="rId19" ref="W13"/>
-    <hyperlink r:id="rId20" ref="F14"/>
-    <hyperlink r:id="rId21" ref="X14"/>
-    <hyperlink r:id="rId22" ref="AA14"/>
-    <hyperlink r:id="rId23" ref="AL14"/>
-    <hyperlink r:id="rId24" ref="AN14"/>
-    <hyperlink r:id="rId25" ref="AO14"/>
-    <hyperlink r:id="rId26" ref="AP14"/>
-    <hyperlink r:id="rId27" ref="BA14"/>
-    <hyperlink r:id="rId28" ref="F15"/>
-    <hyperlink r:id="rId29" ref="X15"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="X2" r:id="rId5"/>
+    <hyperlink ref="AB2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="X3" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="U4" r:id="rId10"/>
+    <hyperlink ref="F5" r:id="rId11"/>
+    <hyperlink ref="U5" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
+    <hyperlink ref="W13" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="X14" r:id="rId21"/>
+    <hyperlink ref="AA14" r:id="rId22"/>
+    <hyperlink ref="AL14" r:id="rId23"/>
+    <hyperlink ref="AN14" r:id="rId24"/>
+    <hyperlink ref="AO14" r:id="rId25"/>
+    <hyperlink ref="AP14" r:id="rId26"/>
+    <hyperlink ref="BA14" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="X15" r:id="rId29"/>
+    <hyperlink ref="BS16" r:id="rId30"/>
   </hyperlinks>
-  <drawing r:id="rId30"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="23" t="s">
         <v>17</v>
       </c>
@@ -8833,7 +9427,7 @@
       <c r="BY1" s="13"/>
       <c r="BZ1" s="20"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:78" ht="15.75" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>310</v>
       </c>
@@ -8963,7 +9557,7 @@
       <c r="BY2" s="26"/>
       <c r="BZ2" s="26"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:78" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>327</v>
       </c>
@@ -9095,642 +9689,665 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="H2"/>
-    <hyperlink r:id="rId4" ref="J2"/>
-    <hyperlink r:id="rId5" ref="K2"/>
-    <hyperlink r:id="rId6" ref="H3"/>
-    <hyperlink r:id="rId7" ref="W3"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="W3" r:id="rId7"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="34.140625" customWidth="1"/>
+    <col min="86" max="86" width="36.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:86" ht="63">
+      <c r="A1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="R1" s="58" t="s">
+      <c r="R1" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="58" t="s">
+      <c r="S1" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="T1" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="U1" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="V1" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="W1" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="107" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AB1" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AC1" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" s="63" t="s">
+      <c r="AD1" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AE1" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="AF1" s="64" t="s">
+      <c r="AF1" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="61" t="s">
+      <c r="AG1" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="AH1" s="61" t="s">
+      <c r="AH1" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="61" t="s">
+      <c r="AI1" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="AJ1" s="61" t="s">
+      <c r="AJ1" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="AN1" s="61" t="s">
+      <c r="AN1" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="AO1" s="61" t="s">
+      <c r="AO1" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="AP1" s="61" t="s">
+      <c r="AP1" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="AQ1" s="61" t="s">
+      <c r="AQ1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="AR1" s="61" t="s">
+      <c r="AR1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="AS1" s="61" t="s">
+      <c r="AS1" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="AT1" s="61" t="s">
+      <c r="AT1" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="AU1" s="61" t="s">
+      <c r="AU1" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="61" t="s">
+      <c r="AV1" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="61" t="s">
+      <c r="AW1" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="AX1" s="61" t="s">
+      <c r="AX1" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="AY1" s="61" t="s">
+      <c r="AY1" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="AZ1" s="61" t="s">
+      <c r="AZ1" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="BA1" s="61" t="s">
+      <c r="BA1" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="BB1" s="61" t="s">
+      <c r="BB1" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="BC1" s="61" t="s">
+      <c r="BC1" s="106" t="s">
         <v>80</v>
       </c>
-      <c r="BD1" s="61" t="s">
+      <c r="BD1" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="BE1" s="61" t="s">
+      <c r="BE1" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="BF1" s="61" t="s">
+      <c r="BF1" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="BG1" s="61" t="s">
+      <c r="BG1" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="BH1" s="61" t="s">
+      <c r="BH1" s="106" t="s">
         <v>85</v>
       </c>
-      <c r="BI1" s="61" t="s">
+      <c r="BI1" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="BJ1" s="61" t="s">
+      <c r="BJ1" s="106" t="s">
         <v>336</v>
       </c>
-      <c r="BK1" s="61" t="s">
+      <c r="BK1" s="106" t="s">
         <v>337</v>
       </c>
-      <c r="BL1" s="61" t="s">
+      <c r="BL1" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="BM1" s="61" t="s">
+      <c r="BM1" s="106" t="s">
         <v>339</v>
       </c>
-      <c r="BN1" s="61" t="s">
+      <c r="BN1" s="106" t="s">
         <v>340</v>
       </c>
-      <c r="BO1" s="65" t="s">
+      <c r="BO1" s="61" t="s">
         <v>341</v>
       </c>
-      <c r="BP1" s="61" t="s">
+      <c r="BP1" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="BQ1" s="61" t="s">
+      <c r="BQ1" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="BR1" s="61" t="s">
+      <c r="BR1" s="106" t="s">
         <v>89</v>
       </c>
-      <c r="BS1" s="61" t="s">
+      <c r="BS1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="BT1" s="61" t="s">
+      <c r="BT1" s="106" t="s">
         <v>90</v>
       </c>
-      <c r="BU1" s="61" t="s">
+      <c r="BU1" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="BV1" s="61" t="s">
+      <c r="BV1" s="106" t="s">
         <v>91</v>
       </c>
-      <c r="BW1" s="61" t="s">
+      <c r="BW1" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="BX1" s="61" t="s">
+      <c r="BX1" s="106" t="s">
         <v>93</v>
       </c>
-      <c r="BY1" s="61" t="s">
+      <c r="BY1" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="BZ1" s="61" t="s">
+      <c r="BZ1" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="CA1" s="61" t="s">
+      <c r="CA1" s="106" t="s">
         <v>96</v>
       </c>
-      <c r="CB1" s="61" t="s">
+      <c r="CB1" s="106" t="s">
         <v>97</v>
       </c>
-      <c r="CC1" s="61" t="s">
+      <c r="CC1" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="CD1" s="61" t="s">
+      <c r="CD1" s="106" t="s">
         <v>99</v>
       </c>
-      <c r="CE1" s="61" t="s">
+      <c r="CE1" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="CF1" s="61" t="s">
+      <c r="CF1" s="106" t="s">
         <v>342</v>
       </c>
+      <c r="CG1" s="108" t="s">
+        <v>564</v>
+      </c>
+      <c r="CH1" s="108" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="E2" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q2" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="S2" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" s="73" t="s">
+    <row r="2" spans="1:86" ht="15.75" customHeight="1">
+      <c r="A2" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>567</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="P2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="R2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="U2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="V2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="X2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AE2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AT2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BE2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ2" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="BK2" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="BL2" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="BM2" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="BN2" s="75" t="s">
-        <v>365</v>
-      </c>
-      <c r="BO2" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="BP2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BQ2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BR2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BS2" s="77" t="s">
+      <c r="U2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="X2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AV2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AX2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BA2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BC2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BF2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BG2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BO2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BP2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BQ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BS2" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="BT2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BU2" s="78" t="s">
+      <c r="BT2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BU2" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="BV2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BW2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BX2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BY2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="CA2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="CB2" s="70" t="s">
+      <c r="BV2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BW2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="BZ2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CA2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB2" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="CC2" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="CD2" s="70" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE2" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="CF2" s="79" t="s">
-        <v>370</v>
+      <c r="CC2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CD2" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE2" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="CF2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CG2" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH2" s="66" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="@lounge.jpg" ref="Q2"/>
-    <hyperlink r:id="rId2" ref="BN2"/>
-    <hyperlink r:id="rId3" ref="BS2"/>
+    <hyperlink ref="BS2" r:id="rId1"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="39" t="s">
         <v>348</v>
       </c>
+      <c r="B2" s="44" t="s">
+        <v>349</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="44" t="s">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="39" t="s">
         <v>350</v>
       </c>
+      <c r="B3" s="44" t="s">
+        <v>350</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>351</v>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="44">
+        <v>123456</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="39" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="B4" s="44">
-        <v>123456.0</v>
+      <c r="B5" s="44" t="s">
+        <v>354</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" s="44" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="39" t="s">
-        <v>357</v>
-      </c>
       <c r="B6" s="44" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="80" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="84"/>
+      <c r="C1" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D1" s="109" t="s">
+        <v>368</v>
+      </c>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -9738,63 +10355,63 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
-    <row r="2">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="72" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="81" t="s">
+      <c r="H2" s="72" t="s">
         <v>377</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>383</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>385</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>386</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>387</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="86">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="87" t="s">
+      <c r="C3" s="75">
+        <v>1</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I3" s="8"/>
@@ -9802,33 +10419,33 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="85" t="s">
-        <v>352</v>
+      <c r="N3" s="74" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="85" t="s">
-        <v>388</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="87" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="74" t="s">
+        <v>378</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="75">
+        <v>0</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="76" t="s">
         <v>125</v>
       </c>
       <c r="I4" s="8"/>
@@ -9836,33 +10453,33 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="85" t="s">
-        <v>369</v>
+      <c r="N4" s="74" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="88">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="87" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="77">
+        <v>3</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I5" s="8"/>
@@ -9870,33 +10487,33 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="85" t="s">
-        <v>375</v>
+      <c r="N5" s="74" t="s">
+        <v>365</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="85" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C6" s="86">
-        <v>15.0</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H6" s="87" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="75">
+        <v>15</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I6" s="8"/>
@@ -9904,33 +10521,33 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
-      <c r="N6" s="85" t="s">
-        <v>382</v>
+      <c r="N6" s="74" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="85" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="85" t="s">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="74" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="86">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H7" s="87" t="s">
+      <c r="C7" s="75">
+        <v>5</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I7" s="8"/>
@@ -9938,31 +10555,31 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="85" t="s">
-        <v>397</v>
+      <c r="N7" s="74" t="s">
+        <v>387</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="85" t="s">
-        <v>398</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="87" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="74" t="s">
+        <v>388</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I8" s="8"/>
@@ -9970,79 +10587,79 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="85" t="s">
-        <v>399</v>
+      <c r="N8" s="74" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="85" t="s">
-        <v>400</v>
-      </c>
-      <c r="B9" s="85" t="s">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="86">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="C9" s="75">
+        <v>4</v>
+      </c>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="85" t="s">
-        <v>401</v>
+      <c r="N9" s="74" t="s">
+        <v>391</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="B10" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="85" t="s">
-        <v>403</v>
+      <c r="N10" s="74" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="85" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" s="85" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="74" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="86">
-        <v>17.0</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="87" t="s">
+      <c r="C11" s="75">
+        <v>17</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I11" s="8"/>
@@ -10050,33 +10667,33 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="85" t="s">
-        <v>405</v>
+      <c r="N11" s="74" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="85" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="86">
-        <v>18.0</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="87" t="s">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="74" t="s">
+        <v>396</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" s="75">
+        <v>18</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I12" s="8"/>
@@ -10084,31 +10701,31 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="85" t="s">
-        <v>407</v>
+      <c r="N12" s="74" t="s">
+        <v>397</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="85" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" s="85" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E13" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" s="87" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I13" s="8"/>
@@ -10116,31 +10733,31 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="85" t="s">
-        <v>409</v>
+      <c r="N13" s="74" t="s">
+        <v>399</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="85" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>389</v>
-      </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="87" t="s">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="78"/>
+      <c r="D14" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I14" s="8"/>
@@ -10148,33 +10765,33 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
-      <c r="N14" s="85" t="s">
-        <v>411</v>
+      <c r="N14" s="74" t="s">
+        <v>401</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="85" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="74" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="86">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H15" s="87" t="s">
+      <c r="C15" s="75">
+        <v>2</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I15" s="8"/>
@@ -10182,51 +10799,51 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="85" t="s">
-        <v>412</v>
+      <c r="N15" s="74" t="s">
+        <v>402</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="85" t="s">
-        <v>413</v>
-      </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="85" t="s">
-        <v>414</v>
+      <c r="N16" s="74" t="s">
+        <v>404</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="85" t="s">
-        <v>415</v>
-      </c>
-      <c r="B17" s="85" t="s">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="87" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I17" s="8"/>
@@ -10234,51 +10851,51 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
-      <c r="N17" s="85" t="s">
-        <v>416</v>
+      <c r="N17" s="74" t="s">
+        <v>406</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="85" t="s">
-        <v>418</v>
+      <c r="N18" s="74" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="86">
-        <v>11.0</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G19" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="87" t="s">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="75">
+        <v>11</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I19" s="8"/>
@@ -10286,31 +10903,31 @@
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
-      <c r="N19" s="85" t="s">
-        <v>423</v>
+      <c r="N19" s="74" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="85" t="s">
-        <v>424</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="86">
-        <v>12.0</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G20" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="87" t="s">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="74" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="78"/>
+      <c r="C20" s="75">
+        <v>12</v>
+      </c>
+      <c r="D20" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I20" s="8"/>
@@ -10318,53 +10935,53 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="85" t="s">
-        <v>425</v>
+      <c r="N20" s="74" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="85" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="74" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" s="78"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="85" t="s">
-        <v>427</v>
+      <c r="N21" s="74" t="s">
+        <v>417</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="85" t="s">
-        <v>428</v>
-      </c>
-      <c r="B22" s="85" t="s">
-        <v>429</v>
-      </c>
-      <c r="C22" s="86">
-        <v>9.0</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F22" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="87" t="s">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="74" t="s">
+        <v>418</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="75">
+        <v>9</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I22" s="8"/>
@@ -10372,31 +10989,31 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="85" t="s">
-        <v>430</v>
+      <c r="N22" s="74" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="85" t="s">
-        <v>431</v>
-      </c>
-      <c r="B23" s="89"/>
-      <c r="C23" s="86">
-        <v>10.0</v>
-      </c>
-      <c r="D23" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="87" t="s">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="74" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="78"/>
+      <c r="C23" s="75">
+        <v>10</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I23" s="8"/>
@@ -10404,27 +11021,27 @@
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="89"/>
+      <c r="N23" s="78"/>
     </row>
-    <row r="24">
-      <c r="A24" s="85" t="s">
-        <v>432</v>
-      </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F24" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="87" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="74" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I24" s="8"/>
@@ -10434,25 +11051,25 @@
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
     </row>
-    <row r="25">
-      <c r="A25" s="85" t="s">
-        <v>433</v>
-      </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="87" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I25" s="8"/>
@@ -10462,25 +11079,25 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
     </row>
-    <row r="26">
-      <c r="A26" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="87" t="s">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="76" t="s">
         <v>125</v>
       </c>
       <c r="I26" s="8"/>
@@ -10490,29 +11107,29 @@
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
     </row>
-    <row r="27">
-      <c r="A27" s="85" t="s">
-        <v>435</v>
-      </c>
-      <c r="B27" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="C27" s="86">
-        <v>13.0</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="87" t="s">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="75">
+        <v>13</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I27" s="8"/>
@@ -10522,25 +11139,25 @@
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
     </row>
-    <row r="28">
-      <c r="A28" s="85" t="s">
-        <v>437</v>
-      </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H28" s="87" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I28" s="8"/>
@@ -10550,25 +11167,25 @@
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
     </row>
-    <row r="29">
-      <c r="A29" s="85" t="s">
-        <v>438</v>
-      </c>
-      <c r="B29" s="89"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G29" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="87" t="s">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A29" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="76" t="s">
         <v>125</v>
       </c>
       <c r="I29" s="8"/>
@@ -10578,25 +11195,25 @@
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
     </row>
-    <row r="30">
-      <c r="A30" s="85" t="s">
-        <v>439</v>
-      </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F30" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="H30" s="87" t="s">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A30" s="74" t="s">
+        <v>429</v>
+      </c>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="76" t="s">
         <v>125</v>
       </c>
       <c r="I30" s="8"/>
@@ -10606,25 +11223,25 @@
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
     </row>
-    <row r="31">
-      <c r="A31" s="85" t="s">
-        <v>440</v>
-      </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="H31" s="87" t="s">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A31" s="74" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="76" t="s">
         <v>155</v>
       </c>
       <c r="I31" s="8"/>
@@ -10634,25 +11251,25 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
     </row>
-    <row r="32">
-      <c r="A32" s="85" t="s">
-        <v>441</v>
-      </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="H32" s="87" t="s">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A32" s="74" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="76" t="s">
         <v>125</v>
       </c>
       <c r="I32" s="8"/>
@@ -10666,1606 +11283,1608 @@
   <mergeCells count="1">
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="D1" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="E1" s="96" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99" t="s">
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="120" t="s">
+        <v>471</v>
+      </c>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="112" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="114"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>474</v>
+      </c>
+      <c r="G2" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="101" t="s">
+      <c r="H2" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="104" t="s">
-        <v>480</v>
-      </c>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="105" t="s">
-        <v>481</v>
-      </c>
-      <c r="V1" s="102"/>
-      <c r="W1" s="102"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="104" t="s">
+      <c r="I2" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="103"/>
+      <c r="K2" s="87" t="s">
+        <v>483</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>484</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>485</v>
+      </c>
+      <c r="N2" s="86" t="s">
+        <v>486</v>
+      </c>
+      <c r="O2" s="86" t="s">
+        <v>487</v>
+      </c>
+      <c r="P2" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q2" s="87" t="s">
+        <v>489</v>
+      </c>
+      <c r="R2" s="87" t="s">
+        <v>490</v>
+      </c>
+      <c r="S2" s="87" t="s">
+        <v>491</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>492</v>
+      </c>
+      <c r="U2" s="88" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" s="88" t="s">
+        <v>494</v>
+      </c>
+      <c r="W2" s="88" t="s">
+        <v>495</v>
+      </c>
+      <c r="X2" s="88" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y2" s="87" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z2" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="AA2" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="AB2" s="87" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="94" t="s">
-        <v>462</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="C2" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="D2" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="E2" s="106" t="s">
-        <v>483</v>
-      </c>
-      <c r="F2" s="106" t="s">
-        <v>484</v>
-      </c>
-      <c r="G2" s="106" t="s">
-        <v>485</v>
-      </c>
-      <c r="H2" s="106" t="s">
-        <v>486</v>
-      </c>
-      <c r="I2" s="107" t="s">
-        <v>487</v>
-      </c>
-      <c r="J2" s="107" t="s">
-        <v>492</v>
-      </c>
-      <c r="K2" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="L2" s="107" t="s">
-        <v>494</v>
-      </c>
-      <c r="M2" s="106" t="s">
-        <v>495</v>
-      </c>
-      <c r="N2" s="106" t="s">
-        <v>496</v>
-      </c>
-      <c r="O2" s="106" t="s">
-        <v>497</v>
-      </c>
-      <c r="P2" s="106" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q2" s="107" t="s">
-        <v>499</v>
-      </c>
-      <c r="R2" s="107" t="s">
-        <v>500</v>
-      </c>
-      <c r="S2" s="107" t="s">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A3" s="89" t="s">
         <v>501</v>
       </c>
-      <c r="T2" s="107" t="s">
+      <c r="B3" s="89" t="s">
         <v>502</v>
       </c>
-      <c r="U2" s="108" t="s">
+      <c r="C3" s="89" t="s">
         <v>503</v>
       </c>
-      <c r="V2" s="108" t="s">
-        <v>504</v>
-      </c>
-      <c r="W2" s="108" t="s">
-        <v>505</v>
-      </c>
-      <c r="X2" s="108" t="s">
-        <v>506</v>
-      </c>
-      <c r="Y2" s="107" t="s">
+      <c r="D3" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X3" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB3" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A4" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="Z2" s="107" t="s">
+      <c r="D4" s="90" t="s">
         <v>508</v>
       </c>
-      <c r="AA2" s="107" t="s">
+      <c r="E4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U4" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X4" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA4" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB4" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A5" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="C5" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="AB2" s="107" t="s">
+      <c r="D5" s="90" t="s">
         <v>510</v>
       </c>
+      <c r="E5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N5" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O5" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U5" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V5" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W5" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z5" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA5" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB5" s="92" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="109" t="s">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A6" s="89" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="C6" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="D6" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="E6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U6" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V6" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W6" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X6" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA6" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A7" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="B7" s="89" t="s">
+        <v>502</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>515</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O7" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U7" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V7" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W7" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X7" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA7" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB7" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A8" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="D8" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P3" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V3" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W3" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X3" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA3" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB3" s="112" t="s">
+      <c r="E8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V8" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X8" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z8" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="92" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="109" t="s">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A9" s="95" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="95" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>508</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="N9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="P9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="U9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="V9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="W9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="X9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z9" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB9" s="97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A10" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="D10" s="90" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O10" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V10" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X10" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z10" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA10" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB10" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A11" s="89" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11" s="90" t="s">
+        <v>510</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N11" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P11" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="S11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V11" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W11" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="X11" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z11" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA11" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB11" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A12" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="D12" s="90" t="s">
+        <v>510</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O12" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U12" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V12" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA12" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB12" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A13" s="89" t="s">
+        <v>525</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13" s="90" t="s">
+        <v>515</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="N13" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V13" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W13" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA13" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB13" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V14" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="W14" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X14" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA14" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB14" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A15" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q15" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U15" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V15" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="W15" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X15" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA15" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB15" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A16" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>509</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>510</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="R16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V16" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="W16" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z16" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA16" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB16" s="92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A17" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>530</v>
+      </c>
+      <c r="D17" s="90" t="s">
         <v>512</v>
       </c>
-      <c r="C4" s="109" t="s">
-        <v>517</v>
-      </c>
-      <c r="D4" s="110" t="s">
-        <v>518</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U4" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V4" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W4" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X4" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA4" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB4" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="109" t="s">
-        <v>511</v>
-      </c>
-      <c r="B5" s="109" t="s">
-        <v>512</v>
-      </c>
-      <c r="C5" s="109" t="s">
-        <v>519</v>
-      </c>
-      <c r="D5" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P5" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q5" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U5" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V5" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W5" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X5" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z5" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA5" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB5" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="109" t="s">
-        <v>511</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>512</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="110" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I6" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P6" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U6" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V6" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W6" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X6" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA6" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB6" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="109" t="s">
-        <v>523</v>
-      </c>
-      <c r="B7" s="109" t="s">
-        <v>512</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>521</v>
-      </c>
-      <c r="D7" s="110" t="s">
-        <v>525</v>
-      </c>
-      <c r="E7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I7" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J7" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N7" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O7" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P7" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U7" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V7" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W7" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X7" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA7" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB7" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="109" t="s">
-        <v>526</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>513</v>
-      </c>
-      <c r="D8" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I8" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N8" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P8" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q8" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U8" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V8" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X8" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z8" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="115" t="s">
-        <v>526</v>
-      </c>
-      <c r="B9" s="115" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="115" t="s">
-        <v>517</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>518</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="V9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="W9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="X9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z9" s="117" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="118" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB9" s="117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="109" t="s">
-        <v>526</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>521</v>
-      </c>
-      <c r="D10" s="110" t="s">
-        <v>530</v>
-      </c>
-      <c r="E10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O10" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q10" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R10" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U10" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V10" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W10" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X10" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z10" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA10" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB10" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="109" t="s">
-        <v>526</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="109" t="s">
-        <v>519</v>
-      </c>
-      <c r="D11" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="E11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N11" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O11" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P11" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q11" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R11" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="S11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U11" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V11" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W11" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="X11" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z11" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA11" s="119" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB11" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="109" t="s">
-        <v>535</v>
-      </c>
-      <c r="B12" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>519</v>
-      </c>
-      <c r="D12" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="M12" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="N12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O12" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U12" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V12" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X12" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA12" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB12" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="109" t="s">
-        <v>535</v>
-      </c>
-      <c r="B13" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="109" t="s">
-        <v>521</v>
-      </c>
-      <c r="D13" s="110" t="s">
-        <v>525</v>
-      </c>
-      <c r="E13" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F13" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O13" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P13" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="R13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U13" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V13" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W13" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X13" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA13" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB13" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="109" t="s">
-        <v>513</v>
-      </c>
-      <c r="D14" s="110" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P14" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U14" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V14" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="W14" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X14" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA14" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB14" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="109" t="s">
-        <v>517</v>
-      </c>
-      <c r="D15" s="110" t="s">
-        <v>536</v>
-      </c>
-      <c r="E15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I15" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J15" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O15" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P15" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U15" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V15" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="W15" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X15" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA15" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB15" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="109" t="s">
-        <v>519</v>
-      </c>
-      <c r="D16" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="E16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O16" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P16" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="R16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U16" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V16" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="W16" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X16" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z16" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA16" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB16" s="112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="109" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="109" t="s">
-        <v>540</v>
-      </c>
-      <c r="D17" s="110" t="s">
-        <v>522</v>
-      </c>
-      <c r="E17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="M17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="N17" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="O17" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="R17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="T17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="U17" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="V17" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="W17" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="X17" s="113" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA17" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB17" s="112" t="s">
+      <c r="E17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N17" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="V17" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="W17" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB17" s="92" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="B1" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="C1" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="D1" s="96" t="s">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="115" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="117" t="s">
+        <v>465</v>
+      </c>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="112" t="s">
         <v>470</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99" t="s">
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="120" t="s">
+        <v>471</v>
+      </c>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="112" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="114"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="83" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>474</v>
+      </c>
+      <c r="F2" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="101" t="s">
+      <c r="G2" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="104" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="105" t="s">
-        <v>481</v>
-      </c>
-      <c r="U1" s="102"/>
-      <c r="V1" s="102"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="104" t="s">
+      <c r="H2" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="I2" s="87" t="s">
         <v>482</v>
       </c>
-      <c r="Y1" s="102"/>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="103"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="94" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>468</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>469</v>
-      </c>
-      <c r="D2" s="106" t="s">
+      <c r="J2" s="87" t="s">
         <v>483</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="K2" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="F2" s="106" t="s">
+      <c r="L2" s="86" t="s">
         <v>485</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="M2" s="86" t="s">
         <v>486</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="N2" s="86" t="s">
         <v>487</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="O2" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="P2" s="87" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q2" s="87" t="s">
+        <v>490</v>
+      </c>
+      <c r="R2" s="87" t="s">
+        <v>491</v>
+      </c>
+      <c r="S2" s="87" t="s">
         <v>492</v>
       </c>
-      <c r="J2" s="107" t="s">
+      <c r="T2" s="88" t="s">
         <v>493</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="U2" s="88" t="s">
         <v>494</v>
       </c>
-      <c r="L2" s="106" t="s">
+      <c r="V2" s="88" t="s">
         <v>495</v>
       </c>
-      <c r="M2" s="106" t="s">
+      <c r="W2" s="88" t="s">
         <v>496</v>
       </c>
-      <c r="N2" s="106" t="s">
+      <c r="X2" s="87" t="s">
         <v>497</v>
       </c>
-      <c r="O2" s="106" t="s">
+      <c r="Y2" s="87" t="s">
         <v>498</v>
       </c>
-      <c r="P2" s="107" t="s">
+      <c r="Z2" s="87" t="s">
         <v>499</v>
       </c>
-      <c r="Q2" s="107" t="s">
+      <c r="AA2" s="87" t="s">
         <v>500</v>
-      </c>
-      <c r="R2" s="107" t="s">
-        <v>501</v>
-      </c>
-      <c r="S2" s="107" t="s">
-        <v>502</v>
-      </c>
-      <c r="T2" s="108" t="s">
-        <v>503</v>
-      </c>
-      <c r="U2" s="108" t="s">
-        <v>504</v>
-      </c>
-      <c r="V2" s="108" t="s">
-        <v>505</v>
-      </c>
-      <c r="W2" s="108" t="s">
-        <v>506</v>
-      </c>
-      <c r="X2" s="107" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y2" s="107" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z2" s="107" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA2" s="107" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="X1:AA1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium\eclipse_workspace\Automation_local\src\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TagCatagory" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="TestData" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Normal1" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Ecommerce" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Normal" sheetId="5" r:id="rId7"/>
-    <sheet state="visible" name="Login" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="Editorial Roles-OLD" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="Dashboard TODO Editorial Roles" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="Dashboard Programmed Editorial" sheetId="9" r:id="rId11"/>
+    <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
+    <sheet name="TestData" sheetId="2" r:id="rId2"/>
+    <sheet name="Normal1" sheetId="3" r:id="rId3"/>
+    <sheet name="Ecommerce" sheetId="4" r:id="rId4"/>
+    <sheet name="Normal" sheetId="5" r:id="rId5"/>
+    <sheet name="Longform" sheetId="10" r:id="rId6"/>
+    <sheet name="Login" sheetId="6" r:id="rId7"/>
+    <sheet name="Editorial Roles-OLD" sheetId="7" r:id="rId8"/>
+    <sheet name="Dashboard TODO Editorial Roles" sheetId="8" r:id="rId9"/>
+    <sheet name="Dashboard Programmed Editorial" sheetId="9" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2523" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="583">
   <si>
     <t>Table Type</t>
   </si>
@@ -1041,9 +1050,6 @@
     <t>Desarrollo para Startups</t>
   </si>
   <si>
-    <t>https://testing.xataka.com/accesorios/testing-post3-isha-28jan</t>
-  </si>
-  <si>
     <t>wp_posts` table, we have a column `post_subtype` of type `int` (edited</t>
   </si>
   <si>
@@ -1750,168 +1756,229 @@
   </si>
   <si>
     <t>Destacado</t>
+  </si>
+  <si>
+    <t>Test content</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.es1@#@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/azxoVRTwlNg</t>
+  </si>
+  <si>
+    <t>Longform</t>
+  </si>
+  <si>
+    <t>Longform post automation testing</t>
+  </si>
+  <si>
+    <t>China sigue haciendo historia en la exploración.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/embed/Ce7dDso0TfU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="35">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Inherit"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF111111"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF333339"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1919,7 +1986,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2001,14 +2068,23 @@
     </fill>
   </fills>
   <borders count="34">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2017,17 +2093,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2042,8 +2123,10 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2053,6 +2136,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2067,25 +2151,31 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2097,14 +2187,19 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2113,14 +2208,20 @@
       <right style="thick">
         <color rgb="FFCCCCCC"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thick">
         <color rgb="FFE9E9E9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2135,66 +2236,94 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FFE9E9E9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -2204,27 +2333,38 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2239,27 +2379,34 @@
       <bottom style="thick">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -2269,27 +2416,34 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
@@ -2299,6 +2453,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -2310,436 +2465,678 @@
       <top style="thick">
         <color rgb="FFCCCCCC"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="130">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="14" fillId="5" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="20" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="22" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="27" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="11" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="27" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="9" fillId="4" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="30" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="33" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="33" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="33" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="20" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="14" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="6" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AMJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -3785,7 +4182,7 @@
       <c r="AMI1" s="25"/>
       <c r="AMJ1" s="25"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1024">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -3815,7 +4212,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1024">
       <c r="A3" s="9" t="s">
         <v>263</v>
       </c>
@@ -3849,7 +4246,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1024">
       <c r="A4" s="9" t="s">
         <v>277</v>
       </c>
@@ -3881,7 +4278,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1024">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -3909,7 +4306,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1024">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
@@ -3937,7 +4334,7 @@
       </c>
       <c r="L6" s="29"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>322</v>
       </c>
@@ -3953,7 +4350,7 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>333</v>
       </c>
@@ -3969,7 +4366,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>337</v>
       </c>
@@ -3987,433 +4384,433 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="H9" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="B10" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C10" s="47" t="s">
+      <c r="D10" s="77" t="s">
         <v>357</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>358</v>
       </c>
       <c r="E10" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="79" t="s">
-        <v>359</v>
+      <c r="H10" s="78" t="s">
+        <v>358</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="80"/>
+      <c r="L10" s="79"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="47" t="s">
         <v>360</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="C11" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>358</v>
+      <c r="D11" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E11" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="79" t="s">
-        <v>363</v>
+      <c r="H11" s="78" t="s">
+        <v>362</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="80"/>
+      <c r="L11" s="79"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="C12" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="D12" s="11" t="s">
         <v>376</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="79" t="s">
-        <v>378</v>
+      <c r="H12" s="78" t="s">
+        <v>377</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="80"/>
+      <c r="L12" s="79"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>379</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="C13" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>381</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="79" t="s">
-        <v>382</v>
+      <c r="H13" s="78" t="s">
+        <v>381</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="80"/>
+      <c r="L13" s="79"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="C14" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="47" t="s">
         <v>385</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>386</v>
       </c>
       <c r="E14" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="79" t="s">
-        <v>387</v>
+      <c r="H14" s="78" t="s">
+        <v>386</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="80"/>
+      <c r="L14" s="79"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C15" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>389</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>390</v>
       </c>
       <c r="E15" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="79" t="s">
-        <v>391</v>
+      <c r="H15" s="78" t="s">
+        <v>390</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="80"/>
+      <c r="L15" s="79"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="47" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="C16" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="D16" s="47" t="s">
         <v>394</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>395</v>
       </c>
       <c r="E16" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="79" t="s">
-        <v>396</v>
+      <c r="H16" s="78" t="s">
+        <v>395</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="80"/>
+      <c r="L16" s="79"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="47" t="s">
         <v>398</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="D17" s="47" t="s">
         <v>399</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>400</v>
       </c>
       <c r="E17" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="79" t="s">
-        <v>401</v>
+      <c r="H17" s="78" t="s">
+        <v>400</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="80"/>
+      <c r="L17" s="79"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B18" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>403</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="D18" s="11" t="s">
         <v>404</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>405</v>
       </c>
       <c r="E18" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="79" t="s">
-        <v>406</v>
+      <c r="H18" s="78" t="s">
+        <v>405</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="80"/>
+      <c r="L18" s="79"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="D19" s="47" t="s">
         <v>411</v>
-      </c>
-      <c r="D19" s="47" t="s">
-        <v>412</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="79" t="s">
-        <v>413</v>
+      <c r="H19" s="78" t="s">
+        <v>412</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="80"/>
+      <c r="L19" s="79"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" s="47" t="s">
         <v>415</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="C20" s="47" t="s">
         <v>416</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="D20" s="47" t="s">
         <v>417</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>418</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="79" t="s">
-        <v>419</v>
+      <c r="H20" s="78" t="s">
+        <v>418</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="80"/>
+      <c r="L20" s="79"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="C21" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="D21" s="47" t="s">
         <v>422</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>423</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="79" t="s">
-        <v>424</v>
+      <c r="H21" s="78" t="s">
+        <v>423</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="80"/>
+      <c r="L21" s="79"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="47" t="s">
         <v>430</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="C22" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="D22" s="47" t="s">
         <v>432</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>433</v>
       </c>
       <c r="E22" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="79" t="s">
-        <v>434</v>
+      <c r="H22" s="78" t="s">
+        <v>433</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="80"/>
+      <c r="L22" s="79"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>435</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="C23" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="D23" s="78" t="s">
-        <v>358</v>
+      <c r="D23" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E23" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="79" t="s">
-        <v>438</v>
+      <c r="H23" s="78" t="s">
+        <v>437</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="80"/>
+      <c r="L23" s="79"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24" s="47" t="s">
         <v>442</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="C24" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="47" t="s">
         <v>444</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>445</v>
       </c>
       <c r="E24" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="79" t="s">
-        <v>447</v>
+      <c r="H24" s="78" t="s">
+        <v>446</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="80"/>
+      <c r="L24" s="79"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" s="47" t="s">
         <v>451</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="D25" s="78" t="s">
-        <v>358</v>
+      <c r="D25" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="79" t="s">
-        <v>454</v>
+      <c r="H25" s="78" t="s">
+        <v>453</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="80"/>
+      <c r="L25" s="79"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B26" s="47" t="s">
         <v>241</v>
@@ -4421,112 +4818,112 @@
       <c r="C26" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="78" t="s">
-        <v>358</v>
+      <c r="D26" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E26" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="79" t="s">
-        <v>460</v>
+      <c r="H26" s="78" t="s">
+        <v>459</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="80"/>
+      <c r="L26" s="79"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>468</v>
-      </c>
-      <c r="D27" s="78" t="s">
-        <v>358</v>
+      <c r="D27" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E27" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="79" t="s">
-        <v>469</v>
+      <c r="H27" s="78" t="s">
+        <v>468</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="80"/>
+      <c r="L27" s="79"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" s="47" t="s">
         <v>472</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="C28" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="D28" s="47" t="s">
         <v>474</v>
-      </c>
-      <c r="D28" s="47" t="s">
-        <v>475</v>
       </c>
       <c r="E28" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="79" t="s">
-        <v>476</v>
+      <c r="H28" s="78" t="s">
+        <v>475</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="80"/>
+      <c r="L28" s="79"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>485</v>
-      </c>
-      <c r="D29" s="78" t="s">
-        <v>358</v>
+      <c r="D29" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E29" s="52" t="s">
         <v>179</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="95" t="s">
-        <v>479</v>
-      </c>
-      <c r="I29" s="96"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="96"/>
-      <c r="L29" s="97"/>
+      <c r="H29" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B30" s="47" t="s">
         <v>494</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="C30" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="D30" s="78" t="s">
-        <v>358</v>
+      <c r="D30" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E30" s="52" t="s">
         <v>179</v>
@@ -4539,18 +4936,18 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="15.75" customHeight="1">
       <c r="A31" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" s="47" t="s">
         <v>497</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="C31" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D31" s="78" t="s">
-        <v>358</v>
+      <c r="D31" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E31" s="52" t="s">
         <v>179</v>
@@ -4563,18 +4960,18 @@
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="15.75" customHeight="1">
       <c r="A32" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="C32" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="C32" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>358</v>
+      <c r="D32" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E32" s="52" t="s">
         <v>179</v>
@@ -4587,18 +4984,18 @@
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1">
       <c r="A33" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="D33" s="47" t="s">
         <v>505</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>506</v>
       </c>
       <c r="E33" s="52" t="s">
         <v>179</v>
@@ -4611,18 +5008,18 @@
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="15.75" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B34" s="47" t="s">
         <v>507</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="C34" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="C34" s="47" t="s">
-        <v>509</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>358</v>
+      <c r="D34" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E34" s="52" t="s">
         <v>179</v>
@@ -4635,18 +5032,18 @@
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>188</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>511</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>358</v>
+        <v>510</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E35" s="52" t="s">
         <v>179</v>
@@ -4659,18 +5056,18 @@
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" s="47" t="s">
         <v>516</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="C36" s="47" t="s">
         <v>517</v>
       </c>
-      <c r="C36" s="47" t="s">
-        <v>518</v>
-      </c>
       <c r="D36" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>179</v>
@@ -4683,18 +5080,18 @@
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1">
       <c r="A37" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B37" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="47" t="s">
-        <v>522</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>358</v>
+      <c r="D37" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E37" s="52" t="s">
         <v>179</v>
@@ -4707,18 +5104,18 @@
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1">
       <c r="A38" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B38" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="C38" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>526</v>
-      </c>
-      <c r="D38" s="78" t="s">
-        <v>358</v>
+      <c r="D38" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E38" s="52" t="s">
         <v>179</v>
@@ -4731,18 +5128,18 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" s="47" t="s">
         <v>528</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="C39" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="C39" s="47" t="s">
-        <v>530</v>
-      </c>
-      <c r="D39" s="78" t="s">
-        <v>358</v>
+      <c r="D39" s="77" t="s">
+        <v>357</v>
       </c>
       <c r="E39" s="52" t="s">
         <v>179</v>
@@ -4755,20 +5152,20 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B40" s="97" t="s">
         <v>532</v>
       </c>
-      <c r="B40" s="109" t="s">
-        <v>533</v>
-      </c>
-      <c r="C40" s="109" t="s">
-        <v>535</v>
-      </c>
-      <c r="D40" s="111" t="s">
-        <v>358</v>
-      </c>
-      <c r="E40" s="112" t="s">
+      <c r="C40" s="97" t="s">
+        <v>534</v>
+      </c>
+      <c r="D40" s="98" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="99" t="s">
         <v>179</v>
       </c>
       <c r="F40" s="25"/>
@@ -4780,21 +5177,176 @@
       <c r="L40" s="25"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>512</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>513</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D1" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="126" t="s">
+        <v>522</v>
+      </c>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="128" t="s">
+        <v>526</v>
+      </c>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="121" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="129" t="s">
+        <v>533</v>
+      </c>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="123"/>
+      <c r="X1" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="123"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A2" s="94" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>536</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>539</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>540</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>541</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>542</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>543</v>
+      </c>
+      <c r="L2" s="100" t="s">
+        <v>544</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>545</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>546</v>
+      </c>
+      <c r="O2" s="100" t="s">
+        <v>547</v>
+      </c>
+      <c r="P2" s="101" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>549</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>551</v>
+      </c>
+      <c r="T2" s="102" t="s">
+        <v>552</v>
+      </c>
+      <c r="U2" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="V2" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="W2" s="102" t="s">
+        <v>555</v>
+      </c>
+      <c r="X2" s="101" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y2" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="Z2" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="AA2" s="101" t="s">
+        <v>559</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +5390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -4882,7 +5434,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>63</v>
       </c>
@@ -4924,7 +5476,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
@@ -4964,7 +5516,7 @@
       </c>
       <c r="N4" s="18"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -5004,7 +5556,7 @@
       </c>
       <c r="N5" s="18"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>99</v>
       </c>
@@ -5042,7 +5594,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="18"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="20" t="s">
         <v>110</v>
       </c>
@@ -5082,60 +5634,61 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="D2"/>
-    <hyperlink r:id="rId3" ref="E2"/>
-    <hyperlink r:id="rId4" ref="F2"/>
-    <hyperlink r:id="rId5" ref="J2"/>
-    <hyperlink r:id="rId6" ref="K2"/>
-    <hyperlink r:id="rId7" ref="L2"/>
-    <hyperlink r:id="rId8" ref="B3"/>
-    <hyperlink r:id="rId9" ref="C3"/>
-    <hyperlink r:id="rId10" ref="D3"/>
-    <hyperlink r:id="rId11" ref="F3"/>
-    <hyperlink r:id="rId12" ref="J3"/>
-    <hyperlink r:id="rId13" ref="K3"/>
-    <hyperlink r:id="rId14" ref="L3"/>
-    <hyperlink r:id="rId15" ref="C4"/>
-    <hyperlink r:id="rId16" ref="D4"/>
-    <hyperlink r:id="rId17" ref="F4"/>
-    <hyperlink r:id="rId18" ref="J4"/>
-    <hyperlink r:id="rId19" ref="K4"/>
-    <hyperlink r:id="rId20" ref="L4"/>
-    <hyperlink r:id="rId21" ref="C5"/>
-    <hyperlink r:id="rId22" ref="D5"/>
-    <hyperlink r:id="rId23" ref="F5"/>
-    <hyperlink r:id="rId24" ref="J5"/>
-    <hyperlink r:id="rId25" ref="K5"/>
-    <hyperlink r:id="rId26" ref="L5"/>
-    <hyperlink r:id="rId27" ref="C6"/>
-    <hyperlink r:id="rId28" ref="D6"/>
-    <hyperlink r:id="rId29" ref="F6"/>
-    <hyperlink r:id="rId30" ref="J6"/>
-    <hyperlink r:id="rId31" ref="K6"/>
-    <hyperlink r:id="rId32" ref="L6"/>
-    <hyperlink r:id="rId33" ref="C7"/>
-    <hyperlink r:id="rId34" ref="D7"/>
-    <hyperlink r:id="rId35" ref="F7"/>
-    <hyperlink r:id="rId36" ref="J7"/>
-    <hyperlink r:id="rId37" ref="K7"/>
-    <hyperlink r:id="rId38" ref="L7"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
+    <hyperlink ref="K3" r:id="rId13"/>
+    <hyperlink ref="L3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="J4" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="L4" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
+    <hyperlink ref="J5" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId28"/>
+    <hyperlink ref="F6" r:id="rId29"/>
+    <hyperlink ref="J6" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31"/>
+    <hyperlink ref="L6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="D7" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="J7" r:id="rId36"/>
+    <hyperlink ref="K7" r:id="rId37"/>
+    <hyperlink ref="L7" r:id="rId38"/>
   </hyperlinks>
-  <drawing r:id="rId39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CF16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:84" ht="12.75">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -5377,7 +5930,7 @@
       <c r="CE1" s="32"/>
       <c r="CF1" s="32"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:84" ht="12.75">
       <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
@@ -5619,7 +6172,7 @@
       <c r="CE2" s="36"/>
       <c r="CF2" s="36"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:84" ht="12.75">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -5859,7 +6412,7 @@
       <c r="CE3" s="36"/>
       <c r="CF3" s="36"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" spans="1:84" ht="21.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>224</v>
       </c>
@@ -6101,7 +6654,7 @@
       <c r="CE4" s="36"/>
       <c r="CF4" s="36"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:84" ht="12.75">
       <c r="A5" s="33" t="s">
         <v>235</v>
       </c>
@@ -6343,7 +6896,7 @@
       <c r="CE5" s="36"/>
       <c r="CF5" s="36"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:84" ht="12.75">
       <c r="A6" s="41" t="s">
         <v>242</v>
       </c>
@@ -6585,7 +7138,7 @@
       <c r="CE6" s="36"/>
       <c r="CF6" s="36"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:84" ht="12.75">
       <c r="A7" s="41" t="s">
         <v>250</v>
       </c>
@@ -6827,7 +7380,7 @@
       <c r="CE7" s="36"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:84" ht="12.75">
       <c r="A8" s="36" t="s">
         <v>258</v>
       </c>
@@ -7069,7 +7622,7 @@
       <c r="CE8" s="36"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:84" ht="12.75">
       <c r="A9" s="36" t="s">
         <v>273</v>
       </c>
@@ -7311,7 +7864,7 @@
       <c r="CE9" s="36"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:84" ht="12.75">
       <c r="A10" s="36" t="s">
         <v>284</v>
       </c>
@@ -7553,7 +8106,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:84" ht="12.75">
       <c r="A11" s="36" t="s">
         <v>291</v>
       </c>
@@ -7795,7 +8348,7 @@
       <c r="CE11" s="36"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:84" ht="12.75">
       <c r="A12" s="36" t="s">
         <v>309</v>
       </c>
@@ -8037,7 +8590,7 @@
       <c r="CE12" s="36"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:84" ht="12.75">
       <c r="A13" s="33" t="s">
         <v>316</v>
       </c>
@@ -8279,7 +8832,7 @@
       <c r="CE13" s="36"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:84" ht="12.75">
       <c r="A14" s="36" t="s">
         <v>329</v>
       </c>
@@ -8395,49 +8948,49 @@
         <v>335</v>
       </c>
       <c r="AM14" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN14" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="AN14" s="72" t="s">
+      <c r="AO14" s="72" t="s">
         <v>343</v>
       </c>
-      <c r="AO14" s="72" t="s">
+      <c r="AP14" s="72" t="s">
         <v>344</v>
       </c>
-      <c r="AP14" s="72" t="s">
+      <c r="AQ14" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="AQ14" s="42" t="s">
+      <c r="AR14" s="42">
+        <v>2</v>
+      </c>
+      <c r="AS14" s="42">
+        <v>30</v>
+      </c>
+      <c r="AT14" s="42">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="42">
+        <v>20</v>
+      </c>
+      <c r="AV14" s="42">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="42">
+        <v>40</v>
+      </c>
+      <c r="AX14" s="42" t="s">
         <v>346</v>
       </c>
-      <c r="AR14" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="AS14" s="42">
-        <v>30.0</v>
-      </c>
-      <c r="AT14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="AU14" s="42">
-        <v>20.0</v>
-      </c>
-      <c r="AV14" s="42">
-        <v>0.0</v>
-      </c>
-      <c r="AW14" s="42">
-        <v>40.0</v>
-      </c>
-      <c r="AX14" s="42" t="s">
+      <c r="AY14" s="42" t="s">
         <v>347</v>
       </c>
-      <c r="AY14" s="42" t="s">
+      <c r="AZ14" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="AZ14" s="42" t="s">
+      <c r="BA14" s="72" t="s">
         <v>349</v>
-      </c>
-      <c r="BA14" s="72" t="s">
-        <v>350</v>
       </c>
       <c r="BB14" s="72" t="s">
         <v>184</v>
@@ -8461,7 +9014,7 @@
         <v>177</v>
       </c>
       <c r="BI14" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BJ14" s="42" t="s">
         <v>182</v>
@@ -8503,7 +9056,7 @@
         <v>177</v>
       </c>
       <c r="BW14" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BX14" s="36" t="s">
         <v>177</v>
@@ -8521,12 +9074,12 @@
       <c r="CE14" s="36"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:84" ht="12.75">
       <c r="A15" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>353</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>354</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>200</v>
@@ -8717,8 +9270,8 @@
       <c r="BM15" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="BN15" s="74" t="s">
-        <v>355</v>
+      <c r="BN15" s="73" t="s">
+        <v>354</v>
       </c>
       <c r="BO15" s="33" t="s">
         <v>177</v>
@@ -8763,7 +9316,7 @@
       <c r="CE15" s="36"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:84" ht="15">
       <c r="A16" s="60" t="s">
         <v>170</v>
       </c>
@@ -9019,54 +9572,55 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" location="@lounge.jpg" ref="I2"/>
-    <hyperlink r:id="rId3" ref="O2"/>
-    <hyperlink r:id="rId4" ref="Q2"/>
-    <hyperlink r:id="rId5" ref="X2"/>
-    <hyperlink r:id="rId6" ref="AB2"/>
-    <hyperlink r:id="rId7" ref="F3"/>
-    <hyperlink r:id="rId8" ref="X3"/>
-    <hyperlink r:id="rId9" ref="F4"/>
-    <hyperlink r:id="rId10" ref="U4"/>
-    <hyperlink r:id="rId11" ref="F5"/>
-    <hyperlink r:id="rId12" ref="U5"/>
-    <hyperlink r:id="rId13" ref="F9"/>
-    <hyperlink r:id="rId14" ref="F10"/>
-    <hyperlink r:id="rId15" ref="F11"/>
-    <hyperlink r:id="rId16" ref="F12"/>
-    <hyperlink r:id="rId17" ref="F13"/>
-    <hyperlink r:id="rId18" location="@lounge.jpg" ref="I13"/>
-    <hyperlink r:id="rId19" ref="W13"/>
-    <hyperlink r:id="rId20" ref="F14"/>
-    <hyperlink r:id="rId21" ref="X14"/>
-    <hyperlink r:id="rId22" ref="AA14"/>
-    <hyperlink r:id="rId23" ref="AL14"/>
-    <hyperlink r:id="rId24" ref="AN14"/>
-    <hyperlink r:id="rId25" ref="AO14"/>
-    <hyperlink r:id="rId26" ref="AP14"/>
-    <hyperlink r:id="rId27" ref="BA14"/>
-    <hyperlink r:id="rId28" ref="F15"/>
-    <hyperlink r:id="rId29" ref="X15"/>
-    <hyperlink r:id="rId30" location="@lounge.jpg" ref="Q16"/>
-    <hyperlink r:id="rId31" ref="BN16"/>
-    <hyperlink r:id="rId32" ref="BS16"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="X2" r:id="rId5"/>
+    <hyperlink ref="AB2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="X3" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="U4" r:id="rId10"/>
+    <hyperlink ref="F5" r:id="rId11"/>
+    <hyperlink ref="U5" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
+    <hyperlink ref="W13" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="X14" r:id="rId21"/>
+    <hyperlink ref="AA14" r:id="rId22"/>
+    <hyperlink ref="AL14" r:id="rId23"/>
+    <hyperlink ref="AN14" r:id="rId24"/>
+    <hyperlink ref="AO14" r:id="rId25"/>
+    <hyperlink ref="AP14" r:id="rId26"/>
+    <hyperlink ref="BA14" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="X15" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg"/>
+    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;"/>
+    <hyperlink ref="BS16" r:id="rId32"/>
   </hyperlinks>
-  <drawing r:id="rId33"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>18</v>
       </c>
@@ -9196,7 +9750,7 @@
       <c r="BY1" s="7"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:78" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
         <v>202</v>
       </c>
@@ -9326,7 +9880,7 @@
       <c r="BY2" s="36"/>
       <c r="BZ2" s="36"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:78" ht="15.75" customHeight="1">
       <c r="A3" s="34" t="s">
         <v>228</v>
       </c>
@@ -9458,29 +10012,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="F2"/>
-    <hyperlink r:id="rId3" ref="H2"/>
-    <hyperlink r:id="rId4" ref="J2"/>
-    <hyperlink r:id="rId5" ref="K2"/>
-    <hyperlink r:id="rId6" ref="H3"/>
-    <hyperlink r:id="rId7" ref="W3"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="W3" r:id="rId7"/>
   </hyperlinks>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:CH2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="85" max="85" width="27.5703125" customWidth="1"/>
+    <col min="86" max="86" width="35.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:86" ht="63">
       <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
@@ -9740,7 +10301,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:86" ht="15.75" customHeight="1">
       <c r="A2" s="60" t="s">
         <v>170</v>
       </c>
@@ -9748,16 +10309,16 @@
         <v>308</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>312</v>
+        <v>576</v>
       </c>
       <c r="D2" s="63" t="s">
         <v>315</v>
       </c>
       <c r="E2" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>177</v>
+        <v>177</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>578</v>
       </c>
       <c r="G2" s="63" t="s">
         <v>177</v>
@@ -9796,10 +10357,10 @@
         <v>177</v>
       </c>
       <c r="S2" s="65" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="T2" s="65" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U2" s="63" t="s">
         <v>177</v>
@@ -9931,16 +10492,16 @@
         <v>324</v>
       </c>
       <c r="BL2" s="63" t="s">
-        <v>326</v>
+        <v>177</v>
       </c>
       <c r="BM2" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="BN2" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="BO2" s="68" t="s">
-        <v>240</v>
+        <v>177</v>
+      </c>
+      <c r="BN2" s="115" t="s">
+        <v>577</v>
+      </c>
+      <c r="BO2" s="114" t="s">
+        <v>177</v>
       </c>
       <c r="BP2" s="63" t="s">
         <v>177</v>
@@ -9991,122 +10552,406 @@
         <v>179</v>
       </c>
       <c r="CF2" s="71" t="s">
-        <v>336</v>
-      </c>
-      <c r="CG2" s="73" t="s">
-        <v>340</v>
+        <v>177</v>
+      </c>
+      <c r="CG2" s="71" t="s">
+        <v>177</v>
       </c>
       <c r="CH2" s="71" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="@lounge.jpg" ref="Q2"/>
-    <hyperlink r:id="rId2" ref="BN2"/>
-    <hyperlink r:id="rId3" ref="BS2"/>
-    <hyperlink r:id="rId4" ref="CG2"/>
+    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg"/>
+    <hyperlink ref="BS2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="24" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19" customWidth="1"/>
+    <col min="28" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>365</v>
+    <row r="1" spans="1:38" s="117" customFormat="1" ht="45" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF1" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH1" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI1" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK1" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL1" s="56" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="46" t="s">
-        <v>366</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="46" t="s">
-        <v>368</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="B4" s="51">
-        <v>123456.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="46" t="s">
-        <v>372</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>373</v>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="71" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
+    <hyperlink ref="Y2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="51">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>372</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="D1" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="D1" s="118" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -10114,63 +10959,63 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
     </row>
-    <row r="2">
-      <c r="A2" s="81" t="s">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="80" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
+        <v>424</v>
+      </c>
+      <c r="E2" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>428</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>429</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
-      <c r="N2" s="86" t="s">
-        <v>341</v>
+      <c r="N2" s="82" t="s">
+        <v>340</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="86" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="87">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="88" t="s">
+      <c r="C3" s="83">
+        <v>1</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I3" s="25"/>
@@ -10178,33 +11023,33 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="86" t="s">
-        <v>359</v>
+      <c r="N3" s="82" t="s">
+        <v>358</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="86" t="s">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="82" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="87">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="88" t="s">
+      <c r="C4" s="83">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I4" s="25"/>
@@ -10212,33 +11057,33 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="86" t="s">
-        <v>363</v>
+      <c r="N4" s="82" t="s">
+        <v>362</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="86" t="s">
-        <v>441</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>441</v>
-      </c>
-      <c r="C5" s="89">
-        <v>3.0</v>
-      </c>
-      <c r="D5" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="88" t="s">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="85">
+        <v>3</v>
+      </c>
+      <c r="D5" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I5" s="25"/>
@@ -10246,33 +11091,33 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="86" t="s">
-        <v>378</v>
+      <c r="N5" s="82" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="86" t="s">
-        <v>446</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C6" s="87">
-        <v>15.0</v>
-      </c>
-      <c r="D6" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="88" t="s">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="82" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="83">
+        <v>15</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I6" s="25"/>
@@ -10280,33 +11125,33 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="86" t="s">
-        <v>382</v>
+      <c r="N6" s="82" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="86" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" s="86" t="s">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="82" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="87">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="88" t="s">
+      <c r="C7" s="83">
+        <v>5</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I7" s="25"/>
@@ -10314,31 +11159,31 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="86" t="s">
-        <v>387</v>
+      <c r="N7" s="82" t="s">
+        <v>386</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="86" t="s">
-        <v>449</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="88" t="s">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="25"/>
@@ -10346,79 +11191,79 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="86" t="s">
-        <v>391</v>
+      <c r="N8" s="82" t="s">
+        <v>390</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="86" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" s="86" t="s">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="87">
-        <v>4.0</v>
-      </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
+      <c r="C9" s="83">
+        <v>4</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="86" t="s">
-        <v>396</v>
+      <c r="N9" s="82" t="s">
+        <v>395</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="86" t="s">
-        <v>455</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10" s="82" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="86" t="s">
-        <v>401</v>
+      <c r="N10" s="82" t="s">
+        <v>400</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="86" t="s">
-        <v>456</v>
-      </c>
-      <c r="B11" s="86" t="s">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A11" s="82" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="87">
-        <v>17.0</v>
-      </c>
-      <c r="D11" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="88" t="s">
+      <c r="C11" s="83">
+        <v>17</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I11" s="25"/>
@@ -10426,33 +11271,33 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="86" t="s">
-        <v>406</v>
+      <c r="N11" s="82" t="s">
+        <v>405</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="86" t="s">
-        <v>457</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" s="87">
-        <v>18.0</v>
-      </c>
-      <c r="D12" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="88" t="s">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A12" s="82" t="s">
+        <v>456</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="83">
+        <v>18</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I12" s="25"/>
@@ -10460,31 +11305,31 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="86" t="s">
-        <v>413</v>
+      <c r="N12" s="82" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="86" t="s">
-        <v>459</v>
-      </c>
-      <c r="B13" s="86" t="s">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A13" s="82" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="88" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I13" s="25"/>
@@ -10492,31 +11337,31 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="86" t="s">
-        <v>419</v>
+      <c r="N13" s="82" t="s">
+        <v>418</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="86" t="s">
-        <v>461</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>440</v>
-      </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="88" t="s">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A14" s="82" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="82" t="s">
+        <v>439</v>
+      </c>
+      <c r="C14" s="86"/>
+      <c r="D14" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I14" s="25"/>
@@ -10524,33 +11369,33 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="86" t="s">
-        <v>424</v>
+      <c r="N14" s="82" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="86" t="s">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A15" s="82" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="87">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="88" t="s">
+      <c r="C15" s="83">
+        <v>2</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I15" s="25"/>
@@ -10558,51 +11403,51 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="86" t="s">
-        <v>434</v>
+      <c r="N15" s="82" t="s">
+        <v>433</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A16" s="82" t="s">
+        <v>461</v>
+      </c>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="86" t="s">
-        <v>438</v>
+      <c r="N16" s="82" t="s">
+        <v>437</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="86" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17" s="86" t="s">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A17" s="82" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="88" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I17" s="25"/>
@@ -10610,51 +11455,51 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="86" t="s">
-        <v>447</v>
+      <c r="N17" s="82" t="s">
+        <v>446</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="86" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A18" s="82" t="s">
+        <v>463</v>
+      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="86" t="s">
-        <v>454</v>
+      <c r="N18" s="82" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="87">
-        <v>11.0</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="88" t="s">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A19" s="88" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="86"/>
+      <c r="C19" s="83">
+        <v>11</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I19" s="25"/>
@@ -10662,31 +11507,31 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="86" t="s">
-        <v>460</v>
+      <c r="N19" s="82" t="s">
+        <v>459</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="86" t="s">
-        <v>470</v>
-      </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="87">
-        <v>12.0</v>
-      </c>
-      <c r="D20" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="88" t="s">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A20" s="82" t="s">
+        <v>469</v>
+      </c>
+      <c r="B20" s="86"/>
+      <c r="C20" s="83">
+        <v>12</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="25"/>
@@ -10694,53 +11539,53 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="86" t="s">
-        <v>469</v>
+      <c r="N20" s="82" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="86" t="s">
-        <v>471</v>
-      </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A21" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="B21" s="86"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="86" t="s">
+      <c r="N21" s="82" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A22" s="82" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="86" t="s">
+      <c r="B22" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>478</v>
-      </c>
-      <c r="C22" s="87">
-        <v>9.0</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="88" t="s">
+      <c r="C22" s="83">
+        <v>9</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I22" s="25"/>
@@ -10748,31 +11593,31 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="86" t="s">
+      <c r="N22" s="82" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A23" s="82" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="86" t="s">
-        <v>480</v>
-      </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="87">
-        <v>10.0</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="88" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="83">
+        <v>10</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I23" s="25"/>
@@ -10780,27 +11625,27 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="90"/>
+      <c r="N23" s="86"/>
     </row>
-    <row r="24">
-      <c r="A24" s="86" t="s">
-        <v>481</v>
-      </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="88" t="s">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A24" s="82" t="s">
+        <v>480</v>
+      </c>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I24" s="25"/>
@@ -10810,25 +11655,25 @@
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
     </row>
-    <row r="25">
-      <c r="A25" s="86" t="s">
-        <v>482</v>
-      </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="88" t="s">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A25" s="82" t="s">
+        <v>481</v>
+      </c>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I25" s="25"/>
@@ -10838,25 +11683,25 @@
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
     </row>
-    <row r="26">
-      <c r="A26" s="86" t="s">
-        <v>486</v>
-      </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="88" t="s">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A26" s="82" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I26" s="25"/>
@@ -10866,29 +11711,29 @@
       <c r="M26" s="25"/>
       <c r="N26" s="25"/>
     </row>
-    <row r="27">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A27" s="82" t="s">
+        <v>486</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="B27" s="86" t="s">
-        <v>488</v>
-      </c>
-      <c r="C27" s="87">
-        <v>13.0</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="88" t="s">
+      <c r="C27" s="83">
+        <v>13</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I27" s="25"/>
@@ -10898,25 +11743,25 @@
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
     </row>
-    <row r="28">
-      <c r="A28" s="86" t="s">
-        <v>489</v>
-      </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="88" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A28" s="82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I28" s="25"/>
@@ -10926,25 +11771,25 @@
       <c r="M28" s="25"/>
       <c r="N28" s="25"/>
     </row>
-    <row r="29">
-      <c r="A29" s="86" t="s">
-        <v>490</v>
-      </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="88" t="s">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A29" s="82" t="s">
+        <v>489</v>
+      </c>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I29" s="25"/>
@@ -10954,25 +11799,25 @@
       <c r="M29" s="25"/>
       <c r="N29" s="25"/>
     </row>
-    <row r="30">
-      <c r="A30" s="86" t="s">
-        <v>491</v>
-      </c>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="88" t="s">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A30" s="82" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I30" s="25"/>
@@ -10982,25 +11827,25 @@
       <c r="M30" s="25"/>
       <c r="N30" s="25"/>
     </row>
-    <row r="31">
-      <c r="A31" s="86" t="s">
-        <v>492</v>
-      </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="88" t="s">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A31" s="82" t="s">
+        <v>491</v>
+      </c>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="84" t="s">
         <v>198</v>
       </c>
       <c r="I31" s="25"/>
@@ -11010,25 +11855,25 @@
       <c r="M31" s="25"/>
       <c r="N31" s="25"/>
     </row>
-    <row r="32">
-      <c r="A32" s="86" t="s">
-        <v>493</v>
-      </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="88" t="s">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A32" s="82" t="s">
+        <v>492</v>
+      </c>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="84" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="84" t="s">
         <v>179</v>
       </c>
       <c r="I32" s="25"/>
@@ -11042,1606 +11887,1454 @@
   <mergeCells count="1">
     <mergeCell ref="D1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A1" s="94" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="C1" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="99" t="s">
-        <v>515</v>
-      </c>
-      <c r="E1" s="100" t="s">
-        <v>519</v>
-      </c>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103" t="s">
-        <v>523</v>
-      </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="105" t="s">
-        <v>527</v>
-      </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="108" t="s">
-        <v>531</v>
-      </c>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="110" t="s">
-        <v>534</v>
-      </c>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="108" t="s">
+      <c r="E1" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="126" t="s">
+        <v>522</v>
+      </c>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="128" t="s">
+        <v>526</v>
+      </c>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="121" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="123"/>
+      <c r="U1" s="129" t="s">
+        <v>533</v>
+      </c>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="123"/>
+      <c r="Y1" s="121" t="s">
+        <v>535</v>
+      </c>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="123"/>
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="94" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="94" t="s">
+        <v>512</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="100" t="s">
         <v>536</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="107"/>
+      <c r="F2" s="100" t="s">
+        <v>537</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>540</v>
+      </c>
+      <c r="J2" s="101" t="s">
+        <v>541</v>
+      </c>
+      <c r="K2" s="101" t="s">
+        <v>542</v>
+      </c>
+      <c r="L2" s="101" t="s">
+        <v>543</v>
+      </c>
+      <c r="M2" s="100" t="s">
+        <v>544</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>545</v>
+      </c>
+      <c r="O2" s="100" t="s">
+        <v>546</v>
+      </c>
+      <c r="P2" s="100" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>548</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>549</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>550</v>
+      </c>
+      <c r="T2" s="101" t="s">
+        <v>551</v>
+      </c>
+      <c r="U2" s="102" t="s">
+        <v>552</v>
+      </c>
+      <c r="V2" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="W2" s="102" t="s">
+        <v>554</v>
+      </c>
+      <c r="X2" s="102" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y2" s="101" t="s">
+        <v>556</v>
+      </c>
+      <c r="Z2" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="AA2" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="AB2" s="101" t="s">
+        <v>559</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>514</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>515</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>537</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>538</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="H2" s="113" t="s">
-        <v>540</v>
-      </c>
-      <c r="I2" s="114" t="s">
-        <v>541</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>542</v>
-      </c>
-      <c r="K2" s="114" t="s">
-        <v>543</v>
-      </c>
-      <c r="L2" s="114" t="s">
-        <v>544</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>545</v>
-      </c>
-      <c r="N2" s="113" t="s">
-        <v>546</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>547</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q2" s="114" t="s">
-        <v>549</v>
-      </c>
-      <c r="R2" s="114" t="s">
-        <v>550</v>
-      </c>
-      <c r="S2" s="114" t="s">
-        <v>551</v>
-      </c>
-      <c r="T2" s="114" t="s">
-        <v>552</v>
-      </c>
-      <c r="U2" s="115" t="s">
-        <v>553</v>
-      </c>
-      <c r="V2" s="115" t="s">
-        <v>554</v>
-      </c>
-      <c r="W2" s="115" t="s">
-        <v>555</v>
-      </c>
-      <c r="X2" s="115" t="s">
-        <v>556</v>
-      </c>
-      <c r="Y2" s="114" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z2" s="114" t="s">
-        <v>558</v>
-      </c>
-      <c r="AA2" s="114" t="s">
-        <v>559</v>
-      </c>
-      <c r="AB2" s="114" t="s">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A3" s="103" t="s">
         <v>560</v>
       </c>
+      <c r="B3" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="106" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="116" t="s">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A4" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="103" t="s">
         <v>561</v>
       </c>
-      <c r="B3" s="116" t="s">
+      <c r="C4" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A5" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A6" s="103" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>568</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A7" s="103" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A8" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="B8" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="D8" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A9" s="109" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="D3" s="117" t="s">
+      <c r="D9" s="110" t="s">
+        <v>564</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="111" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A10" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R10" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A11" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A12" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="103" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="119" t="s">
+      <c r="C12" s="103" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="M12" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="106" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="116" t="s">
-        <v>561</v>
-      </c>
-      <c r="B4" s="116" t="s">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A13" s="103" t="s">
+        <v>573</v>
+      </c>
+      <c r="B13" s="103" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="103" t="s">
+        <v>567</v>
+      </c>
+      <c r="D13" s="104" t="s">
+        <v>570</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A14" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="117" t="s">
+      <c r="D14" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="W14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X14" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A15" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="103" t="s">
+        <v>563</v>
+      </c>
+      <c r="D15" s="104" t="s">
+        <v>574</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="W15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X15" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A16" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="103" t="s">
         <v>565</v>
       </c>
-      <c r="E4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="119" t="s">
+      <c r="D16" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="W16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="106" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="116" t="s">
-        <v>561</v>
-      </c>
-      <c r="B5" s="116" t="s">
-        <v>562</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>566</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="116" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="116" t="s">
-        <v>562</v>
-      </c>
-      <c r="C6" s="116" t="s">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A17" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="103" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="104" t="s">
         <v>568</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>569</v>
-      </c>
-      <c r="E6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X6" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="116" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" s="116" t="s">
-        <v>562</v>
-      </c>
-      <c r="C7" s="116" t="s">
-        <v>568</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="116" t="s">
-        <v>572</v>
-      </c>
-      <c r="B8" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="116" t="s">
-        <v>563</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="122" t="s">
-        <v>572</v>
-      </c>
-      <c r="B9" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="122" t="s">
-        <v>564</v>
-      </c>
-      <c r="D9" s="123" t="s">
-        <v>565</v>
-      </c>
-      <c r="E9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="124" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="116" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>568</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>573</v>
-      </c>
-      <c r="E10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R10" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="116" t="s">
-        <v>572</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="116" t="s">
-        <v>566</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="126" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="126" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="116" t="s">
-        <v>574</v>
-      </c>
-      <c r="B12" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" s="116" t="s">
-        <v>566</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="M12" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="116" t="s">
-        <v>574</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>568</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>571</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="116" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q14" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="W14" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X14" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="116" t="s">
-        <v>564</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>575</v>
-      </c>
-      <c r="E15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q15" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="W15" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X15" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="116" t="s">
-        <v>566</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="W16" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X16" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="119" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="116" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="116" t="s">
-        <v>576</v>
-      </c>
-      <c r="D17" s="117" t="s">
-        <v>569</v>
-      </c>
-      <c r="E17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="120" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="119" t="s">
+      <c r="E17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="106" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y1:AB1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="U1:X1"/>
-    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="B1" s="98" t="s">
-        <v>514</v>
-      </c>
-      <c r="C1" s="99" t="s">
-        <v>515</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103" t="s">
-        <v>523</v>
-      </c>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105" t="s">
-        <v>527</v>
-      </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="108" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="110" t="s">
-        <v>534</v>
-      </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="108" t="s">
-        <v>536</v>
-      </c>
-      <c r="Y1" s="106"/>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="107"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="98" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" s="99" t="s">
-        <v>515</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>537</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>538</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>539</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>540</v>
-      </c>
-      <c r="H2" s="114" t="s">
-        <v>541</v>
-      </c>
-      <c r="I2" s="114" t="s">
-        <v>542</v>
-      </c>
-      <c r="J2" s="114" t="s">
-        <v>543</v>
-      </c>
-      <c r="K2" s="114" t="s">
-        <v>544</v>
-      </c>
-      <c r="L2" s="113" t="s">
-        <v>545</v>
-      </c>
-      <c r="M2" s="113" t="s">
-        <v>546</v>
-      </c>
-      <c r="N2" s="113" t="s">
-        <v>547</v>
-      </c>
-      <c r="O2" s="113" t="s">
-        <v>548</v>
-      </c>
-      <c r="P2" s="114" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q2" s="114" t="s">
-        <v>550</v>
-      </c>
-      <c r="R2" s="114" t="s">
-        <v>551</v>
-      </c>
-      <c r="S2" s="114" t="s">
-        <v>552</v>
-      </c>
-      <c r="T2" s="115" t="s">
-        <v>553</v>
-      </c>
-      <c r="U2" s="115" t="s">
-        <v>554</v>
-      </c>
-      <c r="V2" s="115" t="s">
-        <v>555</v>
-      </c>
-      <c r="W2" s="115" t="s">
-        <v>556</v>
-      </c>
-      <c r="X2" s="114" t="s">
-        <v>557</v>
-      </c>
-      <c r="Y2" s="114" t="s">
-        <v>558</v>
-      </c>
-      <c r="Z2" s="114" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA2" s="114" t="s">
-        <v>560</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED7A0761-1666-BF43-918A-789AAD3EE9E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B2C0086-0DC6-B248-91EC-5963638E3AFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2842,30 +2842,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2898,6 +2874,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5255,42 +5255,42 @@
       <c r="C1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="126" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
       <c r="G1" s="96"/>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="128" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="119" t="s">
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="130" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="112" t="s">
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="120" t="s">
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="131" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="112" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="114"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="125"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -10999,13 +10999,13 @@
       <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="109" t="s">
+      <c r="D1" s="120" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="122"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -11971,42 +11971,42 @@
       <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="115" t="s">
+      <c r="E1" s="126" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="128" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="119" t="s">
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="130" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="112" t="s">
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="120" t="s">
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="131" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="112" t="s">
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="123" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="114"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="125"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -12095,1290 +12095,1290 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="124" t="s">
+      <c r="E3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="110" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="124" t="s">
+      <c r="E4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="121" t="s">
+      <c r="A5" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="109" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="110" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="124" t="s">
+      <c r="E5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="109" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="109" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="110" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="124" t="s">
+      <c r="E6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="109" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="109" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="110" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="124" t="s">
+      <c r="E7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="109" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="124" t="s">
+      <c r="E8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="115" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="127" t="s">
+      <c r="B9" s="115" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="115" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="116" t="s">
         <v>564</v>
       </c>
-      <c r="E9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="129" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="130" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="129" t="s">
+      <c r="E9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="117" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="109" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="109" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="110" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R10" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="124" t="s">
+      <c r="E10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="109" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="109" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="109" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="110" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="131" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="124" t="s">
+      <c r="E11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="119" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="109" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="109" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="110" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="124" t="s">
+      <c r="E12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="109" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="109" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="122" t="s">
+      <c r="D13" s="110" t="s">
         <v>570</v>
       </c>
-      <c r="E13" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="124" t="s">
+      <c r="E13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="109" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W14" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X14" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="124" t="s">
+      <c r="E14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="121" t="s">
+      <c r="A15" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="109" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="110" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W15" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X15" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="124" t="s">
+      <c r="E15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="121" t="s">
+      <c r="A16" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="109" t="s">
         <v>565</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="110" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="X16" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="124" t="s">
+      <c r="E16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="109" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="110" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="123" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="123" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="125" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="124" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="124" t="s">
+      <c r="E17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="112" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B2C0086-0DC6-B248-91EC-5963638E3AFD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F448820-B788-4A45-9DFF-3FCABAF6A400}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11952,8 +11952,8 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AML-1\git\Automation\Aml_automation\src\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7F448820-B788-4A45-9DFF-3FCABAF6A400}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="599">
   <si>
     <t>Table Type</t>
   </si>
@@ -1784,12 +1783,54 @@
   </si>
   <si>
     <t>En ella encontrarás detalles, ideas y gadgets a partir de 10 euros.</t>
+  </si>
+  <si>
+    <t>Publish_to_homepage_checkbox</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>hookCustomerLogo</t>
+  </si>
+  <si>
+    <t>hookCustomerName</t>
+  </si>
+  <si>
+    <t>hookLogoLink</t>
+  </si>
+  <si>
+    <t>hookTextarea</t>
+  </si>
+  <si>
+    <t>hookImage</t>
+  </si>
+  <si>
+    <t>hookButtonText</t>
+  </si>
+  <si>
+    <t>hooklogo.jpeg</t>
+  </si>
+  <si>
+    <t>El Corte Inglés</t>
+  </si>
+  <si>
+    <t>https://www.elcorteingles.es/deportes</t>
+  </si>
+  <si>
+    <t>Esa opción estaba hasta ahora restringida a gráficas de esta familia, pero NVIDIA ha anunciado en la conferencia</t>
+  </si>
+  <si>
+    <t>Más información</t>
+  </si>
+  <si>
+    <t>hookimage.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="37">
     <font>
       <sz val="10"/>
@@ -2524,7 +2565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2899,6 +2940,21 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3179,7 +3235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3187,7 +3243,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -4235,7 +4291,7 @@
       <c r="AMI1" s="25"/>
       <c r="AMJ1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" ht="16">
+    <row r="2" spans="1:1024">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -4265,7 +4321,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="16">
+    <row r="3" spans="1:1024">
       <c r="A3" s="9" t="s">
         <v>263</v>
       </c>
@@ -4299,7 +4355,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="16">
+    <row r="4" spans="1:1024">
       <c r="A4" s="9" t="s">
         <v>277</v>
       </c>
@@ -4331,7 +4387,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="16">
+    <row r="5" spans="1:1024">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -4359,7 +4415,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:1024" ht="16">
+    <row r="6" spans="1:1024">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
@@ -5181,7 +5237,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="14">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="9" t="s">
         <v>527</v>
       </c>
@@ -5205,7 +5261,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="20" t="s">
         <v>531</v>
       </c>
@@ -5235,7 +5291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5243,7 +5299,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
@@ -5389,7 +5445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5397,7 +5453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5687,51 +5743,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J3" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="L3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D4" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J4" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="K4" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="L4" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="C5" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D5" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F5" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J5" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="K5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="L5" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="C6" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="F6" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="J6" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="K6" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="L6" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="C7" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="J7" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="K7" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="L7" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
+    <hyperlink ref="K3" r:id="rId13"/>
+    <hyperlink ref="L3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="J4" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="L4" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
+    <hyperlink ref="J5" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId28"/>
+    <hyperlink ref="F6" r:id="rId29"/>
+    <hyperlink ref="J6" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31"/>
+    <hyperlink ref="L6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="D7" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="J7" r:id="rId36"/>
+    <hyperlink ref="K7" r:id="rId37"/>
+    <hyperlink ref="L7" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5739,9 +5795,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:84" ht="14">
+    <row r="1" spans="1:84" ht="12.75">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -5983,7 +6039,7 @@
       <c r="CE1" s="32"/>
       <c r="CF1" s="32"/>
     </row>
-    <row r="2" spans="1:84" ht="14">
+    <row r="2" spans="1:84" ht="12.75">
       <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
@@ -6225,7 +6281,7 @@
       <c r="CE2" s="36"/>
       <c r="CF2" s="36"/>
     </row>
-    <row r="3" spans="1:84" ht="14">
+    <row r="3" spans="1:84" ht="12.75">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -6707,7 +6763,7 @@
       <c r="CE4" s="36"/>
       <c r="CF4" s="36"/>
     </row>
-    <row r="5" spans="1:84" ht="14">
+    <row r="5" spans="1:84" ht="12.75">
       <c r="A5" s="33" t="s">
         <v>235</v>
       </c>
@@ -6949,7 +7005,7 @@
       <c r="CE5" s="36"/>
       <c r="CF5" s="36"/>
     </row>
-    <row r="6" spans="1:84" ht="14">
+    <row r="6" spans="1:84" ht="12.75">
       <c r="A6" s="41" t="s">
         <v>242</v>
       </c>
@@ -7191,7 +7247,7 @@
       <c r="CE6" s="36"/>
       <c r="CF6" s="36"/>
     </row>
-    <row r="7" spans="1:84" ht="14">
+    <row r="7" spans="1:84" ht="12.75">
       <c r="A7" s="41" t="s">
         <v>250</v>
       </c>
@@ -7433,7 +7489,7 @@
       <c r="CE7" s="36"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" ht="14">
+    <row r="8" spans="1:84" ht="12.75">
       <c r="A8" s="36" t="s">
         <v>258</v>
       </c>
@@ -7675,7 +7731,7 @@
       <c r="CE8" s="36"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="14">
+    <row r="9" spans="1:84" ht="12.75">
       <c r="A9" s="36" t="s">
         <v>273</v>
       </c>
@@ -7917,7 +7973,7 @@
       <c r="CE9" s="36"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="14">
+    <row r="10" spans="1:84" ht="12.75">
       <c r="A10" s="36" t="s">
         <v>284</v>
       </c>
@@ -8159,7 +8215,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="14">
+    <row r="11" spans="1:84" ht="12.75">
       <c r="A11" s="36" t="s">
         <v>291</v>
       </c>
@@ -8401,7 +8457,7 @@
       <c r="CE11" s="36"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="14">
+    <row r="12" spans="1:84" ht="12.75">
       <c r="A12" s="36" t="s">
         <v>309</v>
       </c>
@@ -8643,7 +8699,7 @@
       <c r="CE12" s="36"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13" spans="1:84" ht="14">
+    <row r="13" spans="1:84" ht="12.75">
       <c r="A13" s="33" t="s">
         <v>316</v>
       </c>
@@ -8885,7 +8941,7 @@
       <c r="CE13" s="36"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="14">
+    <row r="14" spans="1:84" ht="12.75">
       <c r="A14" s="36" t="s">
         <v>329</v>
       </c>
@@ -9127,7 +9183,7 @@
       <c r="CE14" s="36"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="14">
+    <row r="15" spans="1:84" ht="12.75">
       <c r="A15" s="33" t="s">
         <v>352</v>
       </c>
@@ -9369,7 +9425,7 @@
       <c r="CE15" s="36"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="16">
+    <row r="16" spans="1:84" ht="15">
       <c r="A16" s="60" t="s">
         <v>170</v>
       </c>
@@ -9625,45 +9681,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="AB2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="X3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="F10" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="W13" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="X14" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="AA14" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="AL14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="AN14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="AO14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="AP14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="BA14" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="X15" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="BS16" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="X2" r:id="rId5"/>
+    <hyperlink ref="AB2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="X3" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="U4" r:id="rId10"/>
+    <hyperlink ref="F5" r:id="rId11"/>
+    <hyperlink ref="U5" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
+    <hyperlink ref="W13" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="X14" r:id="rId21"/>
+    <hyperlink ref="AA14" r:id="rId22"/>
+    <hyperlink ref="AL14" r:id="rId23"/>
+    <hyperlink ref="AN14" r:id="rId24"/>
+    <hyperlink ref="AO14" r:id="rId25"/>
+    <hyperlink ref="AP14" r:id="rId26"/>
+    <hyperlink ref="BA14" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="X15" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg"/>
+    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;"/>
+    <hyperlink ref="BS16" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9671,7 +9727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
@@ -10065,36 +10121,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="W3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CH2"/>
+  <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+      <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="85" max="85" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="64">
+    <row r="1" spans="1:94" ht="63">
       <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
@@ -10353,8 +10409,32 @@
       <c r="CH1" s="58" t="s">
         <v>306</v>
       </c>
+      <c r="CI1" s="132" t="s">
+        <v>585</v>
+      </c>
+      <c r="CJ1" s="132" t="s">
+        <v>586</v>
+      </c>
+      <c r="CK1" s="55" t="s">
+        <v>587</v>
+      </c>
+      <c r="CL1" s="55" t="s">
+        <v>588</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>589</v>
+      </c>
+      <c r="CN1" s="55" t="s">
+        <v>590</v>
+      </c>
+      <c r="CO1" s="55" t="s">
+        <v>591</v>
+      </c>
+      <c r="CP1" s="55" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" ht="15.75" customHeight="1">
+    <row r="2" spans="1:94" ht="15.75" customHeight="1">
       <c r="A2" s="60" t="s">
         <v>170</v>
       </c>
@@ -10612,58 +10692,83 @@
       </c>
       <c r="CH2" s="71" t="s">
         <v>177</v>
+      </c>
+      <c r="CI2" s="133" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="133" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="134" t="s">
+        <v>593</v>
+      </c>
+      <c r="CL2" s="133" t="s">
+        <v>594</v>
+      </c>
+      <c r="CM2" s="135" t="s">
+        <v>595</v>
+      </c>
+      <c r="CN2" s="136" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO2" s="134" t="s">
+        <v>598</v>
+      </c>
+      <c r="CP2" s="134" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="BS2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg"/>
+    <hyperlink ref="BS2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="CM2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="24" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="19" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="14" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="106" customFormat="1" ht="45" customHeight="1">
@@ -10900,8 +11005,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="Y2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10909,7 +11014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10917,7 +11022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="51" t="s">
@@ -10969,17 +11074,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10987,7 +11092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="80" t="s">
@@ -11946,17 +12051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="600">
   <si>
     <t>Table Type</t>
   </si>
@@ -1825,6 +1825,9 @@
   </si>
   <si>
     <t>hookimage.jpeg</t>
+  </si>
+  <si>
+    <t>7@##@No parece importar mucho que ferias como el CES 2017 hayan sido.@##@testing worst input ficha testing ficha testing ficha.@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el supuesto nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
   </si>
 </sst>
 </file>
@@ -2881,7 +2884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2916,6 +2918,21 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2940,20 +2957,8 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5311,42 +5316,42 @@
       <c r="C1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="130" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="96"/>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="130" t="s">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="123" t="s">
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="125"/>
-      <c r="T1" s="131" t="s">
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="125"/>
-      <c r="X1" s="123" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="127" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="125"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="129"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -10140,7 +10145,7 @@
   </sheetPr>
   <dimension ref="A1:CP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
+    <sheetView topLeftCell="CA1" workbookViewId="0">
       <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
@@ -10409,10 +10414,10 @@
       <c r="CH1" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="CI1" s="132" t="s">
+      <c r="CI1" s="119" t="s">
         <v>585</v>
       </c>
-      <c r="CJ1" s="132" t="s">
+      <c r="CJ1" s="119" t="s">
         <v>586</v>
       </c>
       <c r="CK1" s="55" t="s">
@@ -10693,28 +10698,28 @@
       <c r="CH2" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="CI2" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="133" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="134" t="s">
+      <c r="CI2" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="121" t="s">
         <v>593</v>
       </c>
-      <c r="CL2" s="133" t="s">
+      <c r="CL2" s="120" t="s">
         <v>594</v>
       </c>
-      <c r="CM2" s="135" t="s">
+      <c r="CM2" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="CN2" s="136" t="s">
+      <c r="CN2" s="123" t="s">
         <v>596</v>
       </c>
-      <c r="CO2" s="134" t="s">
+      <c r="CO2" s="121" t="s">
         <v>598</v>
       </c>
-      <c r="CP2" s="134" t="s">
+      <c r="CP2" s="121" t="s">
         <v>597</v>
       </c>
     </row>
@@ -10733,8 +10738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -10906,17 +10911,17 @@
       <c r="F2" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="107" t="s">
         <v>584</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>583</v>
       </c>
-      <c r="I2" s="107" t="s">
+      <c r="I2" s="136" t="s">
         <v>581</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>177</v>
+        <v>599</v>
       </c>
       <c r="K2" s="63" t="s">
         <v>177</v>
@@ -11104,13 +11109,13 @@
       <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="124" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -12076,42 +12081,42 @@
       <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="130" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="130" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="123" t="s">
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="125"/>
-      <c r="U1" s="131" t="s">
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="125"/>
-      <c r="Y1" s="123" t="s">
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="127" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="125"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -12200,1290 +12205,1290 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="112" t="s">
+      <c r="E3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="108" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="112" t="s">
+      <c r="E4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="112" t="s">
+      <c r="E5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="112" t="s">
+      <c r="E6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="108" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="112" t="s">
+      <c r="E7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="112" t="s">
+      <c r="E8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="114" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="114" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="115" t="s">
         <v>564</v>
       </c>
-      <c r="E9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="117" t="s">
+      <c r="E9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="116" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="109" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="112" t="s">
+      <c r="E10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="109" t="s">
+      <c r="B11" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="119" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="112" t="s">
+      <c r="E11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="109" t="s">
+      <c r="B12" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="112" t="s">
+      <c r="E12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="109" t="s">
+      <c r="A13" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="E13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="112" t="s">
+      <c r="E13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="109" t="s">
+      <c r="A14" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W14" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X14" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="112" t="s">
+      <c r="E14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="108" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W15" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X15" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="112" t="s">
+      <c r="E15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="X16" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="112" t="s">
+      <c r="E16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="109" t="s">
+      <c r="B17" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="108" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="109" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="112" t="s">
+      <c r="E17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="111" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AML-1\git\Automation\Aml_automation\src\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F02FBD5-B531-974D-AC37-801D930BCBF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="619">
   <si>
     <t>Table Type</t>
   </si>
@@ -1767,24 +1768,6 @@
     <t>https://www.youtube.com/embed/azxoVRTwlNg</t>
   </si>
   <si>
-    <t>Longform</t>
-  </si>
-  <si>
-    <t>Longform post automation testing</t>
-  </si>
-  <si>
-    <t>Ficha_tecnica_title@@#@@Version2.21@@#@@https://i.blogs.es/9a59f8/samsung-nand/650_1200.jpg@@#@@https://i.blogs.es/9c2494/mi-mix/650_1200.jpg@@#@@Text11@#@Some text11@#@https://www.gmail.com@&amp;@Text22@#@Some text22@#@https://yahoo.com@&amp;@Text33@#@Some text33@#@www.google.com@&amp;@Text44@#@Some Text44@#@https://www.yahoo.com@&amp;@Text55@#@Some text55@#@http://www.outlook.com@@#@@Other details</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>fullscreen</t>
-  </si>
-  <si>
-    <t>En ella encontrarás detalles, ideas y gadgets a partir de 10 euros.</t>
-  </si>
-  <si>
     <t>Publish_to_homepage_checkbox</t>
   </si>
   <si>
@@ -1827,14 +1810,89 @@
     <t>hookimage.jpeg</t>
   </si>
   <si>
-    <t>7@##@No parece importar mucho que ferias como el CES 2017 hayan sido.@##@testing worst input ficha testing ficha testing ficha.@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el supuesto nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>imageLayout</t>
+  </si>
+  <si>
+    <t>video_layout</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>rich_alternativo</t>
+  </si>
+  <si>
+    <t>rich_text</t>
+  </si>
+  <si>
+    <t>rich_url</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Contenido_Patrocinado</t>
+  </si>
+  <si>
+    <t>brand alfa</t>
+  </si>
+  <si>
+    <t>Isha alfa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p6LcnmsVhc0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kj1HCbm6fp4</t>
+  </si>
+  <si>
+    <t>Testng</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/BWxoQQGIJQW</t>
+  </si>
+  <si>
+    <t>https://infogr.am/be7b47aa-3d58-44da-a246-c015889c0459</t>
+  </si>
+  <si>
+    <t>grande</t>
+  </si>
+  <si>
+    <t>vidaextra</t>
+  </si>
+  <si>
+    <t>https://testing.xataka.com/seleccion/isha-normal-post-1</t>
+  </si>
+  <si>
+    <t>imagen alternativa</t>
+  </si>
+  <si>
+    <t>testing testing</t>
+  </si>
+  <si>
+    <t>https://i.blogs.es/de2d90/steam-link/1366_2000.jpg</t>
+  </si>
+  <si>
+    <t>Espacio Alcatel</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/marcvidal/status/963332880972775424</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2064,16 +2122,29 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="21"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Charter"/>
-      <family val="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2568,7 +2639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2878,13 +2949,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2957,9 +3024,13 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3240,7 +3311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3248,7 +3319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -4296,7 +4367,7 @@
       <c r="AMI1" s="25"/>
       <c r="AMJ1" s="25"/>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" ht="16">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -4326,7 +4397,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" ht="16">
       <c r="A3" s="9" t="s">
         <v>263</v>
       </c>
@@ -4360,7 +4431,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" ht="16">
       <c r="A4" s="9" t="s">
         <v>277</v>
       </c>
@@ -4392,7 +4463,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1024" ht="16">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -4420,7 +4491,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" ht="16">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
@@ -5242,7 +5313,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="14">
       <c r="A39" s="9" t="s">
         <v>527</v>
       </c>
@@ -5266,7 +5337,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="14">
       <c r="A40" s="20" t="s">
         <v>531</v>
       </c>
@@ -5296,7 +5367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5304,7 +5375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
@@ -5316,42 +5387,42 @@
       <c r="C1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="128" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
       <c r="G1" s="96"/>
-      <c r="H1" s="132" t="s">
+      <c r="H1" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134" t="s">
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="127" t="s">
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135" t="s">
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="133" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="127" t="s">
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="125" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="129"/>
+      <c r="Y1" s="126"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="127"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -5450,7 +5521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5458,7 +5529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5748,51 +5819,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5"/>
-    <hyperlink ref="K2" r:id="rId6"/>
-    <hyperlink ref="L2" r:id="rId7"/>
-    <hyperlink ref="B3" r:id="rId8"/>
-    <hyperlink ref="C3" r:id="rId9"/>
-    <hyperlink ref="D3" r:id="rId10"/>
-    <hyperlink ref="F3" r:id="rId11"/>
-    <hyperlink ref="J3" r:id="rId12"/>
-    <hyperlink ref="K3" r:id="rId13"/>
-    <hyperlink ref="L3" r:id="rId14"/>
-    <hyperlink ref="C4" r:id="rId15"/>
-    <hyperlink ref="D4" r:id="rId16"/>
-    <hyperlink ref="F4" r:id="rId17"/>
-    <hyperlink ref="J4" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="L4" r:id="rId20"/>
-    <hyperlink ref="C5" r:id="rId21"/>
-    <hyperlink ref="D5" r:id="rId22"/>
-    <hyperlink ref="F5" r:id="rId23"/>
-    <hyperlink ref="J5" r:id="rId24"/>
-    <hyperlink ref="K5" r:id="rId25"/>
-    <hyperlink ref="L5" r:id="rId26"/>
-    <hyperlink ref="C6" r:id="rId27"/>
-    <hyperlink ref="D6" r:id="rId28"/>
-    <hyperlink ref="F6" r:id="rId29"/>
-    <hyperlink ref="J6" r:id="rId30"/>
-    <hyperlink ref="K6" r:id="rId31"/>
-    <hyperlink ref="L6" r:id="rId32"/>
-    <hyperlink ref="C7" r:id="rId33"/>
-    <hyperlink ref="D7" r:id="rId34"/>
-    <hyperlink ref="F7" r:id="rId35"/>
-    <hyperlink ref="J7" r:id="rId36"/>
-    <hyperlink ref="K7" r:id="rId37"/>
-    <hyperlink ref="L7" r:id="rId38"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="L2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J3" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="K3" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="L3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J4" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K4" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="L4" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D5" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F5" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J5" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="L5" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C6" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="F6" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="K6" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="L6" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C7" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J7" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="K7" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="L7" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5800,9 +5871,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:84" ht="12.75">
+    <row r="1" spans="1:84" ht="14">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -6044,7 +6115,7 @@
       <c r="CE1" s="32"/>
       <c r="CF1" s="32"/>
     </row>
-    <row r="2" spans="1:84" ht="12.75">
+    <row r="2" spans="1:84" ht="14">
       <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
@@ -6286,7 +6357,7 @@
       <c r="CE2" s="36"/>
       <c r="CF2" s="36"/>
     </row>
-    <row r="3" spans="1:84" ht="12.75">
+    <row r="3" spans="1:84" ht="14">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -6768,7 +6839,7 @@
       <c r="CE4" s="36"/>
       <c r="CF4" s="36"/>
     </row>
-    <row r="5" spans="1:84" ht="12.75">
+    <row r="5" spans="1:84" ht="14">
       <c r="A5" s="33" t="s">
         <v>235</v>
       </c>
@@ -7010,7 +7081,7 @@
       <c r="CE5" s="36"/>
       <c r="CF5" s="36"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75">
+    <row r="6" spans="1:84" ht="14">
       <c r="A6" s="41" t="s">
         <v>242</v>
       </c>
@@ -7252,7 +7323,7 @@
       <c r="CE6" s="36"/>
       <c r="CF6" s="36"/>
     </row>
-    <row r="7" spans="1:84" ht="12.75">
+    <row r="7" spans="1:84" ht="14">
       <c r="A7" s="41" t="s">
         <v>250</v>
       </c>
@@ -7494,7 +7565,7 @@
       <c r="CE7" s="36"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" ht="12.75">
+    <row r="8" spans="1:84" ht="14">
       <c r="A8" s="36" t="s">
         <v>258</v>
       </c>
@@ -7736,7 +7807,7 @@
       <c r="CE8" s="36"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="12.75">
+    <row r="9" spans="1:84" ht="14">
       <c r="A9" s="36" t="s">
         <v>273</v>
       </c>
@@ -7978,7 +8049,7 @@
       <c r="CE9" s="36"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="12.75">
+    <row r="10" spans="1:84" ht="14">
       <c r="A10" s="36" t="s">
         <v>284</v>
       </c>
@@ -8220,7 +8291,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="12.75">
+    <row r="11" spans="1:84" ht="14">
       <c r="A11" s="36" t="s">
         <v>291</v>
       </c>
@@ -8462,7 +8533,7 @@
       <c r="CE11" s="36"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="12.75">
+    <row r="12" spans="1:84" ht="14">
       <c r="A12" s="36" t="s">
         <v>309</v>
       </c>
@@ -8704,7 +8775,7 @@
       <c r="CE12" s="36"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13" spans="1:84" ht="12.75">
+    <row r="13" spans="1:84" ht="14">
       <c r="A13" s="33" t="s">
         <v>316</v>
       </c>
@@ -8946,7 +9017,7 @@
       <c r="CE13" s="36"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="12.75">
+    <row r="14" spans="1:84" ht="14">
       <c r="A14" s="36" t="s">
         <v>329</v>
       </c>
@@ -9188,7 +9259,7 @@
       <c r="CE14" s="36"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="12.75">
+    <row r="15" spans="1:84" ht="14">
       <c r="A15" s="33" t="s">
         <v>352</v>
       </c>
@@ -9430,7 +9501,7 @@
       <c r="CE15" s="36"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="15">
+    <row r="16" spans="1:84" ht="16">
       <c r="A16" s="60" t="s">
         <v>170</v>
       </c>
@@ -9686,45 +9757,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
-    <hyperlink ref="O2" r:id="rId3"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
-    <hyperlink ref="X2" r:id="rId5"/>
-    <hyperlink ref="AB2" r:id="rId6"/>
-    <hyperlink ref="F3" r:id="rId7"/>
-    <hyperlink ref="X3" r:id="rId8"/>
-    <hyperlink ref="F4" r:id="rId9"/>
-    <hyperlink ref="U4" r:id="rId10"/>
-    <hyperlink ref="F5" r:id="rId11"/>
-    <hyperlink ref="U5" r:id="rId12"/>
-    <hyperlink ref="F9" r:id="rId13"/>
-    <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
-    <hyperlink ref="F12" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
-    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
-    <hyperlink ref="W13" r:id="rId19"/>
-    <hyperlink ref="F14" r:id="rId20"/>
-    <hyperlink ref="X14" r:id="rId21"/>
-    <hyperlink ref="AA14" r:id="rId22"/>
-    <hyperlink ref="AL14" r:id="rId23"/>
-    <hyperlink ref="AN14" r:id="rId24"/>
-    <hyperlink ref="AO14" r:id="rId25"/>
-    <hyperlink ref="AP14" r:id="rId26"/>
-    <hyperlink ref="BA14" r:id="rId27"/>
-    <hyperlink ref="F15" r:id="rId28"/>
-    <hyperlink ref="X15" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg"/>
-    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;"/>
-    <hyperlink ref="BS16" r:id="rId32"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="AB2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="X3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F11" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="W13" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="X14" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="AA14" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="AL14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="AN14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="AO14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="AP14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="BA14" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="X15" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="BS16" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9732,7 +9803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
@@ -10126,20 +10197,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="K2" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
-    <hyperlink ref="W3" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10149,13 +10220,13 @@
       <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="85" max="85" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="63">
+    <row r="1" spans="1:94" ht="64">
       <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
@@ -10414,29 +10485,29 @@
       <c r="CH1" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="CI1" s="119" t="s">
+      <c r="CI1" s="117" t="s">
+        <v>579</v>
+      </c>
+      <c r="CJ1" s="117" t="s">
+        <v>580</v>
+      </c>
+      <c r="CK1" s="55" t="s">
+        <v>581</v>
+      </c>
+      <c r="CL1" s="55" t="s">
+        <v>582</v>
+      </c>
+      <c r="CM1" s="55" t="s">
+        <v>583</v>
+      </c>
+      <c r="CN1" s="55" t="s">
+        <v>584</v>
+      </c>
+      <c r="CO1" s="55" t="s">
         <v>585</v>
       </c>
-      <c r="CJ1" s="119" t="s">
+      <c r="CP1" s="55" t="s">
         <v>586</v>
-      </c>
-      <c r="CK1" s="55" t="s">
-        <v>587</v>
-      </c>
-      <c r="CL1" s="55" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM1" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="CN1" s="55" t="s">
-        <v>590</v>
-      </c>
-      <c r="CO1" s="55" t="s">
-        <v>591</v>
-      </c>
-      <c r="CP1" s="55" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:94" ht="15.75" customHeight="1">
@@ -10698,328 +10769,636 @@
       <c r="CH2" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="CI2" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="121" t="s">
-        <v>593</v>
-      </c>
-      <c r="CL2" s="120" t="s">
-        <v>594</v>
-      </c>
-      <c r="CM2" s="122" t="s">
-        <v>595</v>
-      </c>
-      <c r="CN2" s="123" t="s">
-        <v>596</v>
-      </c>
-      <c r="CO2" s="121" t="s">
-        <v>598</v>
-      </c>
-      <c r="CP2" s="121" t="s">
-        <v>597</v>
+      <c r="CI2" s="118" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="119" t="s">
+        <v>587</v>
+      </c>
+      <c r="CL2" s="118" t="s">
+        <v>588</v>
+      </c>
+      <c r="CM2" s="120" t="s">
+        <v>589</v>
+      </c>
+      <c r="CN2" s="121" t="s">
+        <v>590</v>
+      </c>
+      <c r="CO2" s="119" t="s">
+        <v>592</v>
+      </c>
+      <c r="CP2" s="119" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg"/>
-    <hyperlink ref="BS2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="CM2" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="BS2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="CM2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:CL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.33203125" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="24" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="19" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="14" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="106" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:90" s="105" customFormat="1" ht="45" customHeight="1">
+      <c r="A1" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="134" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="134" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="134" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="134" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="134" t="s">
+        <v>449</v>
+      </c>
+      <c r="H1" s="134" t="s">
+        <v>596</v>
+      </c>
+      <c r="I1" s="134" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="134" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="134" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="134" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="134" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="134" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="R1" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="S1" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="U1" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="V1" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="W1" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="X1" s="134" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="Y1" s="134" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z1" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="AA1" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="AB1" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="AC1" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="AD1" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="AE1" s="134" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="AF1" s="134" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="AG1" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="AH1" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="AI1" s="134" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ1" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK1" s="134" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL1" s="134" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM1" s="134" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN1" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO1" s="134" t="s">
+        <v>136</v>
+      </c>
+      <c r="AP1" s="134" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ1" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR1" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS1" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT1" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU1" s="134" t="s">
+        <v>142</v>
+      </c>
+      <c r="AV1" s="134" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW1" s="134" t="s">
+        <v>144</v>
+      </c>
+      <c r="AX1" s="134" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY1" s="134" t="s">
+        <v>146</v>
+      </c>
+      <c r="AZ1" s="134" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA1" s="134" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB1" s="134" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC1" s="134" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD1" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE1" s="134" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF1" s="134" t="s">
+        <v>153</v>
+      </c>
+      <c r="BG1" s="134" t="s">
+        <v>154</v>
+      </c>
+      <c r="BH1" s="134" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI1" s="134" t="s">
+        <v>293</v>
+      </c>
+      <c r="BJ1" s="134" t="s">
+        <v>294</v>
+      </c>
+      <c r="BK1" s="134" t="s">
+        <v>295</v>
+      </c>
+      <c r="BL1" s="134" t="s">
+        <v>296</v>
+      </c>
+      <c r="BM1" s="134" t="s">
+        <v>297</v>
+      </c>
+      <c r="BN1" s="134" t="s">
+        <v>298</v>
+      </c>
+      <c r="BO1" s="134" t="s">
+        <v>305</v>
+      </c>
+      <c r="BP1" s="134" t="s">
+        <v>306</v>
+      </c>
+      <c r="BQ1" s="134" t="s">
+        <v>598</v>
+      </c>
+      <c r="BR1" s="134" t="s">
+        <v>599</v>
+      </c>
+      <c r="BS1" s="134" t="s">
+        <v>600</v>
+      </c>
+      <c r="BT1" s="134" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="BU1" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="BV1" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="BW1" s="134" t="s">
+        <v>601</v>
+      </c>
+      <c r="BX1" s="134" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="BY1" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="BZ1" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="CA1" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="CB1" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="CC1" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="CD1" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="AF1" s="56" t="s">
+      <c r="CE1" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" s="56" t="s">
+      <c r="CF1" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="AH1" s="56" t="s">
+      <c r="CG1" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="AI1" s="56" t="s">
+      <c r="CH1" s="134" t="s">
+        <v>602</v>
+      </c>
+      <c r="CI1" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="AJ1" s="56" t="s">
+      <c r="CJ1" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="AK1" s="56" t="s">
+      <c r="CK1" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="AL1" s="56" t="s">
+      <c r="CL1" s="134" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="107" t="s">
-        <v>584</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>583</v>
+    <row r="2" spans="1:90" ht="15.75" customHeight="1">
+      <c r="A2" s="135" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="137" t="s">
+        <v>606</v>
+      </c>
+      <c r="H2" s="137" t="s">
+        <v>177</v>
       </c>
       <c r="I2" s="136" t="s">
-        <v>581</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>599</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="V2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="136" t="s">
+        <v>607</v>
+      </c>
+      <c r="R2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="V2" s="137" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="136" t="s">
+        <v>608</v>
+      </c>
+      <c r="Z2" s="138" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA2" s="136" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN2" s="136" t="s">
+        <v>611</v>
+      </c>
+      <c r="BO2" s="137" t="s">
+        <v>612</v>
+      </c>
+      <c r="BP2" s="136" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ2" s="139" t="s">
+        <v>613</v>
+      </c>
+      <c r="BR2" s="136" t="s">
+        <v>614</v>
+      </c>
+      <c r="BS2" s="137" t="s">
+        <v>615</v>
+      </c>
+      <c r="BT2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV2" s="140" t="s">
+        <v>616</v>
+      </c>
+      <c r="BW2" s="136" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF2" s="138" t="s">
+        <v>618</v>
+      </c>
+      <c r="CG2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="136" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="CL2" s="136" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11027,7 +11406,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="51" t="s">
@@ -11079,17 +11458,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11097,7 +11476,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="80" t="s">
@@ -11109,13 +11488,13 @@
       <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="122" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -12056,7 +12435,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12066,7 +12445,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
@@ -12081,42 +12460,42 @@
       <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="128" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="132" t="s">
+      <c r="I1" s="130" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134" t="s">
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="127" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="125" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="135" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="133" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="127" t="s">
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="125" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129"/>
+      <c r="Z1" s="126"/>
+      <c r="AA1" s="126"/>
+      <c r="AB1" s="127"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -12205,1290 +12584,1290 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="111" t="s">
+      <c r="E3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="106" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="107" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="111" t="s">
+      <c r="E4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="111" t="s">
+      <c r="E5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="106" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="106" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="107" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="111" t="s">
+      <c r="E6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="106" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="106" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="106" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="107" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="111" t="s">
+      <c r="E7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="106" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="111" t="s">
+      <c r="E8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="112" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="112" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="112" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="113" t="s">
         <v>564</v>
       </c>
-      <c r="E9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="116" t="s">
+      <c r="E9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="115" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="114" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="106" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="106" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="107" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="111" t="s">
+      <c r="E10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="106" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="111" t="s">
+      <c r="E11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="116" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="106" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="111" t="s">
+      <c r="E12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="106" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="106" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="107" t="s">
         <v>570</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="111" t="s">
+      <c r="E13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="106" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="111" t="s">
+      <c r="E14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="106" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="107" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="111" t="s">
+      <c r="E15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="107" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="111" t="s">
+      <c r="E16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="109" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="106" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="106" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="107" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="111" t="s">
+      <c r="E17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="109" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F02FBD5-B531-974D-AC37-801D930BCBF4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64E4DC90-1A6A-5E49-942E-DBFEC2D3EEC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,9 +1843,6 @@
     <t>brand alfa</t>
   </si>
   <si>
-    <t>Isha alfa</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=p6LcnmsVhc0</t>
   </si>
   <si>
@@ -1886,6 +1883,9 @@
   </si>
   <si>
     <t>https://twitter.com/marcvidal/status/963332880972775424</t>
+  </si>
+  <si>
+    <t>Isha alfa testing</t>
   </si>
 </sst>
 </file>
@@ -3000,6 +3000,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3024,13 +3031,6 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5387,42 +5387,42 @@
       <c r="C1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="135" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
       <c r="G1" s="96"/>
-      <c r="H1" s="130" t="s">
+      <c r="H1" s="137" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="132" t="s">
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="139" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="125" t="s">
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="132" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="133" t="s">
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="125" t="s">
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="132" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="126"/>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="127"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="134"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -10809,8 +10809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -10848,546 +10848,546 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:90" s="105" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="122" t="s">
         <v>593</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="122" t="s">
         <v>594</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="122" t="s">
         <v>595</v>
       </c>
-      <c r="G1" s="134" t="s">
+      <c r="G1" s="122" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="134" t="s">
+      <c r="H1" s="122" t="s">
         <v>596</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="134" t="s">
+      <c r="K1" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="134" t="s">
+      <c r="L1" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="134" t="s">
+      <c r="M1" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="134" t="s">
+      <c r="N1" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="134" t="s">
+      <c r="O1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="134" t="s">
+      <c r="P1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="134" t="s">
+      <c r="Q1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="134" t="s">
+      <c r="R1" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="134" t="s">
+      <c r="S1" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="134" t="s">
+      <c r="T1" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="134" t="s">
+      <c r="U1" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="134" t="s">
+      <c r="V1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="134" t="s">
+      <c r="W1" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="134" t="s">
+      <c r="X1" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="134" t="s">
+      <c r="Y1" s="122" t="s">
         <v>597</v>
       </c>
-      <c r="Z1" s="134" t="s">
+      <c r="Z1" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="134" t="s">
+      <c r="AA1" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="134" t="s">
+      <c r="AB1" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="134" t="s">
+      <c r="AC1" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="134" t="s">
+      <c r="AD1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="134" t="s">
+      <c r="AE1" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="134" t="s">
+      <c r="AF1" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="134" t="s">
+      <c r="AG1" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="134" t="s">
+      <c r="AH1" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="134" t="s">
+      <c r="AI1" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="AJ1" s="134" t="s">
+      <c r="AJ1" s="122" t="s">
         <v>131</v>
       </c>
-      <c r="AK1" s="134" t="s">
+      <c r="AK1" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="AL1" s="134" t="s">
+      <c r="AL1" s="122" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="134" t="s">
+      <c r="AM1" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="AN1" s="134" t="s">
+      <c r="AN1" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="AO1" s="134" t="s">
+      <c r="AO1" s="122" t="s">
         <v>136</v>
       </c>
-      <c r="AP1" s="134" t="s">
+      <c r="AP1" s="122" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" s="134" t="s">
+      <c r="AQ1" s="122" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" s="134" t="s">
+      <c r="AR1" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="AS1" s="134" t="s">
+      <c r="AS1" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="134" t="s">
+      <c r="AT1" s="122" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="134" t="s">
+      <c r="AU1" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="AV1" s="134" t="s">
+      <c r="AV1" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="AW1" s="134" t="s">
+      <c r="AW1" s="122" t="s">
         <v>144</v>
       </c>
-      <c r="AX1" s="134" t="s">
+      <c r="AX1" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="AY1" s="134" t="s">
+      <c r="AY1" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="AZ1" s="134" t="s">
+      <c r="AZ1" s="122" t="s">
         <v>147</v>
       </c>
-      <c r="BA1" s="134" t="s">
+      <c r="BA1" s="122" t="s">
         <v>148</v>
       </c>
-      <c r="BB1" s="134" t="s">
+      <c r="BB1" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="BC1" s="134" t="s">
+      <c r="BC1" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="BD1" s="134" t="s">
+      <c r="BD1" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="BE1" s="134" t="s">
+      <c r="BE1" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="BF1" s="134" t="s">
+      <c r="BF1" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="BG1" s="134" t="s">
+      <c r="BG1" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="BH1" s="134" t="s">
+      <c r="BH1" s="122" t="s">
         <v>155</v>
       </c>
-      <c r="BI1" s="134" t="s">
+      <c r="BI1" s="122" t="s">
         <v>293</v>
       </c>
-      <c r="BJ1" s="134" t="s">
+      <c r="BJ1" s="122" t="s">
         <v>294</v>
       </c>
-      <c r="BK1" s="134" t="s">
+      <c r="BK1" s="122" t="s">
         <v>295</v>
       </c>
-      <c r="BL1" s="134" t="s">
+      <c r="BL1" s="122" t="s">
         <v>296</v>
       </c>
-      <c r="BM1" s="134" t="s">
+      <c r="BM1" s="122" t="s">
         <v>297</v>
       </c>
-      <c r="BN1" s="134" t="s">
+      <c r="BN1" s="122" t="s">
         <v>298</v>
       </c>
-      <c r="BO1" s="134" t="s">
+      <c r="BO1" s="122" t="s">
         <v>305</v>
       </c>
-      <c r="BP1" s="134" t="s">
+      <c r="BP1" s="122" t="s">
         <v>306</v>
       </c>
-      <c r="BQ1" s="134" t="s">
+      <c r="BQ1" s="122" t="s">
         <v>598</v>
       </c>
-      <c r="BR1" s="134" t="s">
+      <c r="BR1" s="122" t="s">
         <v>599</v>
       </c>
-      <c r="BS1" s="134" t="s">
+      <c r="BS1" s="122" t="s">
         <v>600</v>
       </c>
-      <c r="BT1" s="134" t="s">
+      <c r="BT1" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="BU1" s="134" t="s">
+      <c r="BU1" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="BV1" s="134" t="s">
+      <c r="BV1" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="BW1" s="134" t="s">
+      <c r="BW1" s="122" t="s">
         <v>601</v>
       </c>
-      <c r="BX1" s="134" t="s">
+      <c r="BX1" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="BY1" s="134" t="s">
+      <c r="BY1" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="BZ1" s="134" t="s">
+      <c r="BZ1" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="CA1" s="134" t="s">
+      <c r="CA1" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="CB1" s="134" t="s">
+      <c r="CB1" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="CC1" s="134" t="s">
+      <c r="CC1" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="CD1" s="134" t="s">
+      <c r="CD1" s="122" t="s">
         <v>163</v>
       </c>
-      <c r="CE1" s="134" t="s">
+      <c r="CE1" s="122" t="s">
         <v>164</v>
       </c>
-      <c r="CF1" s="134" t="s">
+      <c r="CF1" s="122" t="s">
         <v>165</v>
       </c>
-      <c r="CG1" s="134" t="s">
+      <c r="CG1" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="CH1" s="134" t="s">
+      <c r="CH1" s="122" t="s">
         <v>602</v>
       </c>
-      <c r="CI1" s="134" t="s">
+      <c r="CI1" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="CJ1" s="134" t="s">
+      <c r="CJ1" s="122" t="s">
         <v>168</v>
       </c>
-      <c r="CK1" s="134" t="s">
+      <c r="CK1" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="CL1" s="134" t="s">
+      <c r="CL1" s="122" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="123" t="s">
         <v>603</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="124" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="124" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="125" t="s">
         <v>604</v>
       </c>
-      <c r="C2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="136" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="137" t="s">
+      <c r="F2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="125" t="s">
         <v>605</v>
       </c>
-      <c r="F2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="137" t="s">
+      <c r="H2" s="125" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="124" t="s">
         <v>606</v>
       </c>
-      <c r="H2" s="137" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="136" t="s">
+      <c r="R2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="V2" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="124" t="s">
         <v>607</v>
       </c>
-      <c r="R2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="T2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="U2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="V2" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="136" t="s">
+      <c r="Z2" s="126" t="s">
         <v>608</v>
       </c>
-      <c r="Z2" s="138" t="s">
+      <c r="AA2" s="124" t="s">
         <v>609</v>
       </c>
-      <c r="AA2" s="136" t="s">
+      <c r="AB2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN2" s="124" t="s">
         <v>610</v>
       </c>
-      <c r="AB2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BK2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN2" s="136" t="s">
+      <c r="BO2" s="125" t="s">
         <v>611</v>
       </c>
-      <c r="BO2" s="137" t="s">
+      <c r="BP2" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="BQ2" s="127" t="s">
         <v>612</v>
       </c>
-      <c r="BP2" s="136" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ2" s="139" t="s">
+      <c r="BR2" s="124" t="s">
         <v>613</v>
       </c>
-      <c r="BR2" s="136" t="s">
+      <c r="BS2" s="125" t="s">
         <v>614</v>
       </c>
-      <c r="BS2" s="137" t="s">
+      <c r="BT2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV2" s="128" t="s">
         <v>615</v>
       </c>
-      <c r="BT2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV2" s="140" t="s">
+      <c r="BW2" s="124" t="s">
         <v>616</v>
       </c>
-      <c r="BW2" s="136" t="s">
+      <c r="BX2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CF2" s="126" t="s">
         <v>617</v>
       </c>
-      <c r="BX2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CA2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CB2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CC2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CE2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CF2" s="138" t="s">
-        <v>618</v>
-      </c>
-      <c r="CG2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CH2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CI2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="136" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="CL2" s="136" t="s">
+      <c r="CG2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="124" t="s">
+        <v>177</v>
+      </c>
+      <c r="CL2" s="124" t="s">
         <v>177</v>
       </c>
     </row>
@@ -11488,13 +11488,13 @@
       <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="129" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="131"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -12460,42 +12460,42 @@
       <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="135" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="130" t="s">
+      <c r="I1" s="137" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="132" t="s">
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="125" t="s">
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="132" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="133" t="s">
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="140" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="125" t="s">
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="132" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="126"/>
-      <c r="AA1" s="126"/>
-      <c r="AB1" s="127"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="134"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64E4DC90-1A6A-5E49-942E-DBFEC2D3EEC6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27FFF52D-EED7-2F49-AB1B-7BC92D646F08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1885,7 +1885,7 @@
     <t>https://twitter.com/marcvidal/status/963332880972775424</t>
   </si>
   <si>
-    <t>Isha alfa testing</t>
+    <t>Isha alfa test</t>
   </si>
 </sst>
 </file>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AML-1\git\Automation\Aml_automation\src\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{27FFF52D-EED7-2F49-AB1B-7BC92D646F08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="600">
   <si>
     <t>Table Type</t>
   </si>
@@ -1768,6 +1767,24 @@
     <t>https://www.youtube.com/embed/azxoVRTwlNg</t>
   </si>
   <si>
+    <t>Longform</t>
+  </si>
+  <si>
+    <t>Longform post automation testing</t>
+  </si>
+  <si>
+    <t>Ficha_tecnica_title@@#@@Version2.21@@#@@https://i.blogs.es/9a59f8/samsung-nand/650_1200.jpg@@#@@https://i.blogs.es/9c2494/mi-mix/650_1200.jpg@@#@@Text11@#@Some text11@#@https://www.gmail.com@&amp;@Text22@#@Some text22@#@https://yahoo.com@&amp;@Text33@#@Some text33@#@www.google.com@&amp;@Text44@#@Some Text44@#@https://www.yahoo.com@&amp;@Text55@#@Some text55@#@http://www.outlook.com@@#@@Other details</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>fullscreen</t>
+  </si>
+  <si>
+    <t>En ella encontrarás detalles, ideas y gadgets a partir de 10 euros.</t>
+  </si>
+  <si>
     <t>Publish_to_homepage_checkbox</t>
   </si>
   <si>
@@ -1810,89 +1827,14 @@
     <t>hookimage.jpeg</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>imageLayout</t>
-  </si>
-  <si>
-    <t>video_layout</t>
-  </si>
-  <si>
-    <t>Instagram</t>
-  </si>
-  <si>
-    <t>rich_alternativo</t>
-  </si>
-  <si>
-    <t>rich_text</t>
-  </si>
-  <si>
-    <t>rich_url</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>Contenido_Patrocinado</t>
-  </si>
-  <si>
-    <t>brand alfa</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p6LcnmsVhc0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kj1HCbm6fp4</t>
-  </si>
-  <si>
-    <t>Testng</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p/BWxoQQGIJQW</t>
-  </si>
-  <si>
-    <t>https://infogr.am/be7b47aa-3d58-44da-a246-c015889c0459</t>
-  </si>
-  <si>
-    <t>grande</t>
-  </si>
-  <si>
-    <t>vidaextra</t>
-  </si>
-  <si>
-    <t>https://testing.xataka.com/seleccion/isha-normal-post-1</t>
-  </si>
-  <si>
-    <t>imagen alternativa</t>
-  </si>
-  <si>
-    <t>testing testing</t>
-  </si>
-  <si>
-    <t>https://i.blogs.es/de2d90/steam-link/1366_2000.jpg</t>
-  </si>
-  <si>
-    <t>Espacio Alcatel</t>
-  </si>
-  <si>
-    <t>Nokia</t>
-  </si>
-  <si>
-    <t>https://twitter.com/marcvidal/status/963332880972775424</t>
-  </si>
-  <si>
-    <t>Isha alfa test</t>
+    <t>7@##@No parece importar mucho que ferias como el CES 2017 hayan sido.@##@testing worst input ficha testing ficha testing ficha.@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el supuesto nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2122,29 +2064,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0066CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="21"/>
       <color rgb="FF333333"/>
-      <name val="Menlo"/>
-      <family val="2"/>
+      <name val="Charter"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2639,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2949,9 +2878,13 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3000,13 +2933,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3030,6 +2956,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3311,7 +3240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3319,7 +3248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -4367,7 +4296,7 @@
       <c r="AMI1" s="25"/>
       <c r="AMJ1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" ht="16">
+    <row r="2" spans="1:1024">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -4397,7 +4326,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1024" ht="16">
+    <row r="3" spans="1:1024">
       <c r="A3" s="9" t="s">
         <v>263</v>
       </c>
@@ -4431,7 +4360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1024" ht="16">
+    <row r="4" spans="1:1024">
       <c r="A4" s="9" t="s">
         <v>277</v>
       </c>
@@ -4463,7 +4392,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:1024" ht="16">
+    <row r="5" spans="1:1024">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -4491,7 +4420,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:1024" ht="16">
+    <row r="6" spans="1:1024">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
@@ -5313,7 +5242,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="14">
+    <row r="39" spans="1:12" ht="12.75">
       <c r="A39" s="9" t="s">
         <v>527</v>
       </c>
@@ -5337,7 +5266,7 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="14">
+    <row r="40" spans="1:12" ht="12.75">
       <c r="A40" s="20" t="s">
         <v>531</v>
       </c>
@@ -5367,7 +5296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5375,7 +5304,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
@@ -5387,42 +5316,42 @@
       <c r="C1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="130" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
       <c r="G1" s="96"/>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="139" t="s">
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="134" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="132" t="s">
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="133"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="140" t="s">
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="132" t="s">
+      <c r="U1" s="128"/>
+      <c r="V1" s="128"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="127" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="133"/>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="134"/>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="129"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -5521,7 +5450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5529,7 +5458,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5819,51 +5748,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="L2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="J3" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="L3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="D4" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F4" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="J4" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="K4" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="L4" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="C5" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="D5" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F5" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="J5" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="K5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="L5" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="C6" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="F6" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="J6" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="K6" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="L6" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="C7" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="J7" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="K7" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="L7" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId5"/>
+    <hyperlink ref="K2" r:id="rId6"/>
+    <hyperlink ref="L2" r:id="rId7"/>
+    <hyperlink ref="B3" r:id="rId8"/>
+    <hyperlink ref="C3" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId10"/>
+    <hyperlink ref="F3" r:id="rId11"/>
+    <hyperlink ref="J3" r:id="rId12"/>
+    <hyperlink ref="K3" r:id="rId13"/>
+    <hyperlink ref="L3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="D4" r:id="rId16"/>
+    <hyperlink ref="F4" r:id="rId17"/>
+    <hyperlink ref="J4" r:id="rId18"/>
+    <hyperlink ref="K4" r:id="rId19"/>
+    <hyperlink ref="L4" r:id="rId20"/>
+    <hyperlink ref="C5" r:id="rId21"/>
+    <hyperlink ref="D5" r:id="rId22"/>
+    <hyperlink ref="F5" r:id="rId23"/>
+    <hyperlink ref="J5" r:id="rId24"/>
+    <hyperlink ref="K5" r:id="rId25"/>
+    <hyperlink ref="L5" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="D6" r:id="rId28"/>
+    <hyperlink ref="F6" r:id="rId29"/>
+    <hyperlink ref="J6" r:id="rId30"/>
+    <hyperlink ref="K6" r:id="rId31"/>
+    <hyperlink ref="L6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="D7" r:id="rId34"/>
+    <hyperlink ref="F7" r:id="rId35"/>
+    <hyperlink ref="J7" r:id="rId36"/>
+    <hyperlink ref="K7" r:id="rId37"/>
+    <hyperlink ref="L7" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5871,9 +5800,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:84" ht="14">
+    <row r="1" spans="1:84" ht="12.75">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -6115,7 +6044,7 @@
       <c r="CE1" s="32"/>
       <c r="CF1" s="32"/>
     </row>
-    <row r="2" spans="1:84" ht="14">
+    <row r="2" spans="1:84" ht="12.75">
       <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
@@ -6357,7 +6286,7 @@
       <c r="CE2" s="36"/>
       <c r="CF2" s="36"/>
     </row>
-    <row r="3" spans="1:84" ht="14">
+    <row r="3" spans="1:84" ht="12.75">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -6839,7 +6768,7 @@
       <c r="CE4" s="36"/>
       <c r="CF4" s="36"/>
     </row>
-    <row r="5" spans="1:84" ht="14">
+    <row r="5" spans="1:84" ht="12.75">
       <c r="A5" s="33" t="s">
         <v>235</v>
       </c>
@@ -7081,7 +7010,7 @@
       <c r="CE5" s="36"/>
       <c r="CF5" s="36"/>
     </row>
-    <row r="6" spans="1:84" ht="14">
+    <row r="6" spans="1:84" ht="12.75">
       <c r="A6" s="41" t="s">
         <v>242</v>
       </c>
@@ -7323,7 +7252,7 @@
       <c r="CE6" s="36"/>
       <c r="CF6" s="36"/>
     </row>
-    <row r="7" spans="1:84" ht="14">
+    <row r="7" spans="1:84" ht="12.75">
       <c r="A7" s="41" t="s">
         <v>250</v>
       </c>
@@ -7565,7 +7494,7 @@
       <c r="CE7" s="36"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" ht="14">
+    <row r="8" spans="1:84" ht="12.75">
       <c r="A8" s="36" t="s">
         <v>258</v>
       </c>
@@ -7807,7 +7736,7 @@
       <c r="CE8" s="36"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="14">
+    <row r="9" spans="1:84" ht="12.75">
       <c r="A9" s="36" t="s">
         <v>273</v>
       </c>
@@ -8049,7 +7978,7 @@
       <c r="CE9" s="36"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="14">
+    <row r="10" spans="1:84" ht="12.75">
       <c r="A10" s="36" t="s">
         <v>284</v>
       </c>
@@ -8291,7 +8220,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="14">
+    <row r="11" spans="1:84" ht="12.75">
       <c r="A11" s="36" t="s">
         <v>291</v>
       </c>
@@ -8533,7 +8462,7 @@
       <c r="CE11" s="36"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="14">
+    <row r="12" spans="1:84" ht="12.75">
       <c r="A12" s="36" t="s">
         <v>309</v>
       </c>
@@ -8775,7 +8704,7 @@
       <c r="CE12" s="36"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13" spans="1:84" ht="14">
+    <row r="13" spans="1:84" ht="12.75">
       <c r="A13" s="33" t="s">
         <v>316</v>
       </c>
@@ -9017,7 +8946,7 @@
       <c r="CE13" s="36"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="14">
+    <row r="14" spans="1:84" ht="12.75">
       <c r="A14" s="36" t="s">
         <v>329</v>
       </c>
@@ -9259,7 +9188,7 @@
       <c r="CE14" s="36"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="14">
+    <row r="15" spans="1:84" ht="12.75">
       <c r="A15" s="33" t="s">
         <v>352</v>
       </c>
@@ -9501,7 +9430,7 @@
       <c r="CE15" s="36"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="16">
+    <row r="16" spans="1:84" ht="15">
       <c r="A16" s="60" t="s">
         <v>170</v>
       </c>
@@ -9757,45 +9686,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="X2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="AB2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="X3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="F4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="F10" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="F11" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="F12" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="W13" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="X14" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="AA14" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="AL14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="AN14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="AO14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="AP14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="BA14" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="F15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="X15" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="BS16" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
+    <hyperlink ref="O2" r:id="rId3"/>
+    <hyperlink ref="Q2" r:id="rId4"/>
+    <hyperlink ref="X2" r:id="rId5"/>
+    <hyperlink ref="AB2" r:id="rId6"/>
+    <hyperlink ref="F3" r:id="rId7"/>
+    <hyperlink ref="X3" r:id="rId8"/>
+    <hyperlink ref="F4" r:id="rId9"/>
+    <hyperlink ref="U4" r:id="rId10"/>
+    <hyperlink ref="F5" r:id="rId11"/>
+    <hyperlink ref="U5" r:id="rId12"/>
+    <hyperlink ref="F9" r:id="rId13"/>
+    <hyperlink ref="F10" r:id="rId14"/>
+    <hyperlink ref="F11" r:id="rId15"/>
+    <hyperlink ref="F12" r:id="rId16"/>
+    <hyperlink ref="F13" r:id="rId17"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
+    <hyperlink ref="W13" r:id="rId19"/>
+    <hyperlink ref="F14" r:id="rId20"/>
+    <hyperlink ref="X14" r:id="rId21"/>
+    <hyperlink ref="AA14" r:id="rId22"/>
+    <hyperlink ref="AL14" r:id="rId23"/>
+    <hyperlink ref="AN14" r:id="rId24"/>
+    <hyperlink ref="AO14" r:id="rId25"/>
+    <hyperlink ref="AP14" r:id="rId26"/>
+    <hyperlink ref="BA14" r:id="rId27"/>
+    <hyperlink ref="F15" r:id="rId28"/>
+    <hyperlink ref="X15" r:id="rId29"/>
+    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg"/>
+    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;"/>
+    <hyperlink ref="BS16" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9803,7 +9732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
@@ -10197,20 +10126,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="J2" r:id="rId4"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
+    <hyperlink ref="W3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10220,13 +10149,13 @@
       <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="85" max="85" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="35.6640625" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="35.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="64">
+    <row r="1" spans="1:94" ht="63">
       <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
@@ -10485,29 +10414,29 @@
       <c r="CH1" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="CI1" s="117" t="s">
-        <v>579</v>
-      </c>
-      <c r="CJ1" s="117" t="s">
-        <v>580</v>
+      <c r="CI1" s="119" t="s">
+        <v>585</v>
+      </c>
+      <c r="CJ1" s="119" t="s">
+        <v>586</v>
       </c>
       <c r="CK1" s="55" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="CL1" s="55" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="CM1" s="55" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="CN1" s="55" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="CO1" s="55" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="CP1" s="55" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:94" ht="15.75" customHeight="1">
@@ -10769,636 +10698,328 @@
       <c r="CH2" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="CI2" s="118" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="119" t="s">
-        <v>587</v>
-      </c>
-      <c r="CL2" s="118" t="s">
-        <v>588</v>
-      </c>
-      <c r="CM2" s="120" t="s">
-        <v>589</v>
-      </c>
-      <c r="CN2" s="121" t="s">
-        <v>590</v>
-      </c>
-      <c r="CO2" s="119" t="s">
-        <v>592</v>
-      </c>
-      <c r="CP2" s="119" t="s">
-        <v>591</v>
+      <c r="CI2" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="CJ2" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="CK2" s="121" t="s">
+        <v>593</v>
+      </c>
+      <c r="CL2" s="120" t="s">
+        <v>594</v>
+      </c>
+      <c r="CM2" s="122" t="s">
+        <v>595</v>
+      </c>
+      <c r="CN2" s="123" t="s">
+        <v>596</v>
+      </c>
+      <c r="CO2" s="121" t="s">
+        <v>598</v>
+      </c>
+      <c r="CP2" s="121" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="BS2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="CM2" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg"/>
+    <hyperlink ref="BS2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="CM2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:CL2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.1640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.33203125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.83203125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="24" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.5" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.5" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.42578125" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="19" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="14" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.1640625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="105" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="122" t="s">
+    <row r="1" spans="1:38" s="106" customFormat="1" ht="45" customHeight="1">
+      <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="122" t="s">
-        <v>593</v>
-      </c>
-      <c r="E1" s="122" t="s">
-        <v>594</v>
-      </c>
-      <c r="F1" s="122" t="s">
-        <v>595</v>
-      </c>
-      <c r="G1" s="122" t="s">
-        <v>449</v>
-      </c>
-      <c r="H1" s="122" t="s">
-        <v>596</v>
-      </c>
-      <c r="I1" s="122" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="122" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="122" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="122" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" s="122" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="122" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" s="122" t="s">
+      <c r="D1" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="122" t="s">
+      <c r="H1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="122" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" s="122" t="s">
+      <c r="I1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="122" t="s">
+      <c r="J1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="122" t="s">
+      <c r="K1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="122" t="s">
+      <c r="L1" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="122" t="s">
+      <c r="M1" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="122" t="s">
-        <v>597</v>
-      </c>
-      <c r="Z1" s="122" t="s">
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="122" t="s">
+      <c r="O1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" s="122" t="s">
+      <c r="P1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="122" t="s">
+      <c r="Q1" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="AD1" s="122" t="s">
+      <c r="R1" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="122" t="s">
+      <c r="S1" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="122" t="s">
+      <c r="T1" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="122" t="s">
+      <c r="U1" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="122" t="s">
+      <c r="V1" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="122" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ1" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK1" s="122" t="s">
-        <v>132</v>
-      </c>
-      <c r="AL1" s="122" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM1" s="122" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN1" s="122" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO1" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="AP1" s="122" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ1" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR1" s="122" t="s">
-        <v>139</v>
-      </c>
-      <c r="AS1" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT1" s="122" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU1" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV1" s="122" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW1" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="AX1" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY1" s="122" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ1" s="122" t="s">
-        <v>147</v>
-      </c>
-      <c r="BA1" s="122" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB1" s="122" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC1" s="122" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD1" s="122" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE1" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF1" s="122" t="s">
-        <v>153</v>
-      </c>
-      <c r="BG1" s="122" t="s">
-        <v>154</v>
-      </c>
-      <c r="BH1" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="BI1" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="BJ1" s="122" t="s">
-        <v>294</v>
-      </c>
-      <c r="BK1" s="122" t="s">
-        <v>295</v>
-      </c>
-      <c r="BL1" s="122" t="s">
-        <v>296</v>
-      </c>
-      <c r="BM1" s="122" t="s">
-        <v>297</v>
-      </c>
-      <c r="BN1" s="122" t="s">
-        <v>298</v>
-      </c>
-      <c r="BO1" s="122" t="s">
-        <v>305</v>
-      </c>
-      <c r="BP1" s="122" t="s">
-        <v>306</v>
-      </c>
-      <c r="BQ1" s="122" t="s">
-        <v>598</v>
-      </c>
-      <c r="BR1" s="122" t="s">
+      <c r="W1" s="56" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC1" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD1" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF1" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG1" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH1" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI1" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ1" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK1" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL1" s="56" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="15.75" customHeight="1">
+      <c r="A2" s="60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="104" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>583</v>
+      </c>
+      <c r="I2" s="136" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="63" t="s">
         <v>599</v>
       </c>
-      <c r="BS1" s="122" t="s">
-        <v>600</v>
-      </c>
-      <c r="BT1" s="122" t="s">
-        <v>156</v>
-      </c>
-      <c r="BU1" s="122" t="s">
-        <v>157</v>
-      </c>
-      <c r="BV1" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW1" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="BX1" s="122" t="s">
-        <v>17</v>
-      </c>
-      <c r="BY1" s="122" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ1" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="CA1" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="CB1" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="CC1" s="122" t="s">
-        <v>162</v>
-      </c>
-      <c r="CD1" s="122" t="s">
-        <v>163</v>
-      </c>
-      <c r="CE1" s="122" t="s">
-        <v>164</v>
-      </c>
-      <c r="CF1" s="122" t="s">
-        <v>165</v>
-      </c>
-      <c r="CG1" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="CH1" s="122" t="s">
-        <v>602</v>
-      </c>
-      <c r="CI1" s="122" t="s">
-        <v>167</v>
-      </c>
-      <c r="CJ1" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="CK1" s="122" t="s">
-        <v>169</v>
-      </c>
-      <c r="CL1" s="122" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" ht="15.75" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>603</v>
-      </c>
-      <c r="B2" s="124" t="s">
-        <v>618</v>
-      </c>
-      <c r="C2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="124" t="s">
-        <v>449</v>
-      </c>
-      <c r="E2" s="125" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="125" t="s">
-        <v>605</v>
-      </c>
-      <c r="H2" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="124" t="s">
-        <v>606</v>
-      </c>
-      <c r="R2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="T2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="U2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="V2" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="124" t="s">
-        <v>607</v>
-      </c>
-      <c r="Z2" s="126" t="s">
-        <v>608</v>
-      </c>
-      <c r="AA2" s="124" t="s">
-        <v>609</v>
-      </c>
-      <c r="AB2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AI2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BK2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BL2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN2" s="124" t="s">
-        <v>610</v>
-      </c>
-      <c r="BO2" s="125" t="s">
-        <v>611</v>
-      </c>
-      <c r="BP2" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="BQ2" s="127" t="s">
-        <v>612</v>
-      </c>
-      <c r="BR2" s="124" t="s">
-        <v>613</v>
-      </c>
-      <c r="BS2" s="125" t="s">
-        <v>614</v>
-      </c>
-      <c r="BT2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV2" s="128" t="s">
-        <v>615</v>
-      </c>
-      <c r="BW2" s="124" t="s">
-        <v>616</v>
-      </c>
-      <c r="BX2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CA2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CB2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CC2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CE2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CF2" s="126" t="s">
-        <v>617</v>
-      </c>
-      <c r="CG2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CH2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CI2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="124" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="124" t="s">
-        <v>177</v>
-      </c>
-      <c r="CL2" s="124" t="s">
+      <c r="K2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="71" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Y2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11406,7 +11027,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="51" t="s">
@@ -11458,17 +11079,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11476,7 +11097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="80" t="s">
@@ -11488,13 +11109,13 @@
       <c r="C1" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="124" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="131"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -12435,7 +12056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12445,7 +12066,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="94" t="s">
@@ -12460,42 +12081,42 @@
       <c r="D1" s="95" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="130" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="96"/>
-      <c r="I1" s="137" t="s">
+      <c r="I1" s="132" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139" t="s">
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="134" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="132" t="s">
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="127" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="140" t="s">
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="135" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="132" t="s">
+      <c r="V1" s="128"/>
+      <c r="W1" s="128"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="127" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="133"/>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="134"/>
+      <c r="Z1" s="128"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="94" t="s">
@@ -12584,1290 +12205,1290 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="109" t="s">
+      <c r="E3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="109" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="109" t="s">
+      <c r="E4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="109" t="s">
+      <c r="E5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="109" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="109" t="s">
+      <c r="E6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="108" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="109" t="s">
+      <c r="E7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="106" t="s">
+      <c r="C8" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="109" t="s">
+      <c r="E8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="114" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="114" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="115" t="s">
         <v>564</v>
       </c>
-      <c r="E9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="114" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="115" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="114" t="s">
+      <c r="E9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="116" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="106" t="s">
+      <c r="A10" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="109" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R10" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="109" t="s">
+      <c r="E10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="108" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="116" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="109" t="s">
+      <c r="E11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="118" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="109" t="s">
+      <c r="E12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="108" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="106" t="s">
+      <c r="B13" s="108" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C13" s="108" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="107" t="s">
+      <c r="D13" s="109" t="s">
         <v>570</v>
       </c>
-      <c r="E13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="109" t="s">
+      <c r="E13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="106" t="s">
+      <c r="C14" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="109" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="109" t="s">
+      <c r="E14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="106" t="s">
+      <c r="C15" s="108" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="109" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="109" t="s">
+      <c r="E15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="109" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="X16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="109" t="s">
+      <c r="E16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="112" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="111" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="106" t="s">
+      <c r="B17" s="108" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="108" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="109" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="108" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="109" t="s">
+      <c r="E17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="111" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="110" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="111" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AML-1\git\Automation\Aml_automation\src\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83455244-8D5F-6A4B-AF56-6802937F5A61}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="23040" windowHeight="12435" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12440" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TagCatagory" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="620">
   <si>
     <t>Table Type</t>
   </si>
@@ -1758,15 +1759,6 @@
     <t>Destacado</t>
   </si>
   <si>
-    <t>Test content</t>
-  </si>
-  <si>
-    <t>https://www.flipkart.es1@#@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/embed/azxoVRTwlNg</t>
-  </si>
-  <si>
     <t>Longform</t>
   </si>
   <si>
@@ -1828,13 +1820,82 @@
   </si>
   <si>
     <t>7@##@No parece importar mucho que ferias como el CES 2017 hayan sido.@##@testing worst input ficha testing ficha testing ficha.@##@diseno@###@7@~#~@automate@###@8@##@Preguntas y respuestas sobre el supuesto nuevo canon digital: ¿quién tendrá que pagarlo y por qué?</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>imageLayout</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>Contenido_Patrocinado</t>
+  </si>
+  <si>
+    <t>rich_alternativo</t>
+  </si>
+  <si>
+    <t>rich_text</t>
+  </si>
+  <si>
+    <t>rich_url</t>
+  </si>
+  <si>
+    <t>brand alfa</t>
+  </si>
+  <si>
+    <t>Isha alfa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p6LcnmsVhc0</t>
+  </si>
+  <si>
+    <t>Testng</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/BWxoQQGIJQW</t>
+  </si>
+  <si>
+    <t>https://infogr.am/be7b47aa-3d58-44da-a246-c015889c0459</t>
+  </si>
+  <si>
+    <t>grande</t>
+  </si>
+  <si>
+    <t>vidaextra</t>
+  </si>
+  <si>
+    <t>Espacio Alcatel</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>https://twitter.com/marcvidal/status/963332880972775424</t>
+  </si>
+  <si>
+    <t>imagen alternativa</t>
+  </si>
+  <si>
+    <t>testing testing</t>
+  </si>
+  <si>
+    <t>https://i.blogs.es/de2d90/steam-link/1366_2000.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1986,13 +2047,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2075,8 +2129,33 @@
       <name val="Charter"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0066CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2159,6 +2238,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD7E4BD"/>
         <bgColor rgb="FFD7E4BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2566,7 +2651,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2733,55 +2818,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2805,10 +2881,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2874,8 +2950,7 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2884,7 +2959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2918,22 +2993,10 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2957,9 +3020,15 @@
     <xf numFmtId="0" fontId="14" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3240,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3248,7 +3317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
@@ -4296,7 +4365,7 @@
       <c r="AMI1" s="25"/>
       <c r="AMJ1" s="25"/>
     </row>
-    <row r="2" spans="1:1024">
+    <row r="2" spans="1:1024" ht="16">
       <c r="A2" s="9" t="s">
         <v>240</v>
       </c>
@@ -4326,7 +4395,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:1024">
+    <row r="3" spans="1:1024" ht="16">
       <c r="A3" s="9" t="s">
         <v>263</v>
       </c>
@@ -4360,7 +4429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:1024">
+    <row r="4" spans="1:1024" ht="16">
       <c r="A4" s="9" t="s">
         <v>277</v>
       </c>
@@ -4392,7 +4461,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="1:1024">
+    <row r="5" spans="1:1024" ht="16">
       <c r="A5" s="9" t="s">
         <v>286</v>
       </c>
@@ -4420,7 +4489,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:1024">
+    <row r="6" spans="1:1024" ht="16">
       <c r="A6" s="9" t="s">
         <v>299</v>
       </c>
@@ -4438,12 +4507,12 @@
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
-      <c r="H6" s="59" t="s">
+      <c r="H6" s="56" t="s">
         <v>303</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="59" t="s">
         <v>269</v>
       </c>
       <c r="L6" s="29"/>
@@ -4498,13 +4567,13 @@
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
     </row>
     <row r="10" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
@@ -4516,7 +4585,7 @@
       <c r="C10" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -4524,13 +4593,13 @@
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="75" t="s">
         <v>358</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="79"/>
+      <c r="L10" s="76"/>
     </row>
     <row r="11" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -4542,7 +4611,7 @@
       <c r="C11" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -4550,13 +4619,13 @@
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="78" t="s">
+      <c r="H11" s="75" t="s">
         <v>362</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="79"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
@@ -4576,13 +4645,13 @@
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="78" t="s">
+      <c r="H12" s="75" t="s">
         <v>377</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="79"/>
+      <c r="L12" s="76"/>
     </row>
     <row r="13" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -4602,13 +4671,13 @@
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="78" t="s">
+      <c r="H13" s="75" t="s">
         <v>381</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="79"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A14" s="9" t="s">
@@ -4628,13 +4697,13 @@
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="78" t="s">
+      <c r="H14" s="75" t="s">
         <v>386</v>
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="79"/>
+      <c r="L14" s="76"/>
     </row>
     <row r="15" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
@@ -4654,13 +4723,13 @@
       </c>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="75" t="s">
         <v>390</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="79"/>
+      <c r="L15" s="76"/>
     </row>
     <row r="16" spans="1:1024" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
@@ -4680,13 +4749,13 @@
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="75" t="s">
         <v>395</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="79"/>
+      <c r="L16" s="76"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -4706,13 +4775,13 @@
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="75" t="s">
         <v>400</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="79"/>
+      <c r="L17" s="76"/>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -4732,13 +4801,13 @@
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="75" t="s">
         <v>405</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="79"/>
+      <c r="L18" s="76"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
@@ -4758,13 +4827,13 @@
       </c>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="75" t="s">
         <v>412</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="79"/>
+      <c r="L19" s="76"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
       <c r="A20" s="9" t="s">
@@ -4784,13 +4853,13 @@
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="78" t="s">
+      <c r="H20" s="75" t="s">
         <v>418</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="79"/>
+      <c r="L20" s="76"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -4810,13 +4879,13 @@
       </c>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="78" t="s">
+      <c r="H21" s="75" t="s">
         <v>423</v>
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="79"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -4836,13 +4905,13 @@
       </c>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="78" t="s">
+      <c r="H22" s="75" t="s">
         <v>433</v>
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="79"/>
+      <c r="L22" s="76"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
       <c r="A23" s="9" t="s">
@@ -4854,7 +4923,7 @@
       <c r="C23" s="47" t="s">
         <v>436</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E23" s="52" t="s">
@@ -4862,13 +4931,13 @@
       </c>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="78" t="s">
+      <c r="H23" s="75" t="s">
         <v>437</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
-      <c r="L23" s="79"/>
+      <c r="L23" s="76"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
       <c r="A24" s="9" t="s">
@@ -4888,13 +4957,13 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="78" t="s">
+      <c r="H24" s="75" t="s">
         <v>446</v>
       </c>
       <c r="I24" s="25"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
-      <c r="L24" s="79"/>
+      <c r="L24" s="76"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
       <c r="A25" s="9" t="s">
@@ -4906,7 +4975,7 @@
       <c r="C25" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E25" s="52" t="s">
@@ -4914,13 +4983,13 @@
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="75" t="s">
         <v>453</v>
       </c>
       <c r="I25" s="25"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
-      <c r="L25" s="79"/>
+      <c r="L25" s="76"/>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
       <c r="A26" s="9" t="s">
@@ -4932,7 +5001,7 @@
       <c r="C26" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="77" t="s">
+      <c r="D26" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E26" s="52" t="s">
@@ -4940,13 +5009,13 @@
       </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="78" t="s">
+      <c r="H26" s="75" t="s">
         <v>459</v>
       </c>
       <c r="I26" s="25"/>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
-      <c r="L26" s="79"/>
+      <c r="L26" s="76"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
       <c r="A27" s="9" t="s">
@@ -4958,7 +5027,7 @@
       <c r="C27" s="47" t="s">
         <v>467</v>
       </c>
-      <c r="D27" s="77" t="s">
+      <c r="D27" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -4966,13 +5035,13 @@
       </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="75" t="s">
         <v>468</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
-      <c r="L27" s="79"/>
+      <c r="L27" s="76"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
       <c r="A28" s="9" t="s">
@@ -4992,13 +5061,13 @@
       </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="78" t="s">
+      <c r="H28" s="75" t="s">
         <v>475</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
-      <c r="L28" s="79"/>
+      <c r="L28" s="76"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
       <c r="A29" s="9" t="s">
@@ -5010,7 +5079,7 @@
       <c r="C29" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E29" s="52" t="s">
@@ -5018,13 +5087,13 @@
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="91" t="s">
+      <c r="H29" s="88" t="s">
         <v>478</v>
       </c>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="90"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
       <c r="A30" s="9" t="s">
@@ -5036,7 +5105,7 @@
       <c r="C30" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E30" s="52" t="s">
@@ -5060,7 +5129,7 @@
       <c r="C31" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E31" s="52" t="s">
@@ -5084,7 +5153,7 @@
       <c r="C32" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E32" s="52" t="s">
@@ -5132,7 +5201,7 @@
       <c r="C34" s="47" t="s">
         <v>508</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E34" s="52" t="s">
@@ -5156,7 +5225,7 @@
       <c r="C35" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E35" s="52" t="s">
@@ -5204,7 +5273,7 @@
       <c r="C37" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E37" s="52" t="s">
@@ -5228,7 +5297,7 @@
       <c r="C38" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E38" s="52" t="s">
@@ -5242,7 +5311,7 @@
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" ht="12.75">
+    <row r="39" spans="1:12" ht="14">
       <c r="A39" s="9" t="s">
         <v>527</v>
       </c>
@@ -5252,7 +5321,7 @@
       <c r="C39" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="74" t="s">
         <v>357</v>
       </c>
       <c r="E39" s="52" t="s">
@@ -5266,20 +5335,20 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" ht="12.75">
+    <row r="40" spans="1:12" ht="14">
       <c r="A40" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="94" t="s">
         <v>532</v>
       </c>
-      <c r="C40" s="97" t="s">
+      <c r="C40" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="D40" s="98" t="s">
+      <c r="D40" s="95" t="s">
         <v>357</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="96" t="s">
         <v>179</v>
       </c>
       <c r="F40" s="25"/>
@@ -5296,7 +5365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5304,135 +5373,135 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="D1" s="122" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="132" t="s">
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="124" t="s">
         <v>522</v>
       </c>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134" t="s">
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126" t="s">
         <v>526</v>
       </c>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="127" t="s">
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="119" t="s">
         <v>530</v>
       </c>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="135" t="s">
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="127" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="128"/>
-      <c r="V1" s="128"/>
-      <c r="W1" s="129"/>
-      <c r="X1" s="127" t="s">
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="119" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="128"/>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="129"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="121"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="97" t="s">
         <v>537</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="97" t="s">
         <v>538</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="L2" s="100" t="s">
+      <c r="L2" s="97" t="s">
         <v>544</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="97" t="s">
         <v>545</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>546</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="97" t="s">
         <v>547</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="T2" s="102" t="s">
+      <c r="T2" s="99" t="s">
         <v>552</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="99" t="s">
         <v>553</v>
       </c>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="W2" s="102" t="s">
+      <c r="W2" s="99" t="s">
         <v>555</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="X2" s="98" t="s">
         <v>556</v>
       </c>
-      <c r="Y2" s="101" t="s">
+      <c r="Y2" s="98" t="s">
         <v>557</v>
       </c>
-      <c r="Z2" s="101" t="s">
+      <c r="Z2" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="98" t="s">
         <v>559</v>
       </c>
     </row>
@@ -5450,7 +5519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5458,7 +5527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
@@ -5748,51 +5817,51 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="J2" r:id="rId5"/>
-    <hyperlink ref="K2" r:id="rId6"/>
-    <hyperlink ref="L2" r:id="rId7"/>
-    <hyperlink ref="B3" r:id="rId8"/>
-    <hyperlink ref="C3" r:id="rId9"/>
-    <hyperlink ref="D3" r:id="rId10"/>
-    <hyperlink ref="F3" r:id="rId11"/>
-    <hyperlink ref="J3" r:id="rId12"/>
-    <hyperlink ref="K3" r:id="rId13"/>
-    <hyperlink ref="L3" r:id="rId14"/>
-    <hyperlink ref="C4" r:id="rId15"/>
-    <hyperlink ref="D4" r:id="rId16"/>
-    <hyperlink ref="F4" r:id="rId17"/>
-    <hyperlink ref="J4" r:id="rId18"/>
-    <hyperlink ref="K4" r:id="rId19"/>
-    <hyperlink ref="L4" r:id="rId20"/>
-    <hyperlink ref="C5" r:id="rId21"/>
-    <hyperlink ref="D5" r:id="rId22"/>
-    <hyperlink ref="F5" r:id="rId23"/>
-    <hyperlink ref="J5" r:id="rId24"/>
-    <hyperlink ref="K5" r:id="rId25"/>
-    <hyperlink ref="L5" r:id="rId26"/>
-    <hyperlink ref="C6" r:id="rId27"/>
-    <hyperlink ref="D6" r:id="rId28"/>
-    <hyperlink ref="F6" r:id="rId29"/>
-    <hyperlink ref="J6" r:id="rId30"/>
-    <hyperlink ref="K6" r:id="rId31"/>
-    <hyperlink ref="L6" r:id="rId32"/>
-    <hyperlink ref="C7" r:id="rId33"/>
-    <hyperlink ref="D7" r:id="rId34"/>
-    <hyperlink ref="F7" r:id="rId35"/>
-    <hyperlink ref="J7" r:id="rId36"/>
-    <hyperlink ref="K7" r:id="rId37"/>
-    <hyperlink ref="L7" r:id="rId38"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="L2" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J3" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="K3" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="L3" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="D4" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J4" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="K4" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="L4" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="C5" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D5" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F5" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="J5" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="K5" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="L5" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="C6" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="F6" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="J6" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="K6" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="L6" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="C7" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="D7" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="F7" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="J7" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="K7" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="L7" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5800,9 +5869,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:84" ht="12.75">
+    <row r="1" spans="1:84" ht="14">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -6044,7 +6113,7 @@
       <c r="CE1" s="32"/>
       <c r="CF1" s="32"/>
     </row>
-    <row r="2" spans="1:84" ht="12.75">
+    <row r="2" spans="1:84" ht="14">
       <c r="A2" s="33" t="s">
         <v>170</v>
       </c>
@@ -6286,7 +6355,7 @@
       <c r="CE2" s="36"/>
       <c r="CF2" s="36"/>
     </row>
-    <row r="3" spans="1:84" ht="12.75">
+    <row r="3" spans="1:84" ht="14">
       <c r="A3" s="33" t="s">
         <v>2</v>
       </c>
@@ -6768,7 +6837,7 @@
       <c r="CE4" s="36"/>
       <c r="CF4" s="36"/>
     </row>
-    <row r="5" spans="1:84" ht="12.75">
+    <row r="5" spans="1:84" ht="14">
       <c r="A5" s="33" t="s">
         <v>235</v>
       </c>
@@ -7010,7 +7079,7 @@
       <c r="CE5" s="36"/>
       <c r="CF5" s="36"/>
     </row>
-    <row r="6" spans="1:84" ht="12.75">
+    <row r="6" spans="1:84" ht="14">
       <c r="A6" s="41" t="s">
         <v>242</v>
       </c>
@@ -7252,7 +7321,7 @@
       <c r="CE6" s="36"/>
       <c r="CF6" s="36"/>
     </row>
-    <row r="7" spans="1:84" ht="12.75">
+    <row r="7" spans="1:84" ht="14">
       <c r="A7" s="41" t="s">
         <v>250</v>
       </c>
@@ -7494,7 +7563,7 @@
       <c r="CE7" s="36"/>
       <c r="CF7" s="36"/>
     </row>
-    <row r="8" spans="1:84" ht="12.75">
+    <row r="8" spans="1:84" ht="14">
       <c r="A8" s="36" t="s">
         <v>258</v>
       </c>
@@ -7736,7 +7805,7 @@
       <c r="CE8" s="36"/>
       <c r="CF8" s="36"/>
     </row>
-    <row r="9" spans="1:84" ht="12.75">
+    <row r="9" spans="1:84" ht="14">
       <c r="A9" s="36" t="s">
         <v>273</v>
       </c>
@@ -7978,7 +8047,7 @@
       <c r="CE9" s="36"/>
       <c r="CF9" s="36"/>
     </row>
-    <row r="10" spans="1:84" ht="12.75">
+    <row r="10" spans="1:84" ht="14">
       <c r="A10" s="36" t="s">
         <v>284</v>
       </c>
@@ -8220,7 +8289,7 @@
       <c r="CE10" s="36"/>
       <c r="CF10" s="36"/>
     </row>
-    <row r="11" spans="1:84" ht="12.75">
+    <row r="11" spans="1:84" ht="14">
       <c r="A11" s="36" t="s">
         <v>291</v>
       </c>
@@ -8462,7 +8531,7 @@
       <c r="CE11" s="36"/>
       <c r="CF11" s="36"/>
     </row>
-    <row r="12" spans="1:84" ht="12.75">
+    <row r="12" spans="1:84" ht="14">
       <c r="A12" s="36" t="s">
         <v>309</v>
       </c>
@@ -8704,7 +8773,7 @@
       <c r="CE12" s="36"/>
       <c r="CF12" s="36"/>
     </row>
-    <row r="13" spans="1:84" ht="12.75">
+    <row r="13" spans="1:84" ht="14">
       <c r="A13" s="33" t="s">
         <v>316</v>
       </c>
@@ -8946,7 +9015,7 @@
       <c r="CE13" s="36"/>
       <c r="CF13" s="36"/>
     </row>
-    <row r="14" spans="1:84" ht="12.75">
+    <row r="14" spans="1:84" ht="14">
       <c r="A14" s="36" t="s">
         <v>329</v>
       </c>
@@ -9058,19 +9127,19 @@
       <c r="AK14" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="AL14" s="72" t="s">
+      <c r="AL14" s="69" t="s">
         <v>335</v>
       </c>
       <c r="AM14" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="AN14" s="72" t="s">
+      <c r="AN14" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="AO14" s="72" t="s">
+      <c r="AO14" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="AP14" s="72" t="s">
+      <c r="AP14" s="69" t="s">
         <v>344</v>
       </c>
       <c r="AQ14" s="42" t="s">
@@ -9103,10 +9172,10 @@
       <c r="AZ14" s="42" t="s">
         <v>348</v>
       </c>
-      <c r="BA14" s="72" t="s">
+      <c r="BA14" s="69" t="s">
         <v>349</v>
       </c>
-      <c r="BB14" s="72" t="s">
+      <c r="BB14" s="69" t="s">
         <v>184</v>
       </c>
       <c r="BC14" s="42" t="s">
@@ -9188,7 +9257,7 @@
       <c r="CE14" s="36"/>
       <c r="CF14" s="36"/>
     </row>
-    <row r="15" spans="1:84" ht="12.75">
+    <row r="15" spans="1:84" ht="14">
       <c r="A15" s="33" t="s">
         <v>352</v>
       </c>
@@ -9384,7 +9453,7 @@
       <c r="BM15" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="BN15" s="73" t="s">
+      <c r="BN15" s="70" t="s">
         <v>354</v>
       </c>
       <c r="BO15" s="33" t="s">
@@ -9430,301 +9499,301 @@
       <c r="CE15" s="36"/>
       <c r="CF15" s="36"/>
     </row>
-    <row r="16" spans="1:84" ht="15">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:84" ht="16">
+      <c r="A16" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="60" t="s">
         <v>315</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="61" t="s">
         <v>318</v>
       </c>
-      <c r="F16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="K16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="M16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="O16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="P16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q16" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="R16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="S16" s="65" t="s">
+      <c r="F16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="L16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="O16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="P16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="R16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="S16" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="T16" s="65" t="s">
+      <c r="T16" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="U16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="V16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="W16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="X16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ16" s="63" t="s">
+      <c r="U16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="V16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="W16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ16" s="60" t="s">
         <v>323</v>
       </c>
-      <c r="BK16" s="66" t="s">
+      <c r="BK16" s="63" t="s">
         <v>324</v>
       </c>
-      <c r="BL16" s="63" t="s">
+      <c r="BL16" s="60" t="s">
         <v>326</v>
       </c>
-      <c r="BM16" s="63" t="s">
+      <c r="BM16" s="60" t="s">
         <v>327</v>
       </c>
-      <c r="BN16" s="67" t="s">
+      <c r="BN16" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="BO16" s="68" t="s">
+      <c r="BO16" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="BP16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BR16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS16" s="69" t="s">
+      <c r="BP16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS16" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="BT16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU16" s="70" t="s">
+      <c r="BT16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU16" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="BV16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BX16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CA16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CB16" s="63" t="s">
+      <c r="BV16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BW16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB16" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="CC16" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD16" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE16" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF16" s="71" t="s">
+      <c r="CC16" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD16" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="CE16" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF16" s="68" t="s">
         <v>336</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg"/>
-    <hyperlink ref="O2" r:id="rId3"/>
-    <hyperlink ref="Q2" r:id="rId4"/>
-    <hyperlink ref="X2" r:id="rId5"/>
-    <hyperlink ref="AB2" r:id="rId6"/>
-    <hyperlink ref="F3" r:id="rId7"/>
-    <hyperlink ref="X3" r:id="rId8"/>
-    <hyperlink ref="F4" r:id="rId9"/>
-    <hyperlink ref="U4" r:id="rId10"/>
-    <hyperlink ref="F5" r:id="rId11"/>
-    <hyperlink ref="U5" r:id="rId12"/>
-    <hyperlink ref="F9" r:id="rId13"/>
-    <hyperlink ref="F10" r:id="rId14"/>
-    <hyperlink ref="F11" r:id="rId15"/>
-    <hyperlink ref="F12" r:id="rId16"/>
-    <hyperlink ref="F13" r:id="rId17"/>
-    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg"/>
-    <hyperlink ref="W13" r:id="rId19"/>
-    <hyperlink ref="F14" r:id="rId20"/>
-    <hyperlink ref="X14" r:id="rId21"/>
-    <hyperlink ref="AA14" r:id="rId22"/>
-    <hyperlink ref="AL14" r:id="rId23"/>
-    <hyperlink ref="AN14" r:id="rId24"/>
-    <hyperlink ref="AO14" r:id="rId25"/>
-    <hyperlink ref="AP14" r:id="rId26"/>
-    <hyperlink ref="BA14" r:id="rId27"/>
-    <hyperlink ref="F15" r:id="rId28"/>
-    <hyperlink ref="X15" r:id="rId29"/>
-    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg"/>
-    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;"/>
-    <hyperlink ref="BS16" r:id="rId32"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="Q2" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="X2" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="AB2" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="X3" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="U4" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="U5" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="F9" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="F11" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="F12" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="F13" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="I13" r:id="rId18" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="W13" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="F14" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="X14" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="AA14" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="AL14" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="AN14" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="AO14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="AP14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="BA14" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="F15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="X15" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="Q16" r:id="rId30" location="@lounge.jpg" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="BN16" r:id="rId31" location="@Ebay@#@23.50&amp;euro;@###@https://testing.xataka.com@#@Xataka@#@15,670&amp;euro;" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="BS16" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9732,7 +9801,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:78" ht="15.75" customHeight="1">
       <c r="A1" s="34" t="s">
@@ -10126,657 +10195,700 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
-    <hyperlink ref="J2" r:id="rId4"/>
-    <hyperlink ref="K2" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV"/>
-    <hyperlink ref="W3" r:id="rId7"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="K2" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" location="#@http://www.amazon.in/Forzza-Daniel-Large-Finish-Wenge/dp/B01ELJQSS8@##@http://www.amazon.in/Nubia-Z11-Mini-Gold/dp/B01N6MTTV8@##@http://www.amazon.in/Samsung-Z2-SM-Z200F-Gold-8GB/dp/B01LW4PPFV" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="W3" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CP2"/>
+  <dimension ref="A1:CX2"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" workbookViewId="0">
-      <selection activeCell="CK2" sqref="CK2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="85" max="85" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="35.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" ht="63">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:102" ht="35" customHeight="1">
+      <c r="A1" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="55" t="s">
+      <c r="D1" s="135" t="s">
+        <v>597</v>
+      </c>
+      <c r="E1" s="135" t="s">
+        <v>598</v>
+      </c>
+      <c r="F1" s="135" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="H1" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="I1" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="J1" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="K1" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="54" t="s">
+      <c r="L1" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="54" t="s">
+      <c r="M1" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="54" t="s">
+      <c r="N1" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="54" t="s">
+      <c r="O1" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="54" t="s">
+      <c r="P1" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="54" t="s">
+      <c r="Q1" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="R1" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="54" t="s">
+      <c r="S1" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="54" t="s">
+      <c r="T1" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="54" t="s">
+      <c r="U1" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="54" t="s">
+      <c r="V1" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="54" t="s">
+      <c r="W1" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="X1" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="Y1" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="Z1" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="54" t="s">
+      <c r="AA1" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="AB1" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="54" t="s">
+      <c r="AC1" s="135" t="s">
+        <v>600</v>
+      </c>
+      <c r="AD1" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AE1" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="54" t="s">
+      <c r="AF1" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AG1" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AH1" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AI1" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="AG1" s="55" t="s">
+      <c r="AJ1" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="AH1" s="55" t="s">
+      <c r="AK1" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="AI1" s="55" t="s">
+      <c r="AL1" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="AJ1" s="55" t="s">
+      <c r="AM1" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="AK1" s="55" t="s">
+      <c r="AN1" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="AL1" s="55" t="s">
+      <c r="AO1" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="AM1" s="55" t="s">
+      <c r="AP1" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="AN1" s="55" t="s">
+      <c r="AQ1" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="AO1" s="55" t="s">
+      <c r="AR1" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="AP1" s="55" t="s">
+      <c r="AS1" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="AQ1" s="55" t="s">
+      <c r="AT1" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="AR1" s="55" t="s">
+      <c r="AU1" s="135" t="s">
         <v>138</v>
       </c>
-      <c r="AS1" s="55" t="s">
+      <c r="AV1" s="135" t="s">
         <v>139</v>
       </c>
-      <c r="AT1" s="55" t="s">
+      <c r="AW1" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="AU1" s="55" t="s">
+      <c r="AX1" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="AV1" s="55" t="s">
+      <c r="AY1" s="135" t="s">
         <v>142</v>
       </c>
-      <c r="AW1" s="55" t="s">
+      <c r="AZ1" s="135" t="s">
         <v>143</v>
       </c>
-      <c r="AX1" s="55" t="s">
+      <c r="BA1" s="135" t="s">
         <v>144</v>
       </c>
-      <c r="AY1" s="55" t="s">
+      <c r="BB1" s="135" t="s">
         <v>145</v>
       </c>
-      <c r="AZ1" s="55" t="s">
+      <c r="BC1" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="BA1" s="55" t="s">
+      <c r="BD1" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="BB1" s="55" t="s">
+      <c r="BE1" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="BC1" s="55" t="s">
+      <c r="BF1" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="BD1" s="55" t="s">
+      <c r="BG1" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="BE1" s="55" t="s">
+      <c r="BH1" s="135" t="s">
         <v>151</v>
       </c>
-      <c r="BF1" s="55" t="s">
+      <c r="BI1" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="BG1" s="55" t="s">
+      <c r="BJ1" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="BH1" s="55" t="s">
+      <c r="BK1" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="BI1" s="55" t="s">
+      <c r="BL1" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="BJ1" s="55" t="s">
+      <c r="BM1" s="135" t="s">
         <v>293</v>
       </c>
-      <c r="BK1" s="55" t="s">
+      <c r="BN1" s="135" t="s">
         <v>294</v>
       </c>
-      <c r="BL1" s="55" t="s">
+      <c r="BO1" s="135" t="s">
         <v>295</v>
       </c>
-      <c r="BM1" s="55" t="s">
+      <c r="BP1" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="BN1" s="55" t="s">
+      <c r="BQ1" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="BO1" s="58" t="s">
+      <c r="BR1" s="135" t="s">
         <v>298</v>
       </c>
-      <c r="BP1" s="55" t="s">
+      <c r="BS1" s="135" t="s">
         <v>156</v>
       </c>
-      <c r="BQ1" s="55" t="s">
+      <c r="BT1" s="135" t="s">
         <v>157</v>
       </c>
-      <c r="BR1" s="55" t="s">
+      <c r="BU1" s="135" t="s">
         <v>158</v>
       </c>
-      <c r="BS1" s="55" t="s">
+      <c r="BV1" s="135" t="s">
+        <v>601</v>
+      </c>
+      <c r="BW1" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="BT1" s="55" t="s">
+      <c r="BX1" s="135" t="s">
         <v>159</v>
       </c>
-      <c r="BU1" s="55" t="s">
+      <c r="BY1" s="135" t="s">
         <v>47</v>
       </c>
-      <c r="BV1" s="55" t="s">
+      <c r="BZ1" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="BW1" s="55" t="s">
+      <c r="CA1" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="BX1" s="55" t="s">
+      <c r="CB1" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="BY1" s="55" t="s">
+      <c r="CC1" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="BZ1" s="55" t="s">
+      <c r="CD1" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="CA1" s="55" t="s">
+      <c r="CE1" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="CB1" s="55" t="s">
+      <c r="CF1" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="CC1" s="55" t="s">
+      <c r="CG1" s="135" t="s">
+        <v>602</v>
+      </c>
+      <c r="CH1" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="CD1" s="55" t="s">
+      <c r="CI1" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="CE1" s="55" t="s">
+      <c r="CJ1" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="CF1" s="55" t="s">
+      <c r="CK1" s="135" t="s">
         <v>304</v>
       </c>
-      <c r="CG1" s="58" t="s">
+      <c r="CL1" s="135" t="s">
         <v>305</v>
       </c>
-      <c r="CH1" s="58" t="s">
+      <c r="CM1" s="135" t="s">
         <v>306</v>
       </c>
-      <c r="CI1" s="119" t="s">
+      <c r="CN1" s="135" t="s">
+        <v>582</v>
+      </c>
+      <c r="CO1" s="135" t="s">
+        <v>583</v>
+      </c>
+      <c r="CP1" s="135" t="s">
+        <v>584</v>
+      </c>
+      <c r="CQ1" s="135" t="s">
         <v>585</v>
       </c>
-      <c r="CJ1" s="119" t="s">
+      <c r="CR1" s="135" t="s">
         <v>586</v>
       </c>
-      <c r="CK1" s="55" t="s">
+      <c r="CS1" s="135" t="s">
         <v>587</v>
       </c>
-      <c r="CL1" s="55" t="s">
+      <c r="CT1" s="135" t="s">
         <v>588</v>
       </c>
-      <c r="CM1" s="55" t="s">
+      <c r="CU1" s="135" t="s">
         <v>589</v>
       </c>
-      <c r="CN1" s="55" t="s">
+      <c r="CV1" s="135" t="s">
+        <v>603</v>
+      </c>
+      <c r="CW1" s="135" t="s">
+        <v>604</v>
+      </c>
+      <c r="CX1" s="135" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102" ht="15.75" customHeight="1">
+      <c r="A2" s="128" t="s">
+        <v>606</v>
+      </c>
+      <c r="B2" s="129" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>449</v>
+      </c>
+      <c r="E2" s="130" t="s">
+        <v>608</v>
+      </c>
+      <c r="F2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="131" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2" s="129" t="s">
+        <v>609</v>
+      </c>
+      <c r="V2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="W2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z2" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="129" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD2" s="132" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE2" s="129" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AP2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AQ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AX2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BA2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BC2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BE2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BF2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BJ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BQ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BR2" s="129" t="s">
+        <v>613</v>
+      </c>
+      <c r="BS2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BT2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BU2" s="133" t="s">
+        <v>614</v>
+      </c>
+      <c r="BV2" s="129" t="s">
+        <v>615</v>
+      </c>
+      <c r="BW2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BX2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CA2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CE2" s="132" t="s">
+        <v>616</v>
+      </c>
+      <c r="CF2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CH2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CI2" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="CJ2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CK2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CL2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CM2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CN2" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="CO2" s="129" t="s">
+        <v>198</v>
+      </c>
+      <c r="CP2" s="129" t="s">
         <v>590</v>
       </c>
-      <c r="CO1" s="55" t="s">
+      <c r="CQ2" s="129" t="s">
         <v>591</v>
       </c>
-      <c r="CP1" s="55" t="s">
+      <c r="CR2" s="130" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="2" spans="1:94" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="104" t="s">
-        <v>578</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="V2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AI2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AN2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AO2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AX2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BC2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BE2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BF2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BG2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ2" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="BK2" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="BL2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN2" s="104" t="s">
-        <v>577</v>
-      </c>
-      <c r="BO2" s="103" t="s">
-        <v>177</v>
-      </c>
-      <c r="BP2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BQ2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BR2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS2" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="BT2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BU2" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BW2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BX2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BY2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CA2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CB2" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="CC2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="CE2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="CG2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="CH2" s="71" t="s">
-        <v>177</v>
-      </c>
-      <c r="CI2" s="120" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ2" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="CK2" s="121" t="s">
+      <c r="CS2" s="129" t="s">
         <v>593</v>
       </c>
-      <c r="CL2" s="120" t="s">
+      <c r="CT2" s="129" t="s">
+        <v>595</v>
+      </c>
+      <c r="CU2" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="CM2" s="122" t="s">
-        <v>595</v>
-      </c>
-      <c r="CN2" s="123" t="s">
-        <v>596</v>
-      </c>
-      <c r="CO2" s="121" t="s">
-        <v>598</v>
-      </c>
-      <c r="CP2" s="121" t="s">
-        <v>597</v>
+      <c r="CV2" s="134" t="s">
+        <v>617</v>
+      </c>
+      <c r="CW2" s="129" t="s">
+        <v>618</v>
+      </c>
+      <c r="CX2" s="130" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" location="@lounge.jpg"/>
-    <hyperlink ref="BS2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="CM2" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="20" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
     <col min="13" max="14" width="18" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="13.83203125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.33203125" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="24" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="27.5" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="19" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="14" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.1640625" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.1640625" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="14.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="106" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:38" s="102" customFormat="1" ht="45" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>16</v>
       </c>
@@ -10825,193 +10937,193 @@
       <c r="P1" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="56" t="s">
+      <c r="Q1" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="105" t="s">
+      <c r="S1" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="U1" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="V1" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="W1" s="56" t="s">
+      <c r="W1" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="Y1" s="56" t="s">
+      <c r="Y1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="56" t="s">
+      <c r="Z1" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AA1" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="56" t="s">
+      <c r="AB1" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="AC1" s="56" t="s">
+      <c r="AC1" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="AD1" s="56" t="s">
+      <c r="AD1" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="AE1" s="56" t="s">
+      <c r="AE1" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="AF1" s="56" t="s">
+      <c r="AF1" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" s="56" t="s">
+      <c r="AG1" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="AH1" s="56" t="s">
+      <c r="AH1" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="AI1" s="56" t="s">
+      <c r="AI1" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="AJ1" s="56" t="s">
+      <c r="AJ1" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="AK1" s="56" t="s">
+      <c r="AK1" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="AL1" s="56" t="s">
+      <c r="AL1" s="55" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="15.75" customHeight="1">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="57" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="60" t="s">
         <v>579</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="D2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="103" t="s">
+        <v>581</v>
+      </c>
+      <c r="H2" s="62" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="G2" s="107" t="s">
-        <v>584</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>583</v>
-      </c>
-      <c r="I2" s="136" t="s">
-        <v>581</v>
-      </c>
-      <c r="J2" s="63" t="s">
-        <v>599</v>
-      </c>
-      <c r="K2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="L2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="P2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="V2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y2" s="69" t="s">
+      <c r="I2" s="115" t="s">
+        <v>578</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>596</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="P2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="R2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="S2" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="U2" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="W2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA2" s="70" t="s">
+      <c r="Z2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA2" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="AB2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" s="63" t="s">
+      <c r="AB2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH2" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="AI2" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="AJ2" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="AL2" s="71" t="s">
+      <c r="AI2" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ2" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK2" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL2" s="68" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU"/>
+    <hyperlink ref="Y2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" display="https://www.youtube.com/embed/Ce7dDso0TfU" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11019,7 +11131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11027,7 +11139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="51" t="s">
@@ -11079,17 +11191,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -11097,25 +11209,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="116" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118"/>
       <c r="I1" s="25"/>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -11124,28 +11236,28 @@
       <c r="N1" s="25"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>406</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="77" t="s">
         <v>428</v>
       </c>
       <c r="I2" s="25"/>
@@ -11153,33 +11265,33 @@
       <c r="K2" s="25"/>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="79" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="80">
         <v>1</v>
       </c>
-      <c r="D3" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H3" s="84" t="s">
+      <c r="D3" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I3" s="25"/>
@@ -11187,33 +11299,33 @@
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
       <c r="M3" s="25"/>
-      <c r="N3" s="82" t="s">
+      <c r="N3" s="79" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="80">
         <v>0</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="84" t="s">
+      <c r="D4" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I4" s="25"/>
@@ -11221,33 +11333,33 @@
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="79" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="79" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="82">
         <v>3</v>
       </c>
-      <c r="D5" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="84" t="s">
+      <c r="D5" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I5" s="25"/>
@@ -11255,33 +11367,33 @@
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="82" t="s">
+      <c r="N5" s="79" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="83">
+      <c r="C6" s="80">
         <v>15</v>
       </c>
-      <c r="D6" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H6" s="84" t="s">
+      <c r="D6" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H6" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I6" s="25"/>
@@ -11289,33 +11401,33 @@
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="79" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="83">
+      <c r="C7" s="80">
         <v>5</v>
       </c>
-      <c r="D7" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="84" t="s">
+      <c r="D7" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I7" s="25"/>
@@ -11323,31 +11435,31 @@
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
-      <c r="N7" s="82" t="s">
+      <c r="N7" s="79" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="79" t="s">
         <v>448</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="84" t="s">
+      <c r="C8" s="83"/>
+      <c r="D8" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I8" s="25"/>
@@ -11355,79 +11467,79 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="79" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="79" t="s">
         <v>449</v>
       </c>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="80">
         <v>4</v>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="79" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="79" t="s">
         <v>454</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
-      <c r="N10" s="82" t="s">
+      <c r="N10" s="79" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="79" t="s">
         <v>455</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="80">
         <v>17</v>
       </c>
-      <c r="D11" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="84" t="s">
+      <c r="D11" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I11" s="25"/>
@@ -11435,33 +11547,33 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="80">
         <v>18</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="84" t="s">
+      <c r="D12" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I12" s="25"/>
@@ -11469,31 +11581,31 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="82" t="s">
+      <c r="N12" s="79" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="79" t="s">
         <v>458</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="84" t="s">
+      <c r="C13" s="83"/>
+      <c r="D13" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I13" s="25"/>
@@ -11501,31 +11613,31 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="82" t="s">
+      <c r="N13" s="79" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="79" t="s">
         <v>460</v>
       </c>
-      <c r="B14" s="82" t="s">
+      <c r="B14" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E14" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="84" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I14" s="25"/>
@@ -11533,33 +11645,33 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="82" t="s">
+      <c r="N14" s="79" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="80">
         <v>2</v>
       </c>
-      <c r="D15" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H15" s="84" t="s">
+      <c r="D15" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I15" s="25"/>
@@ -11567,51 +11679,51 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="79" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="79" t="s">
         <v>461</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="82" t="s">
+      <c r="N16" s="79" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="79" t="s">
         <v>462</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H17" s="84" t="s">
+      <c r="C17" s="83"/>
+      <c r="D17" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I17" s="25"/>
@@ -11619,51 +11731,51 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="82" t="s">
+      <c r="N17" s="79" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="79" t="s">
         <v>463</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="82" t="s">
+      <c r="N18" s="79" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="85" t="s">
         <v>464</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="83">
+      <c r="B19" s="83"/>
+      <c r="C19" s="80">
         <v>11</v>
       </c>
-      <c r="D19" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F19" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="84" t="s">
+      <c r="D19" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H19" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I19" s="25"/>
@@ -11671,31 +11783,31 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="82" t="s">
+      <c r="N19" s="79" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A20" s="82" t="s">
+      <c r="A20" s="79" t="s">
         <v>469</v>
       </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="83">
+      <c r="B20" s="83"/>
+      <c r="C20" s="80">
         <v>12</v>
       </c>
-      <c r="D20" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="84" t="s">
+      <c r="D20" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H20" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I20" s="25"/>
@@ -11703,53 +11815,53 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="82" t="s">
+      <c r="N20" s="79" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="82" t="s">
+      <c r="N21" s="79" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="79" t="s">
         <v>476</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="C22" s="83">
+      <c r="C22" s="80">
         <v>9</v>
       </c>
-      <c r="D22" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F22" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="84" t="s">
+      <c r="D22" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I22" s="25"/>
@@ -11757,31 +11869,31 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="82" t="s">
+      <c r="N22" s="79" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="82" t="s">
+      <c r="A23" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="83">
+      <c r="B23" s="83"/>
+      <c r="C23" s="80">
         <v>10</v>
       </c>
-      <c r="D23" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F23" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="84" t="s">
+      <c r="D23" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I23" s="25"/>
@@ -11789,27 +11901,27 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="86"/>
+      <c r="N23" s="83"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A24" s="82" t="s">
+      <c r="A24" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="84" t="s">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I24" s="25"/>
@@ -11820,24 +11932,24 @@
       <c r="N24" s="25"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="79" t="s">
         <v>481</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E25" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F25" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H25" s="84" t="s">
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I25" s="25"/>
@@ -11848,24 +11960,24 @@
       <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="79" t="s">
         <v>485</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F26" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="84" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I26" s="25"/>
@@ -11876,28 +11988,28 @@
       <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A27" s="82" t="s">
+      <c r="A27" s="79" t="s">
         <v>486</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="79" t="s">
         <v>487</v>
       </c>
-      <c r="C27" s="83">
+      <c r="C27" s="80">
         <v>13</v>
       </c>
-      <c r="D27" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H27" s="84" t="s">
+      <c r="D27" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I27" s="25"/>
@@ -11908,24 +12020,24 @@
       <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="79" t="s">
         <v>488</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G28" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H28" s="84" t="s">
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H28" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I28" s="25"/>
@@ -11936,24 +12048,24 @@
       <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="79" t="s">
         <v>489</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F29" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="84" t="s">
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I29" s="25"/>
@@ -11964,24 +12076,24 @@
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>490</v>
       </c>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F30" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="84" t="s">
+      <c r="B30" s="83"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I30" s="25"/>
@@ -11992,24 +12104,24 @@
       <c r="N30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A31" s="82" t="s">
+      <c r="A31" s="79" t="s">
         <v>491</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F31" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="H31" s="84" t="s">
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="81" t="s">
         <v>198</v>
       </c>
       <c r="I31" s="25"/>
@@ -12020,24 +12132,24 @@
       <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="79" t="s">
         <v>492</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="84" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="84" t="s">
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="81" t="s">
         <v>179</v>
       </c>
       <c r="I32" s="25"/>
@@ -12056,7 +12168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12066,1429 +12178,1429 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="130" t="s">
+      <c r="E1" s="122" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="132" t="s">
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="124" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134" t="s">
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="126" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="127" t="s">
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="119" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="129"/>
-      <c r="U1" s="135" t="s">
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="127" t="s">
         <v>533</v>
       </c>
-      <c r="V1" s="128"/>
-      <c r="W1" s="128"/>
-      <c r="X1" s="129"/>
-      <c r="Y1" s="127" t="s">
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="119" t="s">
         <v>535</v>
       </c>
-      <c r="Z1" s="128"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="121"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>513</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="97" t="s">
         <v>536</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="97" t="s">
         <v>537</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="97" t="s">
         <v>538</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="97" t="s">
         <v>539</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="98" t="s">
         <v>541</v>
       </c>
-      <c r="K2" s="101" t="s">
+      <c r="K2" s="98" t="s">
         <v>542</v>
       </c>
-      <c r="L2" s="101" t="s">
+      <c r="L2" s="98" t="s">
         <v>543</v>
       </c>
-      <c r="M2" s="100" t="s">
+      <c r="M2" s="97" t="s">
         <v>544</v>
       </c>
-      <c r="N2" s="100" t="s">
+      <c r="N2" s="97" t="s">
         <v>545</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="97" t="s">
         <v>546</v>
       </c>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="97" t="s">
         <v>547</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="98" t="s">
         <v>549</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="U2" s="102" t="s">
+      <c r="U2" s="99" t="s">
         <v>552</v>
       </c>
-      <c r="V2" s="102" t="s">
+      <c r="V2" s="99" t="s">
         <v>553</v>
       </c>
-      <c r="W2" s="102" t="s">
+      <c r="W2" s="99" t="s">
         <v>554</v>
       </c>
-      <c r="X2" s="102" t="s">
+      <c r="X2" s="99" t="s">
         <v>555</v>
       </c>
-      <c r="Y2" s="101" t="s">
+      <c r="Y2" s="98" t="s">
         <v>556</v>
       </c>
-      <c r="Z2" s="101" t="s">
+      <c r="Z2" s="98" t="s">
         <v>557</v>
       </c>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="AB2" s="101" t="s">
+      <c r="AB2" s="98" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="D3" s="109" t="s">
+      <c r="D3" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J3" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N3" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X3" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB3" s="111" t="s">
+      <c r="E3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N3" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB3" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="105" t="s">
         <v>564</v>
       </c>
-      <c r="E4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N4" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V4" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA4" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB4" s="111" t="s">
+      <c r="E4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X4" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA4" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB4" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N5" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V5" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X5" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA5" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB5" s="111" t="s">
+      <c r="E5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V5" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z5" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA5" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB5" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="104" t="s">
         <v>560</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="E6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J6" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W6" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X6" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA6" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB6" s="111" t="s">
+      <c r="E6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J6" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U6" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W6" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X6" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB6" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="104" t="s">
         <v>569</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="104" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="E7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N7" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V7" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X7" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA7" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB7" s="111" t="s">
+      <c r="E7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N7" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U7" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V7" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X7" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA7" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="104" t="s">
         <v>571</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N8" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P8" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V8" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X8" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z8" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="111" t="s">
+      <c r="E8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U8" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V8" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X8" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z8" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="110" t="s">
         <v>571</v>
       </c>
-      <c r="B9" s="114" t="s">
+      <c r="B9" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="110" t="s">
         <v>563</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="111" t="s">
         <v>564</v>
       </c>
-      <c r="E9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="L9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="O9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="S9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="T9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="U9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="V9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="W9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z9" s="116" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA9" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB9" s="116" t="s">
+      <c r="E9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="S9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="T9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="U9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="V9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z9" s="112" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA9" s="113" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB9" s="112" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="104" t="s">
         <v>571</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="105" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N10" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V10" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z10" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA10" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB10" s="111" t="s">
+      <c r="E10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N10" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U10" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X10" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z10" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA10" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB10" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="104" t="s">
         <v>571</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N11" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P11" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q11" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" s="118" t="s">
-        <v>179</v>
-      </c>
-      <c r="S11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V11" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X11" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z11" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA11" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB11" s="111" t="s">
+      <c r="E11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I11" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N11" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="S11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U11" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB11" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="J12" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="N12" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P12" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W12" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X12" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA12" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB12" s="111" t="s">
+      <c r="E12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W12" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="X12" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA12" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB12" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="104" t="s">
         <v>573</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="104" t="s">
         <v>567</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="105" t="s">
         <v>570</v>
       </c>
-      <c r="E13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W13" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA13" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB13" s="111" t="s">
+      <c r="E13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W13" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA13" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB13" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="108" t="s">
+      <c r="A14" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J14" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N14" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P14" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V14" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X14" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA14" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB14" s="111" t="s">
+      <c r="E14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N14" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U14" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V14" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X14" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB14" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="108" t="s">
+      <c r="A15" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="105" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J15" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N15" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P15" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V15" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X15" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA15" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB15" s="111" t="s">
+      <c r="E15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P15" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U15" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V15" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA15" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB15" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="105" t="s">
         <v>566</v>
       </c>
-      <c r="E16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N16" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P16" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="R16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V16" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="X16" s="112" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA16" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB16" s="111" t="s">
+      <c r="E16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P16" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="X16" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z16" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB16" s="107" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="104" t="s">
         <v>575</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="105" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="F17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="H17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="I17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="J17" s="111" t="s">
-        <v>198</v>
-      </c>
-      <c r="K17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="N17" s="110" t="s">
-        <v>198</v>
-      </c>
-      <c r="O17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="P17" s="110" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="R17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="S17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="T17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="U17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="V17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="W17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="X17" s="112" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA17" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB17" s="111" t="s">
+      <c r="E17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="I17" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="106" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="R17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="S17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="T17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="U17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="W17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA17" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB17" s="107" t="s">
         <v>179</v>
       </c>
     </row>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7BE4D2C-D03B-DB4F-AC6C-16FA31AE9A8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{695A6EC4-7AE0-E345-AD40-2F3157D82E11}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="12700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9303,7 +9303,7 @@
   <dimension ref="A1:DE2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
-      <selection activeCell="CZ14" sqref="CZ14"/>
+      <selection activeCell="CZ2" sqref="CZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{26322C97-18B9-FF4F-91F1-2EF3129435F6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BC02179-8679-EF48-8865-CC028762CF96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,9 +1538,6 @@
   </si>
   <si>
     <t>Automated CF post</t>
-  </si>
-  <si>
-    <t>Llevamos años hablando sobre la revolución de la carne de mentira</t>
   </si>
   <si>
     <t>Esto ha levantado todo tipo de comentarios sumario</t>
@@ -1987,6 +1984,9 @@
   </si>
   <si>
     <t>Destacado</t>
+  </si>
+  <si>
+    <t>Llevamos años hablando sobre la revolución de la carne de mentira.</t>
   </si>
 </sst>
 </file>
@@ -3124,6 +3124,9 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3131,9 +3134,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4469,132 +4469,132 @@
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="136" t="s">
         <v>590</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="137" t="s">
         <v>591</v>
       </c>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="136" t="s">
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="138" t="s">
         <v>592</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="137" t="s">
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="135" t="s">
         <v>593</v>
       </c>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="138" t="s">
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="139" t="s">
         <v>594</v>
-      </c>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="139" t="s">
-        <v>595</v>
       </c>
       <c r="U1" s="139"/>
       <c r="V1" s="139"/>
       <c r="W1" s="139"/>
-      <c r="X1" s="138" t="s">
-        <v>596</v>
-      </c>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
+      <c r="X1" s="135" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="D2" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -9309,7 +9309,7 @@
   <dimension ref="A1:DD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -9661,7 +9661,7 @@
         <v>502</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>503</v>
+        <v>636</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>341</v>
@@ -9676,7 +9676,7 @@
         <v>339</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I2" s="53" t="s">
         <v>341</v>
@@ -9712,10 +9712,10 @@
         <v>341</v>
       </c>
       <c r="T2" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="U2" s="57" t="s">
         <v>504</v>
-      </c>
-      <c r="U2" s="57" t="s">
-        <v>505</v>
       </c>
       <c r="V2" s="53" t="s">
         <v>341</v>
@@ -9736,247 +9736,247 @@
         <v>341</v>
       </c>
       <c r="AB2" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="AC2" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="AC2" s="59" t="s">
+      <c r="AD2" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AE2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BO2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BQ2" s="53" t="s">
         <v>508</v>
       </c>
-      <c r="AE2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="AZ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BL2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BO2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BQ2" s="53" t="s">
+      <c r="BR2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BT2" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="BR2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BS2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT2" s="60" t="s">
+      <c r="BU2" s="53" t="s">
         <v>510</v>
       </c>
-      <c r="BU2" s="53" t="s">
+      <c r="BV2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BW2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BX2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="BZ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CA2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CB2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CC2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CD2" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="BV2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BW2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BX2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="BZ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CA2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CB2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CC2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CD2" s="59" t="s">
+      <c r="CE2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CF2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CJ2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CK2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CM2" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN2" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="CO2" s="53" t="s">
         <v>512</v>
       </c>
-      <c r="CE2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CF2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CG2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH2" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="CI2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CJ2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CK2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CL2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CM2" s="53" t="s">
-        <v>341</v>
-      </c>
-      <c r="CN2" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="CO2" s="53" t="s">
+      <c r="CP2" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="CP2" s="53" t="s">
+      <c r="CQ2" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="CQ2" s="58" t="s">
+      <c r="CR2" s="53" t="s">
         <v>515</v>
       </c>
-      <c r="CR2" s="53" t="s">
+      <c r="CS2" s="53" t="s">
         <v>516</v>
       </c>
-      <c r="CS2" s="53" t="s">
+      <c r="CT2" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="CT2" s="53" t="s">
+      <c r="CU2" s="62" t="s">
         <v>518</v>
       </c>
-      <c r="CU2" s="62" t="s">
+      <c r="CV2" s="55" t="s">
         <v>519</v>
       </c>
-      <c r="CV2" s="55" t="s">
+      <c r="CW2" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="CW2" s="58" t="s">
+      <c r="CX2" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="CY2" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="CX2" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="CY2" s="64" t="s">
+      <c r="CZ2" s="65" t="s">
         <v>522</v>
       </c>
-      <c r="CZ2" s="65" t="s">
+      <c r="DA2" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="DB2" s="67" t="s">
         <v>523</v>
       </c>
-      <c r="DA2" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="DB2" s="67" t="s">
+      <c r="DC2" s="66" t="s">
         <v>524</v>
       </c>
-      <c r="DC2" s="66" t="s">
+      <c r="DD2" s="66" t="s">
         <v>525</v>
-      </c>
-      <c r="DD2" s="66" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -10147,42 +10147,42 @@
         <v>480</v>
       </c>
       <c r="AM1" s="45" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN1" s="45" t="s">
         <v>527</v>
-      </c>
-      <c r="AN1" s="45" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15.75" customHeight="1">
       <c r="A2" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="38" t="s">
+      <c r="H2" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="J2" s="36" t="s">
         <v>534</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>535</v>
       </c>
       <c r="K2" s="36" t="s">
         <v>341</v>
@@ -10269,10 +10269,10 @@
         <v>341</v>
       </c>
       <c r="AM2" s="46" t="s">
+        <v>535</v>
+      </c>
+      <c r="AN2" s="47" t="s">
         <v>536</v>
-      </c>
-      <c r="AN2" s="47" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -10299,31 +10299,31 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>538</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="31" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>540</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B4" s="30">
         <v>123456</v>
@@ -10331,18 +10331,18 @@
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="31" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>544</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>546</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -10370,16 +10370,16 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>260</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="134" t="s">
         <v>549</v>
-      </c>
-      <c r="D1" s="134" t="s">
-        <v>550</v>
       </c>
       <c r="E1" s="134"/>
       <c r="F1" s="134"/>
@@ -10394,28 +10394,28 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>260</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>553</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
@@ -10462,10 +10462,10 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1">
       <c r="A4" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>556</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>557</v>
       </c>
       <c r="C4" s="21">
         <v>0</v>
@@ -10496,10 +10496,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C5" s="23">
         <v>3</v>
@@ -10530,10 +10530,10 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C6" s="21">
         <v>15</v>
@@ -10564,7 +10564,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>15</v>
@@ -10598,10 +10598,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="22" t="s">
@@ -10630,7 +10630,7 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>15</v>
@@ -10654,10 +10654,10 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>15</v>
@@ -10710,10 +10710,10 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C12" s="21">
         <v>18</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>15</v>
@@ -10776,10 +10776,10 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="22" t="s">
@@ -10842,7 +10842,7 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -10862,7 +10862,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>15</v>
@@ -10894,7 +10894,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -10914,7 +10914,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1">
       <c r="A19" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="21">
@@ -10946,7 +10946,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="21">
@@ -10978,7 +10978,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="27"/>
@@ -10998,10 +10998,10 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1">
       <c r="A22" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>574</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>575</v>
       </c>
       <c r="C22" s="21">
         <v>9</v>
@@ -11032,7 +11032,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="21">
@@ -11062,7 +11062,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
@@ -11146,10 +11146,10 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1">
       <c r="A27" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>580</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>581</v>
       </c>
       <c r="C27" s="21">
         <v>13</v>
@@ -11178,7 +11178,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -11206,7 +11206,7 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
@@ -11234,7 +11234,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -11290,7 +11290,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -11340,149 +11340,149 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="136" t="s">
         <v>590</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="137" t="s">
         <v>591</v>
       </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="136" t="s">
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="138" t="s">
         <v>592</v>
       </c>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137" t="s">
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="135" t="s">
         <v>593</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="138" t="s">
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
+      <c r="U1" s="139" t="s">
         <v>594</v>
-      </c>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="139" t="s">
-        <v>595</v>
       </c>
       <c r="V1" s="139"/>
       <c r="W1" s="139"/>
       <c r="X1" s="139"/>
-      <c r="Y1" s="138" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
+      <c r="Y1" s="135" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z1" s="135"/>
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
       <c r="A3" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>332</v>
@@ -11562,16 +11562,16 @@
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="C4" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>625</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>22</v>
@@ -11648,16 +11648,16 @@
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
       <c r="A5" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="C5" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>22</v>
@@ -11734,16 +11734,16 @@
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>622</v>
-      </c>
       <c r="C6" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>629</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>22</v>
@@ -11820,16 +11820,16 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
       <c r="A7" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>630</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>622</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>631</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>22</v>
@@ -11906,13 +11906,13 @@
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>332</v>
@@ -11990,16 +11990,16 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>334</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>624</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>625</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>31</v>
@@ -12076,16 +12076,16 @@
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>22</v>
@@ -12162,16 +12162,16 @@
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>334</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>22</v>
@@ -12248,16 +12248,16 @@
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>332</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>22</v>
@@ -12334,16 +12334,16 @@
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>332</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>22</v>
@@ -12426,7 +12426,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>332</v>
@@ -12512,10 +12512,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>22</v>
@@ -12598,10 +12598,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>627</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>22</v>
@@ -12684,10 +12684,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>22</v>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isha/git/Automation/Aml_automation/src/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2BC02179-8679-EF48-8865-CC028762CF96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EACA2D5-D583-9747-8420-123117CD652A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23040" windowHeight="9200" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1986,7 +1986,7 @@
     <t>Destacado</t>
   </si>
   <si>
-    <t>Llevamos años hablando sobre la revolución de la carne de mentira.</t>
+    <t>Llevamos años hablando sobre la revolución de la carne de mentira…</t>
   </si>
 </sst>
 </file>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634">
   <si>
     <t>Blog Name</t>
   </si>
@@ -1475,9 +1475,6 @@
   </si>
   <si>
     <t>Publish_to_homepage_checkbox</t>
-  </si>
-  <si>
-    <t>hook</t>
   </si>
   <si>
     <t>hookCustomerLogo</t>
@@ -1641,10 +1638,10 @@
     <t>http://www.sensacine.com/noticias/</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Nuevo tráiler de 'Instinto', el 'thriller' erótico protagonizado por Mario Casas que está a punto de estrenar Movistar</t>
+    <t>Samsung plus</t>
+  </si>
+  <si>
+    <t>Nuevo tráiler de 'Instinto', el 'thriller' erótico protagonizado por Mario Casas.</t>
   </si>
   <si>
     <t>GIf_link</t>
@@ -1982,9 +1979,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="62">
@@ -2274,7 +2271,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,13 +2317,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2310,38 +2338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2356,8 +2354,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2386,17 +2392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2501,7 +2498,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,13 +2576,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,7 +2594,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2549,61 +2660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2615,73 +2678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3046,6 +3043,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3057,6 +3063,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3081,15 +3102,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3128,164 +3140,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="20" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="32" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="46" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="19" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="35" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="35" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5065,46 +5062,46 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Y1" s="9"/>
       <c r="Z1" s="9"/>
@@ -5112,85 +5109,85 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:27">
       <c r="A2" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="D2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="3" ht="13.5"/>
@@ -9916,10 +9913,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DB2"/>
+  <dimension ref="A1:DA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2"/>
+    <sheetView tabSelected="1" topLeftCell="CN1" workbookViewId="0">
+      <selection activeCell="CZ8" sqref="CZ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -9927,16 +9924,16 @@
     <col min="1" max="84" width="14.5047619047619" style="53" customWidth="1"/>
     <col min="85" max="85" width="27.5047619047619" style="53" customWidth="1"/>
     <col min="86" max="86" width="35.6666666666667" style="53" customWidth="1"/>
-    <col min="87" max="101" width="14.5047619047619" style="53" customWidth="1"/>
-    <col min="102" max="102" width="10.8285714285714" style="53" customWidth="1"/>
-    <col min="103" max="103" width="51.3333333333333" style="53" customWidth="1"/>
-    <col min="104" max="104" width="21.5047619047619" style="53" customWidth="1"/>
-    <col min="105" max="105" width="20.3333333333333" style="53" customWidth="1"/>
-    <col min="106" max="1024" width="14.5047619047619" style="53" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="53"/>
+    <col min="87" max="100" width="14.5047619047619" style="53" customWidth="1"/>
+    <col min="101" max="101" width="10.8285714285714" style="53" customWidth="1"/>
+    <col min="102" max="102" width="51.3333333333333" style="53" customWidth="1"/>
+    <col min="103" max="103" width="21.5047619047619" style="53" customWidth="1"/>
+    <col min="104" max="104" width="20.3333333333333" style="53" customWidth="1"/>
+    <col min="105" max="1023" width="14.5047619047619" style="53" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" s="51" customFormat="1" ht="63" spans="1:106">
+    <row r="1" s="51" customFormat="1" ht="63" spans="1:105">
       <c r="A1" s="54" t="s">
         <v>260</v>
       </c>
@@ -10237,7 +10234,7 @@
       <c r="CV1" s="54" t="s">
         <v>492</v>
       </c>
-      <c r="CW1" s="54" t="s">
+      <c r="CW1" s="64" t="s">
         <v>493</v>
       </c>
       <c r="CX1" s="64" t="s">
@@ -10252,19 +10249,16 @@
       <c r="DA1" s="64" t="s">
         <v>497</v>
       </c>
-      <c r="DB1" s="64" t="s">
+    </row>
+    <row r="2" s="51" customFormat="1" ht="15.75" customHeight="1" spans="1:105">
+      <c r="A2" s="56" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="2" s="51" customFormat="1" ht="15.75" customHeight="1" spans="1:106">
-      <c r="A2" s="56" t="s">
+      <c r="B2" s="51" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="C2" s="57" t="s">
         <v>500</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>501</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>341</v>
@@ -10279,46 +10273,46 @@
         <v>339</v>
       </c>
       <c r="H2" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="N2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="O2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="P2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="R2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="S2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="T2" s="57" t="s">
         <v>502</v>
       </c>
-      <c r="I2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="L2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="P2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="R2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="T2" s="57" t="s">
+      <c r="U2" s="60" t="s">
         <v>503</v>
-      </c>
-      <c r="U2" s="60" t="s">
-        <v>504</v>
       </c>
       <c r="V2" s="51" t="s">
         <v>341</v>
@@ -10339,207 +10333,207 @@
         <v>341</v>
       </c>
       <c r="AB2" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="AC2" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="AC2" s="62" t="s">
+      <c r="AD2" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BO2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BQ2" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="AD2" s="51" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="AZ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BL2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BO2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BQ2" s="51" t="s">
+      <c r="BR2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BT2" s="63" t="s">
         <v>507</v>
       </c>
-      <c r="BR2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BS2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT2" s="63" t="s">
+      <c r="BU2" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="BU2" s="51" t="s">
+      <c r="BV2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BW2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BX2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="BZ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CA2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CB2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CC2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CD2" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="BV2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BW2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BX2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="BZ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CA2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CB2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CC2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CD2" s="62" t="s">
+      <c r="CE2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CF2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CG2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH2" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="CI2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CJ2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CK2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CL2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CM2" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="CN2" s="51" t="s">
         <v>510</v>
-      </c>
-      <c r="CE2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CF2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CG2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CH2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="CI2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CJ2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CK2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CL2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CM2" s="51" t="s">
-        <v>341</v>
-      </c>
-      <c r="CN2" s="51" t="s">
-        <v>22</v>
       </c>
       <c r="CO2" s="51" t="s">
         <v>511</v>
       </c>
-      <c r="CP2" s="51" t="s">
+      <c r="CP2" s="61" t="s">
         <v>512</v>
       </c>
-      <c r="CQ2" s="61" t="s">
+      <c r="CQ2" s="51" t="s">
         <v>513</v>
       </c>
       <c r="CR2" s="51" t="s">
@@ -10548,37 +10542,34 @@
       <c r="CS2" s="51" t="s">
         <v>515</v>
       </c>
-      <c r="CT2" s="51" t="s">
+      <c r="CT2" s="65" t="s">
         <v>516</v>
       </c>
-      <c r="CU2" s="65" t="s">
+      <c r="CU2" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="CV2" s="58" t="s">
+      <c r="CV2" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="CW2" s="61" t="s">
+      <c r="CW2" s="66" t="s">
         <v>519</v>
       </c>
-      <c r="CX2" s="66" t="s">
+      <c r="CX2" s="67" t="s">
         <v>520</v>
       </c>
-      <c r="CY2" s="67" t="s">
+      <c r="CY2" s="68" t="s">
         <v>521</v>
       </c>
-      <c r="CZ2" s="68" t="s">
+      <c r="CZ2" s="69" t="s">
         <v>522</v>
       </c>
       <c r="DA2" s="69" t="s">
         <v>523</v>
-      </c>
-      <c r="DB2" s="69" t="s">
-        <v>524</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="CZ2" r:id="rId1" display="http://www.sensacine.com/noticias/"/>
+    <hyperlink ref="CY2" r:id="rId1" display="http://www.sensacine.com/noticias/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -10749,42 +10740,42 @@
         <v>480</v>
       </c>
       <c r="AM1" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="AN1" s="50" t="s">
         <v>525</v>
-      </c>
-      <c r="AN1" s="50" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:40">
       <c r="A2" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>527</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="D2" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="43" t="s">
+      <c r="H2" s="44" t="s">
         <v>530</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="41" t="s">
         <v>532</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>533</v>
       </c>
       <c r="K2" s="41" t="s">
         <v>341</v>
@@ -10871,10 +10862,10 @@
         <v>341</v>
       </c>
       <c r="AM2" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="AN2" s="52" t="s">
         <v>534</v>
-      </c>
-      <c r="AN2" s="52" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -10905,31 +10896,31 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:2">
       <c r="A1" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>536</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:2">
       <c r="A2" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:2">
       <c r="A3" s="36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:2">
       <c r="A4" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B4" s="35">
         <v>123456</v>
@@ -10937,18 +10928,18 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:2">
       <c r="A5" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>542</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:2">
       <c r="A6" s="36" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -10980,16 +10971,16 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A1" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>260</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>547</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>548</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -11004,28 +10995,28 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
       <c r="A2" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" s="23" t="s">
         <v>260</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="G2" s="23" t="s">
         <v>551</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="H2" s="23" t="s">
         <v>552</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>553</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
@@ -11072,10 +11063,10 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:14">
       <c r="A4" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>554</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>555</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -11106,10 +11097,10 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:14">
       <c r="A5" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C5" s="28">
         <v>3</v>
@@ -11140,10 +11131,10 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:14">
       <c r="A6" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C6" s="26">
         <v>15</v>
@@ -11174,7 +11165,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:14">
       <c r="A7" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>15</v>
@@ -11208,10 +11199,10 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:14">
       <c r="A8" s="25" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="27" t="s">
@@ -11240,7 +11231,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:14">
       <c r="A9" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>15</v>
@@ -11264,10 +11255,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:14">
       <c r="A10" s="25" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -11286,7 +11277,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:14">
       <c r="A11" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>15</v>
@@ -11320,10 +11311,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:14">
       <c r="A12" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C12" s="26">
         <v>18</v>
@@ -11354,7 +11345,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:14">
       <c r="A13" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>15</v>
@@ -11386,10 +11377,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:14">
       <c r="A14" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="27" t="s">
@@ -11452,7 +11443,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:14">
       <c r="A16" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -11472,7 +11463,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:14">
       <c r="A17" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B17" s="25" t="s">
         <v>15</v>
@@ -11504,7 +11495,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:14">
       <c r="A18" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -11524,7 +11515,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:14">
       <c r="A19" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="26">
@@ -11556,7 +11547,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:14">
       <c r="A20" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="26">
@@ -11588,7 +11579,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:14">
       <c r="A21" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="32"/>
@@ -11608,10 +11599,10 @@
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:14">
       <c r="A22" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>572</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>573</v>
       </c>
       <c r="C22" s="26">
         <v>9</v>
@@ -11642,7 +11633,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:14">
       <c r="A23" s="25" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="26">
@@ -11672,7 +11663,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:14">
       <c r="A24" s="25" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -11700,7 +11691,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:14">
       <c r="A25" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -11728,7 +11719,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:14">
       <c r="A26" s="25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -11756,10 +11747,10 @@
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:14">
       <c r="A27" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>578</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>579</v>
       </c>
       <c r="C27" s="26">
         <v>13</v>
@@ -11788,7 +11779,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:14">
       <c r="A28" s="25" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -11816,7 +11807,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:14">
       <c r="A29" s="25" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -11844,7 +11835,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:14">
       <c r="A30" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -11872,7 +11863,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:14">
       <c r="A31" s="25" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -11900,7 +11891,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:14">
       <c r="A32" s="25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -11953,49 +11944,49 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:28">
       <c r="A1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4"/>
       <c r="I1" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
       <c r="T1" s="9"/>
       <c r="U1" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="V1" s="10"/>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
@@ -12003,99 +11994,99 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:28">
       <c r="A2" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="E2" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:28">
       <c r="A3" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>620</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>621</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>332</v>
@@ -12175,16 +12166,16 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:28">
       <c r="A4" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="C4" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>622</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>623</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>22</v>
@@ -12261,16 +12252,16 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:28">
       <c r="A5" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="C5" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>22</v>
@@ -12347,16 +12338,16 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:28">
       <c r="A6" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="C6" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>626</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>627</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>22</v>
@@ -12433,16 +12424,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:28">
       <c r="A7" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>628</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>629</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>22</v>
@@ -12519,13 +12510,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:28">
       <c r="A8" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>332</v>
@@ -12603,16 +12594,16 @@
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:28">
       <c r="A9" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>334</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>622</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>623</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>31</v>
@@ -12689,16 +12680,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:28">
       <c r="A10" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>22</v>
@@ -12775,16 +12766,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:28">
       <c r="A11" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>22</v>
@@ -12861,16 +12852,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:28">
       <c r="A12" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>22</v>
@@ -12947,16 +12938,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:28">
       <c r="A13" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>22</v>
@@ -13039,7 +13030,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>332</v>
@@ -13125,10 +13116,10 @@
         <v>39</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>22</v>
@@ -13211,10 +13202,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>624</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>625</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>22</v>
@@ -13297,10 +13288,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>22</v>

--- a/Aml_automation/src/Common/excel.xlsx
+++ b/Aml_automation/src/Common/excel.xlsx
@@ -1526,9 +1526,6 @@
   </si>
   <si>
     <t>Llevamos años hablando sobre la revolución de la carne de mentira…</t>
-  </si>
-  <si>
-    <t>grande</t>
   </si>
   <si>
     <t>Esto ha levantado todo tipo de comentarios sumario</t>
@@ -1590,6 +1587,9 @@
     <t>https://infogr.am/be7b47aa-3d58-44da-a246-c015889c0459</t>
   </si>
   <si>
+    <t>grande</t>
+  </si>
+  <si>
     <t>vidaextra</t>
   </si>
   <si>
@@ -1611,7 +1611,7 @@
     <t>https://www.elcorteingles.es/deportes</t>
   </si>
   <si>
-    <t>Esa opción estaba hasta ahora restringida a gráficas de esta familia, pero NVIDIA ha anunciado en la conferencia</t>
+    <t>Esa opción estaba hasta ahora restringida a gráficas de esta familia, pero NVIDIA.</t>
   </si>
   <si>
     <t>hookimage.jpeg</t>
@@ -1981,10 +1981,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="63">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2114,6 +2114,12 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -2257,13 +2263,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2272,13 +2271,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2293,7 +2285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2307,16 +2299,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2335,6 +2326,43 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2362,40 +2390,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2498,25 +2504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,97 +2522,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,7 +2552,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2660,25 +2678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3067,21 +3073,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3106,21 +3097,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3140,153 +3116,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="32" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="56" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="31" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="46" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="29" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="29" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3475,10 +3481,10 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3487,20 +3493,23 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3512,7 +3521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3524,13 +3533,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3544,23 +3553,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3569,7 +3578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3581,16 +3590,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,40 +3611,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3644,28 +3653,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4014,197 +4023,197 @@
   </cols>
   <sheetData>
     <row r="1" s="34" customFormat="1" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="126" t="s">
+      <c r="I1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="126" t="s">
+      <c r="J1" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="127" t="s">
+      <c r="L1" s="128" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:12">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="99"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="128" t="s">
+      <c r="J2" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="128" t="s">
+      <c r="K2" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="130" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:12">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="118" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="128" t="s">
+      <c r="J3" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="128" t="s">
+      <c r="K3" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="129" t="s">
+      <c r="L3" s="130" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:12">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="116" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E4" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
-      <c r="H4" s="116" t="s">
+      <c r="H4" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="128" t="s">
+      <c r="I4" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="128" t="s">
+      <c r="J4" s="100"/>
+      <c r="K4" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="129" t="s">
+      <c r="L4" s="130" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:12">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E5" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="128" t="s">
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="108"/>
+      <c r="L5" s="109"/>
     </row>
     <row r="6" ht="15.75" spans="1:12">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="115" t="s">
+      <c r="D6" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
-      <c r="H6" s="118" t="s">
+      <c r="H6" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="130" t="s">
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="110"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="108"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="109"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="34"/>
@@ -4214,13 +4223,13 @@
       <c r="L7" s="34"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="108"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
@@ -4230,565 +4239,565 @@
       <c r="L8" s="34"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="115" t="s">
+      <c r="D9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
-      <c r="H9" s="119" t="s">
+      <c r="H9" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="131"/>
-      <c r="K9" s="131"/>
-      <c r="L9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="133"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="115" t="s">
+      <c r="C10" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="122" t="s">
         <v>56</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
-      <c r="L10" s="133"/>
+      <c r="L10" s="134"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="122" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="34"/>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="133"/>
+      <c r="L11" s="134"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="116" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="115" t="s">
+      <c r="C12" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="117" t="s">
+      <c r="E12" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
-      <c r="H12" s="121" t="s">
+      <c r="H12" s="122" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="34"/>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
-      <c r="L12" s="133"/>
+      <c r="L12" s="134"/>
     </row>
     <row r="13" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="116" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="D13" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="117" t="s">
+      <c r="E13" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="122" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
-      <c r="L13" s="133"/>
+      <c r="L13" s="134"/>
     </row>
     <row r="14" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="115" t="s">
+      <c r="D14" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
-      <c r="H14" s="121" t="s">
+      <c r="H14" s="122" t="s">
         <v>74</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
-      <c r="L14" s="133"/>
+      <c r="L14" s="134"/>
     </row>
     <row r="15" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="115" t="s">
+      <c r="D15" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="117" t="s">
+      <c r="E15" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
-      <c r="H15" s="121" t="s">
+      <c r="H15" s="122" t="s">
         <v>78</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
-      <c r="L15" s="133"/>
+      <c r="L15" s="134"/>
     </row>
     <row r="16" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="115" t="s">
+      <c r="B16" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="115" t="s">
+      <c r="C16" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="115" t="s">
+      <c r="D16" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="121" t="s">
+      <c r="H16" s="122" t="s">
         <v>83</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="133"/>
+      <c r="L16" s="134"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="115" t="s">
+      <c r="D17" s="116" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="121" t="s">
+      <c r="H17" s="122" t="s">
         <v>88</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
-      <c r="L17" s="133"/>
+      <c r="L17" s="134"/>
     </row>
     <row r="18" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="115" t="s">
+      <c r="C18" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="117" t="s">
+      <c r="E18" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
-      <c r="H18" s="121" t="s">
+      <c r="H18" s="122" t="s">
         <v>93</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
-      <c r="L18" s="133"/>
+      <c r="L18" s="134"/>
     </row>
     <row r="19" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="115" t="s">
+      <c r="C19" s="116" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="121" t="s">
+      <c r="H19" s="122" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
-      <c r="L19" s="133"/>
+      <c r="L19" s="134"/>
     </row>
     <row r="20" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="115" t="s">
+      <c r="B20" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="115" t="s">
+      <c r="C20" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
-      <c r="H20" s="121" t="s">
+      <c r="H20" s="122" t="s">
         <v>103</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
-      <c r="L20" s="133"/>
+      <c r="L20" s="134"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="115" t="s">
+      <c r="B21" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="117" t="s">
+      <c r="E21" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="121" t="s">
+      <c r="H21" s="122" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="133"/>
+      <c r="L21" s="134"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="115" t="s">
+      <c r="C22" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="115" t="s">
+      <c r="D22" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="117" t="s">
+      <c r="E22" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
-      <c r="H22" s="121" t="s">
+      <c r="H22" s="122" t="s">
         <v>113</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
-      <c r="L22" s="133"/>
+      <c r="L22" s="134"/>
     </row>
     <row r="23" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="115" t="s">
+      <c r="B23" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="117" t="s">
+      <c r="E23" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="122" t="s">
         <v>117</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
-      <c r="L23" s="133"/>
+      <c r="L23" s="134"/>
     </row>
     <row r="24" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="97" t="s">
+      <c r="C24" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="115" t="s">
+      <c r="D24" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="117" t="s">
+      <c r="E24" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="122" t="s">
         <v>122</v>
       </c>
       <c r="I24" s="34"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="133"/>
+      <c r="L24" s="134"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="115" t="s">
+      <c r="C25" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="117" t="s">
+      <c r="E25" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="122" t="s">
         <v>126</v>
       </c>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
-      <c r="L25" s="133"/>
+      <c r="L25" s="134"/>
     </row>
     <row r="26" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A26" s="96" t="s">
+      <c r="A26" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="117" t="s">
+      <c r="E26" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="121" t="s">
+      <c r="H26" s="122" t="s">
         <v>128</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
-      <c r="L26" s="133"/>
+      <c r="L26" s="134"/>
     </row>
     <row r="27" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="117" t="s">
+      <c r="E27" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
-      <c r="H27" s="121" t="s">
+      <c r="H27" s="122" t="s">
         <v>132</v>
       </c>
       <c r="I27" s="34"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
-      <c r="L27" s="133"/>
+      <c r="L27" s="134"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A28" s="96" t="s">
+      <c r="A28" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="115" t="s">
+      <c r="D28" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="117" t="s">
+      <c r="E28" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
-      <c r="H28" s="121" t="s">
+      <c r="H28" s="122" t="s">
         <v>137</v>
       </c>
       <c r="I28" s="34"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
-      <c r="L28" s="133"/>
+      <c r="L28" s="134"/>
     </row>
     <row r="29" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A29" s="96" t="s">
+      <c r="A29" s="97" t="s">
         <v>138</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="116" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="117" t="s">
+      <c r="E29" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="122" t="s">
+      <c r="H29" s="123" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="134"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="134"/>
-      <c r="L29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="136"/>
     </row>
     <row r="30" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="117" t="s">
+      <c r="E30" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="34"/>
@@ -4800,19 +4809,19 @@
       <c r="L30" s="34"/>
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A31" s="96" t="s">
+      <c r="A31" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="98" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="117" t="s">
+      <c r="E31" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="34"/>
@@ -4824,19 +4833,19 @@
       <c r="L31" s="34"/>
     </row>
     <row r="32" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="116" t="s">
         <v>150</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="117" t="s">
+      <c r="E32" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F32" s="34"/>
@@ -4848,19 +4857,19 @@
       <c r="L32" s="34"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="115" t="s">
+      <c r="D33" s="116" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="117" t="s">
+      <c r="E33" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="34"/>
@@ -4872,19 +4881,19 @@
       <c r="L33" s="34"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="97" t="s">
         <v>155</v>
       </c>
-      <c r="B34" s="115" t="s">
+      <c r="B34" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="116" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="117" t="s">
+      <c r="E34" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="34"/>
@@ -4896,19 +4905,19 @@
       <c r="L34" s="34"/>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="116" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="117" t="s">
+      <c r="E35" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F35" s="34"/>
@@ -4920,19 +4929,19 @@
       <c r="L35" s="34"/>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="97" t="s">
         <v>160</v>
       </c>
-      <c r="B36" s="115" t="s">
+      <c r="B36" s="116" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="117" t="s">
+      <c r="E36" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F36" s="34"/>
@@ -4944,19 +4953,19 @@
       <c r="L36" s="34"/>
     </row>
     <row r="37" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="98" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="117" t="s">
+      <c r="E37" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="34"/>
@@ -4968,19 +4977,19 @@
       <c r="L37" s="34"/>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="115" t="s">
+      <c r="B38" s="116" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="117" t="s">
+      <c r="E38" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="34"/>
@@ -4992,19 +5001,19 @@
       <c r="L38" s="34"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="115" t="s">
+      <c r="B39" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="117" t="s">
+      <c r="E39" s="118" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="34"/>
@@ -5016,19 +5025,19 @@
       <c r="L39" s="34"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="101" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="123" t="s">
+      <c r="B40" s="124" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="123" t="s">
+      <c r="C40" s="124" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="125" t="s">
+      <c r="E40" s="126" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="34"/>
@@ -5221,290 +5230,290 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="95" t="s">
+      <c r="G1" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="95" t="s">
+      <c r="I1" s="96" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="96" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="95" t="s">
+      <c r="L1" s="96" t="s">
         <v>185</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="M1" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="N1" s="104" t="s">
+      <c r="N1" s="105" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="99" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="H2" s="97" t="s">
+      <c r="H2" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="K2" s="98" t="s">
+      <c r="K2" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="L2" s="98" t="s">
+      <c r="L2" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="M2" s="97" t="s">
+      <c r="M2" s="98" t="s">
         <v>200</v>
       </c>
-      <c r="N2" s="105" t="s">
+      <c r="N2" s="106" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="98" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="98" t="s">
         <v>208</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="I3" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="K3" s="98" t="s">
+      <c r="K3" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="98" t="s">
+      <c r="L3" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="M3" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="106" t="s">
+      <c r="N3" s="107" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="98" t="s">
+      <c r="E4" s="100"/>
+      <c r="F4" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="L4" s="98" t="s">
+      <c r="L4" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="M4" s="97" t="s">
+      <c r="M4" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="N4" s="108"/>
+      <c r="N4" s="109"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="98" t="s">
+      <c r="E5" s="100"/>
+      <c r="F5" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="H5" s="97" t="s">
+      <c r="H5" s="98" t="s">
         <v>232</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="99" t="s">
         <v>234</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="110" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="N5" s="108"/>
+      <c r="N5" s="109"/>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="99"/>
-      <c r="F6" s="98" t="s">
+      <c r="E6" s="100"/>
+      <c r="F6" s="99" t="s">
         <v>242</v>
       </c>
-      <c r="G6" s="97" t="s">
+      <c r="G6" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="97" t="s">
+      <c r="H6" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="I6" s="97" t="s">
+      <c r="I6" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="J6" s="98" t="s">
+      <c r="J6" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="K6" s="98" t="s">
+      <c r="K6" s="99" t="s">
         <v>247</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="108"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="109"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="102" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="E7" s="103"/>
-      <c r="F7" s="102" t="s">
+      <c r="E7" s="104"/>
+      <c r="F7" s="103" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="101" t="s">
+      <c r="G7" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="H7" s="101" t="s">
+      <c r="H7" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="I7" s="101" t="s">
+      <c r="I7" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="J7" s="102" t="s">
+      <c r="J7" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="K7" s="102" t="s">
+      <c r="K7" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="L7" s="102" t="s">
+      <c r="L7" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="M7" s="103"/>
-      <c r="N7" s="110"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="111"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5568,2434 +5577,2434 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:84">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="78" t="s">
         <v>264</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="72" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="72" t="s">
         <v>267</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="72" t="s">
         <v>268</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="W1" s="85" t="s">
+      <c r="W1" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="X1" s="71" t="s">
+      <c r="X1" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="Y1" s="71" t="s">
+      <c r="Y1" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="AA1" s="71" t="s">
+      <c r="AA1" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="AB1" s="71" t="s">
+      <c r="AB1" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AD1" s="73" t="s">
         <v>288</v>
       </c>
-      <c r="AE1" s="72" t="s">
+      <c r="AE1" s="73" t="s">
         <v>289</v>
       </c>
-      <c r="AF1" s="73" t="s">
+      <c r="AF1" s="74" t="s">
         <v>290</v>
       </c>
-      <c r="AG1" s="77" t="s">
+      <c r="AG1" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="AH1" s="77" t="s">
+      <c r="AH1" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="AI1" s="77" t="s">
+      <c r="AI1" s="78" t="s">
         <v>293</v>
       </c>
-      <c r="AJ1" s="77" t="s">
+      <c r="AJ1" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="AK1" s="77" t="s">
+      <c r="AK1" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="AL1" s="77" t="s">
+      <c r="AL1" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="AM1" s="77" t="s">
+      <c r="AM1" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="AN1" s="77" t="s">
+      <c r="AN1" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="AO1" s="77" t="s">
+      <c r="AO1" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="AP1" s="77" t="s">
+      <c r="AP1" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="AQ1" s="77" t="s">
+      <c r="AQ1" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="AR1" s="77" t="s">
+      <c r="AR1" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="AS1" s="77" t="s">
+      <c r="AS1" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="AT1" s="77" t="s">
+      <c r="AT1" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="AU1" s="77" t="s">
+      <c r="AU1" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="AV1" s="77" t="s">
+      <c r="AV1" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="AW1" s="77" t="s">
+      <c r="AW1" s="78" t="s">
         <v>307</v>
       </c>
-      <c r="AX1" s="77" t="s">
+      <c r="AX1" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="AY1" s="77" t="s">
+      <c r="AY1" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="AZ1" s="77" t="s">
+      <c r="AZ1" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="BA1" s="77" t="s">
+      <c r="BA1" s="78" t="s">
         <v>311</v>
       </c>
-      <c r="BB1" s="77" t="s">
+      <c r="BB1" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="BC1" s="77" t="s">
+      <c r="BC1" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="BD1" s="77" t="s">
+      <c r="BD1" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="BE1" s="77" t="s">
+      <c r="BE1" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="BF1" s="77" t="s">
+      <c r="BF1" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="BG1" s="77" t="s">
+      <c r="BG1" s="78" t="s">
         <v>317</v>
       </c>
-      <c r="BH1" s="77" t="s">
+      <c r="BH1" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="BI1" s="77" t="s">
+      <c r="BI1" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="BJ1" s="77" t="s">
+      <c r="BJ1" s="78" t="s">
         <v>320</v>
       </c>
-      <c r="BK1" s="77" t="s">
+      <c r="BK1" s="78" t="s">
         <v>321</v>
       </c>
-      <c r="BL1" s="77" t="s">
+      <c r="BL1" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="BM1" s="77" t="s">
+      <c r="BM1" s="78" t="s">
         <v>323</v>
       </c>
-      <c r="BN1" s="77" t="s">
+      <c r="BN1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="BO1" s="77" t="s">
+      <c r="BO1" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="BP1" s="77" t="s">
+      <c r="BP1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="BQ1" s="77" t="s">
+      <c r="BQ1" s="78" t="s">
         <v>325</v>
       </c>
-      <c r="BR1" s="77" t="s">
+      <c r="BR1" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="BS1" s="77" t="s">
+      <c r="BS1" s="78" t="s">
         <v>327</v>
       </c>
-      <c r="BT1" s="77" t="s">
+      <c r="BT1" s="78" t="s">
         <v>328</v>
       </c>
-      <c r="BU1" s="77" t="s">
+      <c r="BU1" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="BV1" s="77" t="s">
+      <c r="BV1" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="BW1" s="77" t="s">
+      <c r="BW1" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="BX1" s="77" t="s">
+      <c r="BX1" s="78" t="s">
         <v>332</v>
       </c>
-      <c r="BY1" s="77" t="s">
+      <c r="BY1" s="78" t="s">
         <v>333</v>
       </c>
-      <c r="BZ1" s="81" t="s">
+      <c r="BZ1" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="CA1" s="81"/>
-      <c r="CB1" s="81"/>
-      <c r="CC1" s="81"/>
-      <c r="CD1" s="81"/>
-      <c r="CE1" s="81"/>
-      <c r="CF1" s="81"/>
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82"/>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
     </row>
     <row r="2" ht="14.25" spans="1:84">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="75" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>336</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>337</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="83" t="s">
         <v>339</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="H2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>341</v>
-      </c>
-      <c r="J2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="L2" s="75" t="s">
+      <c r="H2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="L2" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="76" t="s">
         <v>342</v>
       </c>
-      <c r="O2" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q2" s="82" t="s">
+      <c r="O2" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q2" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="R2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" s="75" t="s">
+      <c r="R2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="S2" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="V2" s="82" t="s">
+      <c r="U2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="V2" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="X2" s="82" t="s">
+      <c r="X2" s="83" t="s">
         <v>346</v>
       </c>
-      <c r="Y2" s="74" t="s">
+      <c r="Y2" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="75" t="s">
         <v>347</v>
       </c>
-      <c r="AA2" s="74" t="s">
+      <c r="AA2" s="75" t="s">
         <v>341</v>
       </c>
       <c r="AB2" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="AC2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AZ2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK2" s="78" t="s">
+      <c r="AC2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK2" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="BL2" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM2" s="79" t="s">
-        <v>341</v>
-      </c>
-      <c r="BN2" s="75" t="s">
+      <c r="BL2" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM2" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="BN2" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="BO2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BO2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP2" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="BQ2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BR2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BS2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BU2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BV2" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BW2" s="75" t="s">
+      <c r="BQ2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BT2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BV2" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BW2" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="BX2" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY2" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ2" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA2" s="75"/>
-      <c r="CB2" s="75"/>
-      <c r="CC2" s="75"/>
-      <c r="CD2" s="75"/>
-      <c r="CE2" s="75"/>
-      <c r="CF2" s="75"/>
+      <c r="BX2" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY2" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ2" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA2" s="76"/>
+      <c r="CB2" s="76"/>
+      <c r="CC2" s="76"/>
+      <c r="CD2" s="76"/>
+      <c r="CE2" s="76"/>
+      <c r="CF2" s="76"/>
     </row>
     <row r="3" ht="14.25" spans="1:84">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="75" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" s="82" t="s">
+      <c r="D3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="F3" s="83" t="s">
         <v>353</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="I3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="J3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="L3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="M3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="N3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="O3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="P3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="R3" s="74" t="s">
+      <c r="H3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="I3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="L3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="O3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="R3" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="S3" s="74" t="s">
+      <c r="S3" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="T3" s="74" t="s">
+      <c r="T3" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="74" t="s">
+      <c r="U3" s="75" t="s">
         <v>356</v>
       </c>
-      <c r="V3" s="82" t="s">
+      <c r="V3" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="W3" s="86" t="s">
+      <c r="W3" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="X3" s="82" t="s">
+      <c r="X3" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="Y3" s="74" t="s">
+      <c r="Y3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AG3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AH3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AI3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AJ3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AK3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AQ3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AR3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AS3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AT3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AU3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AV3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AW3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AX3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AY3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AZ3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BA3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BB3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BC3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BD3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BE3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BF3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BG3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BH3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BI3" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="BJ3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BK3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BL3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BM3" s="80"/>
-      <c r="BN3" s="75" t="s">
+      <c r="Z3" s="77" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AF3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AG3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AI3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AJ3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AK3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AM3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AP3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AR3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AS3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="AV3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AW3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AX3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AY3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="AZ3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BA3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BB3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BD3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BE3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BF3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BG3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BH3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BI3" s="76" t="s">
+        <v>341</v>
+      </c>
+      <c r="BJ3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BK3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BL3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BM3" s="81"/>
+      <c r="BN3" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="BO3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP3" s="75" t="s">
+      <c r="BO3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BP3" s="76" t="s">
         <v>349</v>
       </c>
-      <c r="BQ3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BR3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BS3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BU3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BV3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BW3" s="75" t="s">
+      <c r="BQ3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BR3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BT3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BU3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BV3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BW3" s="76" t="s">
         <v>358</v>
       </c>
-      <c r="BX3" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="BY3" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="BZ3" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="CA3" s="75"/>
-      <c r="CB3" s="75"/>
-      <c r="CC3" s="75"/>
-      <c r="CD3" s="75"/>
-      <c r="CE3" s="75"/>
-      <c r="CF3" s="75"/>
+      <c r="BX3" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="BY3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ3" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="CA3" s="76"/>
+      <c r="CB3" s="76"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="76"/>
+      <c r="CF3" s="76"/>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="1:84">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>359</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="D4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="E4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" s="82" t="s">
+      <c r="D4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="83" t="s">
         <v>340</v>
       </c>
-      <c r="H4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="I4" s="74" t="s">
+      <c r="H4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="I4" s="75" t="s">
         <v>363</v>
       </c>
-      <c r="J4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="K4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="L4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="M4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="N4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="O4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="P4" s="74" t="s">
+      <c r="J4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="R4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="S4" s="82" t="s">
+      <c r="R4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="S4" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="T4" s="87" t="s">
+      <c r="T4" s="88" t="s">
         <v>214</v>
       </c>
-      <c r="U4" s="82" t="s">
+      <c r="U4" s="83" t="s">
         <v>357</v>
       </c>
-      <c r="V4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="W4" s="86" t="s">
+      <c r="V4" s="75" t="s">
+        <v>341</v>
+      </c>
+      <c r="W4" s="87" t="s">
         <v>345</v>
       </c>
-      <c r="X4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC4" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD4" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE4" s="74" t=